--- a/results/rep_values.xlsx
+++ b/results/rep_values.xlsx
@@ -1,32 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://olddominion-my.sharepoint.com/personal/oruma001_odu_edu/Documents/Lemos_OneDrive_odu_windows/Lemos_ODU/Courses/CS895 - Fundamentals of Deep Learning/CS895_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1566" documentId="8_{03D354FD-0294-42CD-B0E4-FC0ABC04336E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94656E07-31A0-486F-B9AD-91BCDCD7A328}"/>
+  <xr:revisionPtr revIDLastSave="2029" documentId="8_{03D354FD-0294-42CD-B0E4-FC0ABC04336E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11F35742-F16A-43D8-BB3C-A9972982DB27}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="rep_values" sheetId="2" r:id="rId2"/>
+    <sheet name="rep_averaged" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="484">
   <si>
     <r>
       <rPr>
@@ -8631,13 +8643,262 @@
       </rPr>
       <t>%</t>
     </r>
+  </si>
+  <si>
+    <t>Average valaues</t>
+  </si>
+  <si>
+    <t>Architeture</t>
+  </si>
+  <si>
+    <t>Net size</t>
+  </si>
+  <si>
+    <t>Original value</t>
+  </si>
+  <si>
+    <t>Reported value</t>
+  </si>
+  <si>
+    <t>93.58%</t>
+  </si>
+  <si>
+    <t>94.56%</t>
+  </si>
+  <si>
+    <t>94.87%</t>
+  </si>
+  <si>
+    <t>95.40%</t>
+  </si>
+  <si>
+    <t>94.37%</t>
+  </si>
+  <si>
+    <t>95.44%</t>
+  </si>
+  <si>
+    <t>94.71%</t>
+  </si>
+  <si>
+    <t>95.88%</t>
+  </si>
+  <si>
+    <t>95.15%</t>
+  </si>
+  <si>
+    <t>95.80%</t>
+  </si>
+  <si>
+    <t>90.51%</t>
+  </si>
+  <si>
+    <t>94.35%</t>
+  </si>
+  <si>
+    <t>95.14%</t>
+  </si>
+  <si>
+    <t>95.82%</t>
+  </si>
+  <si>
+    <t>81.22%</t>
+  </si>
+  <si>
+    <t>84.45%</t>
+  </si>
+  <si>
+    <t>94.57%</t>
+  </si>
+  <si>
+    <t>95.38%</t>
+  </si>
+  <si>
+    <t>86.07%</t>
+  </si>
+  <si>
+    <t>88.42%</t>
+  </si>
+  <si>
+    <t>2.01%</t>
+  </si>
+  <si>
+    <t>37.94%</t>
+  </si>
+  <si>
+    <t>16.10%</t>
+  </si>
+  <si>
+    <t>35.73%</t>
+  </si>
+  <si>
+    <t>15.17%</t>
+  </si>
+  <si>
+    <t>36.52%</t>
+  </si>
+  <si>
+    <t>17.90%</t>
+  </si>
+  <si>
+    <t>42.91%</t>
+  </si>
+  <si>
+    <t>17.98%</t>
+  </si>
+  <si>
+    <t>30.93%</t>
+  </si>
+  <si>
+    <t>15.88%</t>
+  </si>
+  <si>
+    <t>29.01%</t>
+  </si>
+  <si>
+    <t>8.84%</t>
+  </si>
+  <si>
+    <t>21.89%</t>
+  </si>
+  <si>
+    <t>10.49%</t>
+  </si>
+  <si>
+    <t>16.60%</t>
+  </si>
+  <si>
+    <t>32.22%</t>
+  </si>
+  <si>
+    <t>19.03%</t>
+  </si>
+  <si>
+    <t>22.40%</t>
+  </si>
+  <si>
+    <t>63.22%</t>
+  </si>
+  <si>
+    <t>71.97%</t>
+  </si>
+  <si>
+    <t>72.67%</t>
+  </si>
+  <si>
+    <t>76.55%</t>
+  </si>
+  <si>
+    <t>70.79%</t>
+  </si>
+  <si>
+    <t>76.04 %</t>
+  </si>
+  <si>
+    <t>74.79%</t>
+  </si>
+  <si>
+    <t>77.63%</t>
+  </si>
+  <si>
+    <t>74.26%</t>
+  </si>
+  <si>
+    <t>77.35%</t>
+  </si>
+  <si>
+    <t>66.31%</t>
+  </si>
+  <si>
+    <t>72.33%</t>
+  </si>
+  <si>
+    <t>74.87%</t>
+  </si>
+  <si>
+    <t>76.12%</t>
+  </si>
+  <si>
+    <t>44.60%</t>
+  </si>
+  <si>
+    <t>55.65%</t>
+  </si>
+  <si>
+    <t>71.10%</t>
+  </si>
+  <si>
+    <t>75.79 %</t>
+  </si>
+  <si>
+    <t>57.23%</t>
+  </si>
+  <si>
+    <t>57.59%</t>
+  </si>
+  <si>
+    <t>72.75%</t>
+  </si>
+  <si>
+    <t>75.32%</t>
+  </si>
+  <si>
+    <t>77.70%</t>
+  </si>
+  <si>
+    <t>78.63%</t>
+  </si>
+  <si>
+    <t>76.14%</t>
+  </si>
+  <si>
+    <t>79.14%</t>
+  </si>
+  <si>
+    <t>77.99%</t>
+  </si>
+  <si>
+    <t>80.69%</t>
+  </si>
+  <si>
+    <t>78.60%</t>
+  </si>
+  <si>
+    <t>80.34%</t>
+  </si>
+  <si>
+    <t>67.52%</t>
+  </si>
+  <si>
+    <t>74.90%</t>
+  </si>
+  <si>
+    <t>78.87%</t>
+  </si>
+  <si>
+    <t>80.38%</t>
+  </si>
+  <si>
+    <t>54.52%</t>
+  </si>
+  <si>
+    <t>59.44%</t>
+  </si>
+  <si>
+    <t>76.41%</t>
+  </si>
+  <si>
+    <t>59.09%</t>
+  </si>
+  <si>
+    <t>62.37%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8770,13 +9031,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -8833,13 +9087,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -8914,7 +9161,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -9175,11 +9422,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -9256,9 +9547,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -9268,7 +9556,7 @@
     <xf numFmtId="0" fontId="18" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9286,16 +9574,16 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="24" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="23" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="25" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="24" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="25" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="24" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="18" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9310,13 +9598,13 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="30" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="29" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="30" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="29" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="30" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="29" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -9328,13 +9616,13 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="25" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="24" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9348,6 +9636,62 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="29" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="24" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="29" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="24" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="29" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -9439,6 +9783,12 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -9469,6 +9819,9 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -9484,12 +9837,6 @@
     <xf numFmtId="2" fontId="18" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -9502,53 +9849,50 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="18" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9636,10 +9980,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9928,31 +10268,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="63" t="s">
+      <c r="B1" s="79"/>
+      <c r="C1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="63" t="s">
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="61"/>
-      <c r="B2" s="62"/>
+      <c r="A2" s="80"/>
+      <c r="B2" s="81"/>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
@@ -9971,10 +10311,10 @@
       <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="66" t="s">
+      <c r="I2" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="67"/>
+      <c r="J2" s="86"/>
       <c r="K2" s="3" t="s">
         <v>9</v>
       </c>
@@ -10016,10 +10356,10 @@
       <c r="H3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="68" t="s">
+      <c r="I3" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="69"/>
+      <c r="J3" s="88"/>
       <c r="K3" s="5" t="s">
         <v>19</v>
       </c>
@@ -10061,10 +10401,10 @@
       <c r="H4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="57" t="s">
+      <c r="I4" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="58"/>
+      <c r="J4" s="77"/>
       <c r="K4" s="8" t="s">
         <v>33</v>
       </c>
@@ -10106,10 +10446,10 @@
       <c r="H5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="57" t="s">
+      <c r="I5" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="J5" s="58"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="8" t="s">
         <v>46</v>
       </c>
@@ -10151,10 +10491,10 @@
       <c r="H6" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I6" s="57" t="s">
+      <c r="I6" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="J6" s="58"/>
+      <c r="J6" s="77"/>
       <c r="K6" s="8" t="s">
         <v>60</v>
       </c>
@@ -10196,10 +10536,10 @@
       <c r="H7" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="I7" s="57" t="s">
+      <c r="I7" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="J7" s="58"/>
+      <c r="J7" s="77"/>
       <c r="K7" s="8" t="s">
         <v>74</v>
       </c>
@@ -10241,10 +10581,10 @@
       <c r="H8" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="I8" s="57" t="s">
+      <c r="I8" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="J8" s="58"/>
+      <c r="J8" s="77"/>
       <c r="K8" s="8" t="s">
         <v>88</v>
       </c>
@@ -10286,10 +10626,10 @@
       <c r="H9" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="I9" s="57" t="s">
+      <c r="I9" s="76" t="s">
         <v>101</v>
       </c>
-      <c r="J9" s="58"/>
+      <c r="J9" s="77"/>
       <c r="K9" s="8" t="s">
         <v>102</v>
       </c>
@@ -10331,10 +10671,10 @@
       <c r="H10" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="I10" s="57" t="s">
+      <c r="I10" s="76" t="s">
         <v>115</v>
       </c>
-      <c r="J10" s="58"/>
+      <c r="J10" s="77"/>
       <c r="K10" s="8" t="s">
         <v>116</v>
       </c>
@@ -10376,10 +10716,10 @@
       <c r="H11" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="I11" s="57" t="s">
+      <c r="I11" s="76" t="s">
         <v>129</v>
       </c>
-      <c r="J11" s="58"/>
+      <c r="J11" s="77"/>
       <c r="K11" s="8" t="s">
         <v>130</v>
       </c>
@@ -10421,10 +10761,10 @@
       <c r="H12" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="I12" s="57" t="s">
+      <c r="I12" s="76" t="s">
         <v>142</v>
       </c>
-      <c r="J12" s="58"/>
+      <c r="J12" s="77"/>
       <c r="K12" s="8" t="s">
         <v>143</v>
       </c>
@@ -10464,27 +10804,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618D485D-9125-4159-93BB-0FFA5EB4FC46}">
-  <dimension ref="A1:DX37"/>
+  <dimension ref="A1:DX38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BJ1" activePane="topRight" state="frozen"/>
-      <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="DT7" sqref="DT7"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="DN20" sqref="DN20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
     <col min="2" max="7" width="10.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="34" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="33" customWidth="1"/>
     <col min="9" max="13" width="10.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" style="34" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" style="33" customWidth="1"/>
     <col min="15" max="43" width="10.85546875" style="1" customWidth="1"/>
     <col min="44" max="62" width="9.85546875" style="1" customWidth="1"/>
     <col min="63" max="63" width="14.85546875" style="1" customWidth="1"/>
     <col min="64" max="64" width="11.28515625" style="1" customWidth="1"/>
     <col min="65" max="66" width="9.85546875" style="1" customWidth="1"/>
-    <col min="67" max="124" width="10.85546875" style="20" customWidth="1"/>
+    <col min="67" max="74" width="10.85546875" style="20" customWidth="1"/>
+    <col min="75" max="75" width="8.85546875" style="20" customWidth="1"/>
+    <col min="76" max="76" width="10.140625" style="20" customWidth="1"/>
+    <col min="77" max="77" width="10.85546875" style="20" customWidth="1"/>
+    <col min="78" max="78" width="7.140625" style="20" customWidth="1"/>
+    <col min="79" max="84" width="10.85546875" style="20" customWidth="1"/>
+    <col min="85" max="85" width="10.7109375" style="20" customWidth="1"/>
+    <col min="86" max="86" width="9" style="20" customWidth="1"/>
+    <col min="87" max="87" width="10.7109375" style="20" customWidth="1"/>
+    <col min="88" max="88" width="10.140625" style="20" customWidth="1"/>
+    <col min="89" max="89" width="10.28515625" style="20" customWidth="1"/>
+    <col min="90" max="90" width="10.5703125" style="20" customWidth="1"/>
+    <col min="91" max="91" width="9.85546875" style="20" customWidth="1"/>
+    <col min="92" max="92" width="9.28515625" style="20" customWidth="1"/>
+    <col min="93" max="100" width="10.85546875" style="20" customWidth="1"/>
+    <col min="101" max="101" width="9.5703125" style="20" customWidth="1"/>
+    <col min="102" max="116" width="10.85546875" style="20" customWidth="1"/>
+    <col min="117" max="117" width="10.7109375" style="20" customWidth="1"/>
+    <col min="118" max="118" width="10.140625" style="20" customWidth="1"/>
+    <col min="119" max="119" width="10.85546875" style="20" customWidth="1"/>
+    <col min="120" max="120" width="10.42578125" style="20" customWidth="1"/>
+    <col min="121" max="121" width="10.5703125" style="20" customWidth="1"/>
+    <col min="122" max="124" width="10.85546875" style="20" customWidth="1"/>
     <col min="125" max="16384" width="8" style="1"/>
   </cols>
   <sheetData>
@@ -10494,1136 +10854,1136 @@
       </c>
     </row>
     <row r="2" spans="1:128" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="126" t="s">
         <v>214</v>
       </c>
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="126" t="s">
         <v>213</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="89" t="s">
         <v>218</v>
       </c>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71"/>
-      <c r="T2" s="71"/>
-      <c r="U2" s="71"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="70" t="s">
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="90"/>
+      <c r="R2" s="90"/>
+      <c r="S2" s="90"/>
+      <c r="T2" s="90"/>
+      <c r="U2" s="90"/>
+      <c r="V2" s="91"/>
+      <c r="W2" s="89" t="s">
         <v>218</v>
       </c>
-      <c r="X2" s="71"/>
-      <c r="Y2" s="71"/>
-      <c r="Z2" s="71"/>
-      <c r="AA2" s="71"/>
-      <c r="AB2" s="71"/>
-      <c r="AC2" s="71"/>
-      <c r="AD2" s="71"/>
-      <c r="AE2" s="71"/>
-      <c r="AF2" s="71"/>
-      <c r="AG2" s="71"/>
-      <c r="AH2" s="71"/>
-      <c r="AI2" s="71"/>
-      <c r="AJ2" s="71"/>
-      <c r="AK2" s="71"/>
-      <c r="AL2" s="71"/>
-      <c r="AM2" s="71"/>
-      <c r="AN2" s="71"/>
-      <c r="AO2" s="71"/>
-      <c r="AP2" s="72"/>
-      <c r="AQ2" s="73" t="s">
+      <c r="X2" s="90"/>
+      <c r="Y2" s="90"/>
+      <c r="Z2" s="90"/>
+      <c r="AA2" s="90"/>
+      <c r="AB2" s="90"/>
+      <c r="AC2" s="90"/>
+      <c r="AD2" s="90"/>
+      <c r="AE2" s="90"/>
+      <c r="AF2" s="90"/>
+      <c r="AG2" s="90"/>
+      <c r="AH2" s="90"/>
+      <c r="AI2" s="90"/>
+      <c r="AJ2" s="90"/>
+      <c r="AK2" s="90"/>
+      <c r="AL2" s="90"/>
+      <c r="AM2" s="90"/>
+      <c r="AN2" s="90"/>
+      <c r="AO2" s="90"/>
+      <c r="AP2" s="91"/>
+      <c r="AQ2" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="AR2" s="74"/>
-      <c r="AS2" s="74"/>
-      <c r="AT2" s="74"/>
-      <c r="AU2" s="74"/>
-      <c r="AV2" s="74"/>
-      <c r="AW2" s="74"/>
-      <c r="AX2" s="74"/>
-      <c r="AY2" s="74"/>
-      <c r="AZ2" s="74"/>
-      <c r="BA2" s="74"/>
-      <c r="BB2" s="74"/>
-      <c r="BC2" s="74"/>
-      <c r="BD2" s="74"/>
-      <c r="BE2" s="74"/>
-      <c r="BF2" s="74"/>
-      <c r="BG2" s="74"/>
-      <c r="BH2" s="74"/>
-      <c r="BI2" s="74"/>
-      <c r="BJ2" s="74"/>
-      <c r="BK2" s="31"/>
-      <c r="BL2" s="32"/>
-      <c r="BM2" s="75" t="s">
+      <c r="AR2" s="93"/>
+      <c r="AS2" s="93"/>
+      <c r="AT2" s="93"/>
+      <c r="AU2" s="93"/>
+      <c r="AV2" s="93"/>
+      <c r="AW2" s="93"/>
+      <c r="AX2" s="93"/>
+      <c r="AY2" s="93"/>
+      <c r="AZ2" s="93"/>
+      <c r="BA2" s="93"/>
+      <c r="BB2" s="93"/>
+      <c r="BC2" s="93"/>
+      <c r="BD2" s="93"/>
+      <c r="BE2" s="93"/>
+      <c r="BF2" s="93"/>
+      <c r="BG2" s="93"/>
+      <c r="BH2" s="93"/>
+      <c r="BI2" s="93"/>
+      <c r="BJ2" s="93"/>
+      <c r="BK2" s="30"/>
+      <c r="BL2" s="31"/>
+      <c r="BM2" s="94" t="s">
         <v>234</v>
       </c>
-      <c r="BN2" s="76"/>
-      <c r="BO2" s="76"/>
-      <c r="BP2" s="76"/>
-      <c r="BQ2" s="76"/>
-      <c r="BR2" s="76"/>
-      <c r="BS2" s="76"/>
-      <c r="BT2" s="76"/>
-      <c r="BU2" s="76"/>
-      <c r="BV2" s="76"/>
-      <c r="BW2" s="76"/>
-      <c r="BX2" s="76"/>
-      <c r="BY2" s="76"/>
-      <c r="BZ2" s="76"/>
-      <c r="CA2" s="76"/>
-      <c r="CB2" s="76"/>
-      <c r="CC2" s="76"/>
-      <c r="CD2" s="76"/>
-      <c r="CE2" s="76"/>
-      <c r="CF2" s="77"/>
-      <c r="CG2" s="75" t="s">
+      <c r="BN2" s="95"/>
+      <c r="BO2" s="95"/>
+      <c r="BP2" s="95"/>
+      <c r="BQ2" s="95"/>
+      <c r="BR2" s="95"/>
+      <c r="BS2" s="95"/>
+      <c r="BT2" s="95"/>
+      <c r="BU2" s="95"/>
+      <c r="BV2" s="95"/>
+      <c r="BW2" s="95"/>
+      <c r="BX2" s="95"/>
+      <c r="BY2" s="95"/>
+      <c r="BZ2" s="95"/>
+      <c r="CA2" s="95"/>
+      <c r="CB2" s="95"/>
+      <c r="CC2" s="95"/>
+      <c r="CD2" s="95"/>
+      <c r="CE2" s="95"/>
+      <c r="CF2" s="96"/>
+      <c r="CG2" s="94" t="s">
         <v>234</v>
       </c>
-      <c r="CH2" s="76"/>
-      <c r="CI2" s="76"/>
-      <c r="CJ2" s="76"/>
-      <c r="CK2" s="76"/>
-      <c r="CL2" s="76"/>
-      <c r="CM2" s="76"/>
-      <c r="CN2" s="76"/>
-      <c r="CO2" s="76"/>
-      <c r="CP2" s="76"/>
-      <c r="CQ2" s="76"/>
-      <c r="CR2" s="76"/>
-      <c r="CS2" s="76"/>
-      <c r="CT2" s="76"/>
-      <c r="CU2" s="76"/>
-      <c r="CV2" s="76"/>
-      <c r="CW2" s="76"/>
-      <c r="CX2" s="76"/>
-      <c r="CY2" s="76"/>
-      <c r="CZ2" s="77"/>
-      <c r="DA2" s="75" t="s">
+      <c r="CH2" s="95"/>
+      <c r="CI2" s="95"/>
+      <c r="CJ2" s="95"/>
+      <c r="CK2" s="95"/>
+      <c r="CL2" s="95"/>
+      <c r="CM2" s="95"/>
+      <c r="CN2" s="95"/>
+      <c r="CO2" s="95"/>
+      <c r="CP2" s="95"/>
+      <c r="CQ2" s="95"/>
+      <c r="CR2" s="95"/>
+      <c r="CS2" s="95"/>
+      <c r="CT2" s="95"/>
+      <c r="CU2" s="95"/>
+      <c r="CV2" s="95"/>
+      <c r="CW2" s="95"/>
+      <c r="CX2" s="95"/>
+      <c r="CY2" s="95"/>
+      <c r="CZ2" s="96"/>
+      <c r="DA2" s="94" t="s">
         <v>234</v>
       </c>
-      <c r="DB2" s="76"/>
-      <c r="DC2" s="76"/>
-      <c r="DD2" s="76"/>
-      <c r="DE2" s="76"/>
-      <c r="DF2" s="76"/>
-      <c r="DG2" s="76"/>
-      <c r="DH2" s="76"/>
-      <c r="DI2" s="76"/>
-      <c r="DJ2" s="76"/>
-      <c r="DK2" s="76"/>
-      <c r="DL2" s="76"/>
-      <c r="DM2" s="76"/>
-      <c r="DN2" s="76"/>
-      <c r="DO2" s="76"/>
-      <c r="DP2" s="76"/>
-      <c r="DQ2" s="76"/>
-      <c r="DR2" s="76"/>
-      <c r="DS2" s="76"/>
-      <c r="DT2" s="77"/>
-      <c r="DU2" s="33"/>
-      <c r="DV2" s="33"/>
-      <c r="DW2" s="33"/>
-      <c r="DX2" s="33"/>
+      <c r="DB2" s="95"/>
+      <c r="DC2" s="95"/>
+      <c r="DD2" s="95"/>
+      <c r="DE2" s="95"/>
+      <c r="DF2" s="95"/>
+      <c r="DG2" s="95"/>
+      <c r="DH2" s="95"/>
+      <c r="DI2" s="95"/>
+      <c r="DJ2" s="95"/>
+      <c r="DK2" s="95"/>
+      <c r="DL2" s="95"/>
+      <c r="DM2" s="95"/>
+      <c r="DN2" s="95"/>
+      <c r="DO2" s="95"/>
+      <c r="DP2" s="95"/>
+      <c r="DQ2" s="95"/>
+      <c r="DR2" s="95"/>
+      <c r="DS2" s="95"/>
+      <c r="DT2" s="96"/>
+      <c r="DU2" s="32"/>
+      <c r="DV2" s="32"/>
+      <c r="DW2" s="32"/>
+      <c r="DX2" s="32"/>
     </row>
     <row r="3" spans="1:128" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="106"/>
-      <c r="B3" s="106"/>
-      <c r="C3" s="89" t="s">
+      <c r="A3" s="126"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="110" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="89"/>
-      <c r="S3" s="89"/>
-      <c r="T3" s="89"/>
-      <c r="U3" s="89"/>
-      <c r="V3" s="89"/>
-      <c r="W3" s="111" t="s">
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="110"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="110"/>
+      <c r="R3" s="110"/>
+      <c r="S3" s="110"/>
+      <c r="T3" s="110"/>
+      <c r="U3" s="110"/>
+      <c r="V3" s="110"/>
+      <c r="W3" s="131" t="s">
         <v>232</v>
       </c>
-      <c r="X3" s="111"/>
-      <c r="Y3" s="111"/>
-      <c r="Z3" s="111"/>
-      <c r="AA3" s="111"/>
-      <c r="AB3" s="111"/>
-      <c r="AC3" s="111"/>
-      <c r="AD3" s="111"/>
-      <c r="AE3" s="111"/>
-      <c r="AF3" s="111"/>
-      <c r="AG3" s="111"/>
-      <c r="AH3" s="111"/>
-      <c r="AI3" s="111"/>
-      <c r="AJ3" s="111"/>
-      <c r="AK3" s="111"/>
-      <c r="AL3" s="111"/>
-      <c r="AM3" s="111"/>
-      <c r="AN3" s="111"/>
-      <c r="AO3" s="111"/>
-      <c r="AP3" s="111"/>
-      <c r="AQ3" s="89" t="s">
+      <c r="X3" s="131"/>
+      <c r="Y3" s="131"/>
+      <c r="Z3" s="131"/>
+      <c r="AA3" s="131"/>
+      <c r="AB3" s="131"/>
+      <c r="AC3" s="131"/>
+      <c r="AD3" s="131"/>
+      <c r="AE3" s="131"/>
+      <c r="AF3" s="131"/>
+      <c r="AG3" s="131"/>
+      <c r="AH3" s="131"/>
+      <c r="AI3" s="131"/>
+      <c r="AJ3" s="131"/>
+      <c r="AK3" s="131"/>
+      <c r="AL3" s="131"/>
+      <c r="AM3" s="131"/>
+      <c r="AN3" s="131"/>
+      <c r="AO3" s="131"/>
+      <c r="AP3" s="131"/>
+      <c r="AQ3" s="110" t="s">
         <v>233</v>
       </c>
-      <c r="AR3" s="89"/>
-      <c r="AS3" s="89"/>
-      <c r="AT3" s="89"/>
-      <c r="AU3" s="89"/>
-      <c r="AV3" s="89"/>
-      <c r="AW3" s="89"/>
-      <c r="AX3" s="89"/>
-      <c r="AY3" s="89"/>
-      <c r="AZ3" s="89"/>
-      <c r="BA3" s="89"/>
-      <c r="BB3" s="89"/>
-      <c r="BC3" s="89"/>
-      <c r="BD3" s="89"/>
-      <c r="BE3" s="89"/>
-      <c r="BF3" s="89"/>
-      <c r="BG3" s="89"/>
-      <c r="BH3" s="89"/>
-      <c r="BI3" s="89"/>
-      <c r="BJ3" s="89"/>
-      <c r="BK3" s="99" t="s">
+      <c r="AR3" s="110"/>
+      <c r="AS3" s="110"/>
+      <c r="AT3" s="110"/>
+      <c r="AU3" s="110"/>
+      <c r="AV3" s="110"/>
+      <c r="AW3" s="110"/>
+      <c r="AX3" s="110"/>
+      <c r="AY3" s="110"/>
+      <c r="AZ3" s="110"/>
+      <c r="BA3" s="110"/>
+      <c r="BB3" s="110"/>
+      <c r="BC3" s="110"/>
+      <c r="BD3" s="110"/>
+      <c r="BE3" s="110"/>
+      <c r="BF3" s="110"/>
+      <c r="BG3" s="110"/>
+      <c r="BH3" s="110"/>
+      <c r="BI3" s="110"/>
+      <c r="BJ3" s="110"/>
+      <c r="BK3" s="121" t="s">
         <v>214</v>
       </c>
-      <c r="BL3" s="87" t="s">
+      <c r="BL3" s="108" t="s">
         <v>213</v>
       </c>
-      <c r="BM3" s="89" t="s">
+      <c r="BM3" s="110" t="s">
         <v>216</v>
       </c>
-      <c r="BN3" s="89"/>
-      <c r="BO3" s="89"/>
-      <c r="BP3" s="89"/>
-      <c r="BQ3" s="89"/>
-      <c r="BR3" s="89"/>
-      <c r="BS3" s="89"/>
-      <c r="BT3" s="89"/>
-      <c r="BU3" s="89"/>
-      <c r="BV3" s="89"/>
-      <c r="BW3" s="89"/>
-      <c r="BX3" s="89"/>
-      <c r="BY3" s="89"/>
-      <c r="BZ3" s="89"/>
-      <c r="CA3" s="89"/>
-      <c r="CB3" s="89"/>
-      <c r="CC3" s="89"/>
-      <c r="CD3" s="89"/>
-      <c r="CE3" s="89"/>
-      <c r="CF3" s="89"/>
-      <c r="CG3" s="78" t="s">
+      <c r="BN3" s="110"/>
+      <c r="BO3" s="110"/>
+      <c r="BP3" s="110"/>
+      <c r="BQ3" s="110"/>
+      <c r="BR3" s="110"/>
+      <c r="BS3" s="110"/>
+      <c r="BT3" s="110"/>
+      <c r="BU3" s="110"/>
+      <c r="BV3" s="110"/>
+      <c r="BW3" s="110"/>
+      <c r="BX3" s="110"/>
+      <c r="BY3" s="110"/>
+      <c r="BZ3" s="110"/>
+      <c r="CA3" s="110"/>
+      <c r="CB3" s="110"/>
+      <c r="CC3" s="110"/>
+      <c r="CD3" s="110"/>
+      <c r="CE3" s="110"/>
+      <c r="CF3" s="110"/>
+      <c r="CG3" s="97" t="s">
         <v>232</v>
       </c>
-      <c r="CH3" s="78"/>
-      <c r="CI3" s="78"/>
-      <c r="CJ3" s="78"/>
-      <c r="CK3" s="78"/>
-      <c r="CL3" s="78"/>
-      <c r="CM3" s="78"/>
-      <c r="CN3" s="78"/>
-      <c r="CO3" s="78"/>
-      <c r="CP3" s="78"/>
-      <c r="CQ3" s="78"/>
-      <c r="CR3" s="78"/>
-      <c r="CS3" s="78"/>
-      <c r="CT3" s="78"/>
-      <c r="CU3" s="78"/>
-      <c r="CV3" s="78"/>
-      <c r="CW3" s="78"/>
-      <c r="CX3" s="78"/>
-      <c r="CY3" s="78"/>
-      <c r="CZ3" s="78"/>
-      <c r="DA3" s="79" t="s">
+      <c r="CH3" s="97"/>
+      <c r="CI3" s="97"/>
+      <c r="CJ3" s="97"/>
+      <c r="CK3" s="97"/>
+      <c r="CL3" s="97"/>
+      <c r="CM3" s="97"/>
+      <c r="CN3" s="97"/>
+      <c r="CO3" s="97"/>
+      <c r="CP3" s="97"/>
+      <c r="CQ3" s="97"/>
+      <c r="CR3" s="97"/>
+      <c r="CS3" s="97"/>
+      <c r="CT3" s="97"/>
+      <c r="CU3" s="97"/>
+      <c r="CV3" s="97"/>
+      <c r="CW3" s="97"/>
+      <c r="CX3" s="97"/>
+      <c r="CY3" s="97"/>
+      <c r="CZ3" s="97"/>
+      <c r="DA3" s="98" t="s">
         <v>233</v>
       </c>
-      <c r="DB3" s="79"/>
-      <c r="DC3" s="79"/>
-      <c r="DD3" s="79"/>
-      <c r="DE3" s="79"/>
-      <c r="DF3" s="79"/>
-      <c r="DG3" s="79"/>
-      <c r="DH3" s="79"/>
-      <c r="DI3" s="79"/>
-      <c r="DJ3" s="79"/>
-      <c r="DK3" s="79"/>
-      <c r="DL3" s="79"/>
-      <c r="DM3" s="79"/>
-      <c r="DN3" s="79"/>
-      <c r="DO3" s="79"/>
-      <c r="DP3" s="79"/>
-      <c r="DQ3" s="79"/>
-      <c r="DR3" s="79"/>
-      <c r="DS3" s="79"/>
-      <c r="DT3" s="79"/>
+      <c r="DB3" s="98"/>
+      <c r="DC3" s="98"/>
+      <c r="DD3" s="98"/>
+      <c r="DE3" s="98"/>
+      <c r="DF3" s="98"/>
+      <c r="DG3" s="98"/>
+      <c r="DH3" s="98"/>
+      <c r="DI3" s="98"/>
+      <c r="DJ3" s="98"/>
+      <c r="DK3" s="98"/>
+      <c r="DL3" s="98"/>
+      <c r="DM3" s="98"/>
+      <c r="DN3" s="98"/>
+      <c r="DO3" s="98"/>
+      <c r="DP3" s="98"/>
+      <c r="DQ3" s="98"/>
+      <c r="DR3" s="98"/>
+      <c r="DS3" s="98"/>
+      <c r="DT3" s="98"/>
     </row>
     <row r="4" spans="1:128" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="106"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="106" t="s">
+      <c r="A4" s="126"/>
+      <c r="B4" s="126"/>
+      <c r="C4" s="126" t="s">
         <v>235</v>
       </c>
-      <c r="D4" s="106"/>
-      <c r="E4" s="104" t="s">
+      <c r="D4" s="126"/>
+      <c r="E4" s="124" t="s">
         <v>148</v>
       </c>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="97" t="s">
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="119" t="s">
         <v>149</v>
       </c>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="97"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="98" t="s">
+      <c r="L4" s="119"/>
+      <c r="M4" s="119"/>
+      <c r="N4" s="119"/>
+      <c r="O4" s="119"/>
+      <c r="P4" s="119"/>
+      <c r="Q4" s="120" t="s">
         <v>150</v>
       </c>
-      <c r="R4" s="98"/>
-      <c r="S4" s="98"/>
-      <c r="T4" s="98"/>
-      <c r="U4" s="98"/>
-      <c r="V4" s="98"/>
-      <c r="W4" s="109" t="s">
+      <c r="R4" s="120"/>
+      <c r="S4" s="120"/>
+      <c r="T4" s="120"/>
+      <c r="U4" s="120"/>
+      <c r="V4" s="120"/>
+      <c r="W4" s="128" t="s">
         <v>235</v>
       </c>
-      <c r="X4" s="110"/>
-      <c r="Y4" s="107" t="s">
+      <c r="X4" s="129"/>
+      <c r="Y4" s="127" t="s">
         <v>225</v>
       </c>
-      <c r="Z4" s="107"/>
-      <c r="AA4" s="107"/>
-      <c r="AB4" s="107"/>
-      <c r="AC4" s="107"/>
-      <c r="AD4" s="107"/>
-      <c r="AE4" s="97" t="s">
+      <c r="Z4" s="127"/>
+      <c r="AA4" s="127"/>
+      <c r="AB4" s="127"/>
+      <c r="AC4" s="127"/>
+      <c r="AD4" s="127"/>
+      <c r="AE4" s="119" t="s">
         <v>149</v>
       </c>
-      <c r="AF4" s="97"/>
-      <c r="AG4" s="97"/>
-      <c r="AH4" s="97"/>
-      <c r="AI4" s="97"/>
-      <c r="AJ4" s="97"/>
-      <c r="AK4" s="107" t="s">
+      <c r="AF4" s="119"/>
+      <c r="AG4" s="119"/>
+      <c r="AH4" s="119"/>
+      <c r="AI4" s="119"/>
+      <c r="AJ4" s="119"/>
+      <c r="AK4" s="127" t="s">
         <v>226</v>
       </c>
-      <c r="AL4" s="107"/>
-      <c r="AM4" s="107"/>
-      <c r="AN4" s="107"/>
-      <c r="AO4" s="107"/>
-      <c r="AP4" s="107"/>
+      <c r="AL4" s="127"/>
+      <c r="AM4" s="127"/>
+      <c r="AN4" s="127"/>
+      <c r="AO4" s="127"/>
+      <c r="AP4" s="127"/>
       <c r="AQ4" s="19"/>
       <c r="AR4" s="19"/>
-      <c r="AS4" s="82" t="s">
+      <c r="AS4" s="101" t="s">
         <v>225</v>
       </c>
-      <c r="AT4" s="82"/>
-      <c r="AU4" s="82"/>
-      <c r="AV4" s="82"/>
-      <c r="AW4" s="82"/>
-      <c r="AX4" s="82"/>
-      <c r="AY4" s="86" t="s">
+      <c r="AT4" s="101"/>
+      <c r="AU4" s="101"/>
+      <c r="AV4" s="101"/>
+      <c r="AW4" s="101"/>
+      <c r="AX4" s="101"/>
+      <c r="AY4" s="105" t="s">
         <v>149</v>
       </c>
-      <c r="AZ4" s="86"/>
-      <c r="BA4" s="86"/>
-      <c r="BB4" s="86"/>
-      <c r="BC4" s="86"/>
-      <c r="BD4" s="86"/>
-      <c r="BE4" s="82" t="s">
+      <c r="AZ4" s="105"/>
+      <c r="BA4" s="105"/>
+      <c r="BB4" s="105"/>
+      <c r="BC4" s="105"/>
+      <c r="BD4" s="105"/>
+      <c r="BE4" s="101" t="s">
         <v>226</v>
       </c>
-      <c r="BF4" s="82"/>
-      <c r="BG4" s="82"/>
-      <c r="BH4" s="82"/>
-      <c r="BI4" s="82"/>
-      <c r="BJ4" s="82"/>
-      <c r="BK4" s="99"/>
-      <c r="BL4" s="87"/>
+      <c r="BF4" s="101"/>
+      <c r="BG4" s="101"/>
+      <c r="BH4" s="101"/>
+      <c r="BI4" s="101"/>
+      <c r="BJ4" s="101"/>
+      <c r="BK4" s="121"/>
+      <c r="BL4" s="108"/>
       <c r="BM4" s="25"/>
       <c r="BN4" s="19"/>
-      <c r="BO4" s="92" t="s">
+      <c r="BO4" s="113" t="s">
         <v>148</v>
       </c>
-      <c r="BP4" s="93"/>
-      <c r="BQ4" s="93"/>
-      <c r="BR4" s="93"/>
-      <c r="BS4" s="93"/>
-      <c r="BT4" s="94"/>
-      <c r="BU4" s="95" t="s">
+      <c r="BP4" s="114"/>
+      <c r="BQ4" s="114"/>
+      <c r="BR4" s="114"/>
+      <c r="BS4" s="114"/>
+      <c r="BT4" s="115"/>
+      <c r="BU4" s="116" t="s">
         <v>149</v>
       </c>
-      <c r="BV4" s="95"/>
-      <c r="BW4" s="95"/>
-      <c r="BX4" s="95"/>
-      <c r="BY4" s="95"/>
-      <c r="BZ4" s="95"/>
-      <c r="CA4" s="96" t="s">
+      <c r="BV4" s="116"/>
+      <c r="BW4" s="116"/>
+      <c r="BX4" s="116"/>
+      <c r="BY4" s="116"/>
+      <c r="BZ4" s="116"/>
+      <c r="CA4" s="117" t="s">
         <v>150</v>
       </c>
-      <c r="CB4" s="96"/>
-      <c r="CC4" s="96"/>
-      <c r="CD4" s="96"/>
-      <c r="CE4" s="96"/>
-      <c r="CF4" s="96"/>
+      <c r="CB4" s="117"/>
+      <c r="CC4" s="117"/>
+      <c r="CD4" s="117"/>
+      <c r="CE4" s="117"/>
+      <c r="CF4" s="117"/>
       <c r="CG4" s="19"/>
       <c r="CH4" s="19"/>
-      <c r="CI4" s="82" t="s">
+      <c r="CI4" s="101" t="s">
         <v>225</v>
       </c>
-      <c r="CJ4" s="82"/>
-      <c r="CK4" s="82"/>
-      <c r="CL4" s="82"/>
-      <c r="CM4" s="82"/>
-      <c r="CN4" s="82"/>
-      <c r="CO4" s="86" t="s">
+      <c r="CJ4" s="101"/>
+      <c r="CK4" s="101"/>
+      <c r="CL4" s="101"/>
+      <c r="CM4" s="101"/>
+      <c r="CN4" s="101"/>
+      <c r="CO4" s="105" t="s">
         <v>149</v>
       </c>
-      <c r="CP4" s="86"/>
-      <c r="CQ4" s="86"/>
-      <c r="CR4" s="86"/>
-      <c r="CS4" s="86"/>
-      <c r="CT4" s="86"/>
-      <c r="CU4" s="82" t="s">
+      <c r="CP4" s="105"/>
+      <c r="CQ4" s="105"/>
+      <c r="CR4" s="105"/>
+      <c r="CS4" s="105"/>
+      <c r="CT4" s="105"/>
+      <c r="CU4" s="101" t="s">
         <v>226</v>
       </c>
-      <c r="CV4" s="82"/>
-      <c r="CW4" s="82"/>
-      <c r="CX4" s="82"/>
-      <c r="CY4" s="82"/>
-      <c r="CZ4" s="82"/>
+      <c r="CV4" s="101"/>
+      <c r="CW4" s="101"/>
+      <c r="CX4" s="101"/>
+      <c r="CY4" s="101"/>
+      <c r="CZ4" s="101"/>
       <c r="DA4" s="19"/>
       <c r="DB4" s="19"/>
-      <c r="DC4" s="82" t="s">
+      <c r="DC4" s="101" t="s">
         <v>225</v>
       </c>
-      <c r="DD4" s="82"/>
-      <c r="DE4" s="82"/>
-      <c r="DF4" s="82"/>
-      <c r="DG4" s="82"/>
-      <c r="DH4" s="82"/>
-      <c r="DI4" s="86" t="s">
+      <c r="DD4" s="101"/>
+      <c r="DE4" s="101"/>
+      <c r="DF4" s="101"/>
+      <c r="DG4" s="101"/>
+      <c r="DH4" s="101"/>
+      <c r="DI4" s="105" t="s">
         <v>149</v>
       </c>
-      <c r="DJ4" s="86"/>
-      <c r="DK4" s="86"/>
-      <c r="DL4" s="86"/>
-      <c r="DM4" s="86"/>
-      <c r="DN4" s="86"/>
-      <c r="DO4" s="82" t="s">
+      <c r="DJ4" s="105"/>
+      <c r="DK4" s="105"/>
+      <c r="DL4" s="105"/>
+      <c r="DM4" s="105"/>
+      <c r="DN4" s="105"/>
+      <c r="DO4" s="101" t="s">
         <v>226</v>
       </c>
-      <c r="DP4" s="82"/>
-      <c r="DQ4" s="82"/>
-      <c r="DR4" s="82"/>
-      <c r="DS4" s="82"/>
-      <c r="DT4" s="82"/>
+      <c r="DP4" s="101"/>
+      <c r="DQ4" s="101"/>
+      <c r="DR4" s="101"/>
+      <c r="DS4" s="101"/>
+      <c r="DT4" s="101"/>
     </row>
-    <row r="5" spans="1:128" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="106"/>
-      <c r="B5" s="106"/>
-      <c r="C5" s="106" t="s">
+    <row r="5" spans="1:128" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="126"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="126" t="s">
         <v>236</v>
       </c>
-      <c r="D5" s="106" t="s">
+      <c r="D5" s="126" t="s">
         <v>237</v>
       </c>
-      <c r="E5" s="102" t="s">
+      <c r="E5" s="106" t="s">
         <v>299</v>
       </c>
-      <c r="F5" s="102" t="s">
+      <c r="F5" s="106" t="s">
         <v>210</v>
       </c>
-      <c r="G5" s="102"/>
-      <c r="H5" s="101" t="s">
+      <c r="G5" s="106"/>
+      <c r="H5" s="123" t="s">
         <v>300</v>
       </c>
-      <c r="I5" s="102" t="s">
+      <c r="I5" s="106" t="s">
         <v>210</v>
       </c>
-      <c r="J5" s="103"/>
-      <c r="K5" s="108" t="s">
+      <c r="J5" s="107"/>
+      <c r="K5" s="118" t="s">
         <v>299</v>
       </c>
-      <c r="L5" s="108" t="s">
+      <c r="L5" s="118" t="s">
         <v>210</v>
       </c>
-      <c r="M5" s="108"/>
-      <c r="N5" s="113" t="s">
+      <c r="M5" s="118"/>
+      <c r="N5" s="134" t="s">
         <v>300</v>
       </c>
-      <c r="O5" s="108" t="s">
+      <c r="O5" s="118" t="s">
         <v>210</v>
       </c>
-      <c r="P5" s="108"/>
-      <c r="Q5" s="112" t="s">
+      <c r="P5" s="118"/>
+      <c r="Q5" s="130" t="s">
         <v>299</v>
       </c>
-      <c r="R5" s="102" t="s">
+      <c r="R5" s="106" t="s">
         <v>210</v>
       </c>
-      <c r="S5" s="102"/>
-      <c r="T5" s="102" t="s">
+      <c r="S5" s="106"/>
+      <c r="T5" s="106" t="s">
         <v>300</v>
       </c>
-      <c r="U5" s="102" t="s">
+      <c r="U5" s="106" t="s">
         <v>210</v>
       </c>
-      <c r="V5" s="103"/>
-      <c r="W5" s="106" t="s">
+      <c r="V5" s="107"/>
+      <c r="W5" s="126" t="s">
         <v>258</v>
       </c>
-      <c r="X5" s="106" t="s">
+      <c r="X5" s="126" t="s">
         <v>259</v>
       </c>
-      <c r="Y5" s="102" t="s">
+      <c r="Y5" s="106" t="s">
         <v>227</v>
       </c>
-      <c r="Z5" s="102" t="s">
+      <c r="Z5" s="106" t="s">
         <v>229</v>
       </c>
-      <c r="AA5" s="102"/>
-      <c r="AB5" s="102" t="s">
+      <c r="AA5" s="106"/>
+      <c r="AB5" s="106" t="s">
         <v>298</v>
       </c>
-      <c r="AC5" s="102" t="s">
+      <c r="AC5" s="106" t="s">
         <v>229</v>
       </c>
-      <c r="AD5" s="102"/>
-      <c r="AE5" s="108" t="s">
+      <c r="AD5" s="106"/>
+      <c r="AE5" s="118" t="s">
         <v>227</v>
       </c>
-      <c r="AF5" s="108" t="s">
+      <c r="AF5" s="118" t="s">
         <v>229</v>
       </c>
-      <c r="AG5" s="108"/>
-      <c r="AH5" s="108" t="s">
+      <c r="AG5" s="118"/>
+      <c r="AH5" s="118" t="s">
         <v>298</v>
       </c>
-      <c r="AI5" s="108" t="s">
+      <c r="AI5" s="118" t="s">
         <v>229</v>
       </c>
-      <c r="AJ5" s="108"/>
-      <c r="AK5" s="102" t="s">
+      <c r="AJ5" s="118"/>
+      <c r="AK5" s="106" t="s">
         <v>227</v>
       </c>
-      <c r="AL5" s="102" t="s">
+      <c r="AL5" s="106" t="s">
         <v>229</v>
       </c>
-      <c r="AM5" s="102"/>
-      <c r="AN5" s="102" t="s">
+      <c r="AM5" s="106"/>
+      <c r="AN5" s="106" t="s">
         <v>298</v>
       </c>
-      <c r="AO5" s="102" t="s">
+      <c r="AO5" s="106" t="s">
         <v>229</v>
       </c>
-      <c r="AP5" s="102"/>
+      <c r="AP5" s="106"/>
       <c r="AQ5" s="24" t="s">
         <v>301</v>
       </c>
       <c r="AR5" s="24" t="s">
         <v>302</v>
       </c>
-      <c r="AS5" s="80" t="s">
+      <c r="AS5" s="99" t="s">
         <v>230</v>
       </c>
-      <c r="AT5" s="80" t="s">
+      <c r="AT5" s="99" t="s">
         <v>229</v>
       </c>
-      <c r="AU5" s="80"/>
-      <c r="AV5" s="80" t="s">
+      <c r="AU5" s="99"/>
+      <c r="AV5" s="99" t="s">
         <v>231</v>
       </c>
-      <c r="AW5" s="80" t="s">
+      <c r="AW5" s="99" t="s">
         <v>229</v>
       </c>
-      <c r="AX5" s="80"/>
-      <c r="AY5" s="81" t="s">
+      <c r="AX5" s="99"/>
+      <c r="AY5" s="100" t="s">
         <v>230</v>
       </c>
-      <c r="AZ5" s="81" t="s">
+      <c r="AZ5" s="100" t="s">
         <v>229</v>
       </c>
-      <c r="BA5" s="81"/>
-      <c r="BB5" s="81" t="s">
+      <c r="BA5" s="100"/>
+      <c r="BB5" s="100" t="s">
         <v>231</v>
       </c>
-      <c r="BC5" s="81" t="s">
+      <c r="BC5" s="100" t="s">
         <v>229</v>
       </c>
-      <c r="BD5" s="81"/>
-      <c r="BE5" s="80" t="s">
+      <c r="BD5" s="100"/>
+      <c r="BE5" s="99" t="s">
         <v>230</v>
       </c>
-      <c r="BF5" s="80" t="s">
+      <c r="BF5" s="99" t="s">
         <v>229</v>
       </c>
-      <c r="BG5" s="80"/>
-      <c r="BH5" s="80" t="s">
+      <c r="BG5" s="99"/>
+      <c r="BH5" s="99" t="s">
         <v>231</v>
       </c>
-      <c r="BI5" s="80" t="s">
+      <c r="BI5" s="99" t="s">
         <v>229</v>
       </c>
-      <c r="BJ5" s="80"/>
-      <c r="BK5" s="99"/>
-      <c r="BL5" s="87"/>
-      <c r="BM5" s="90" t="s">
+      <c r="BJ5" s="99"/>
+      <c r="BK5" s="121"/>
+      <c r="BL5" s="108"/>
+      <c r="BM5" s="111" t="s">
         <v>236</v>
       </c>
-      <c r="BN5" s="84" t="s">
+      <c r="BN5" s="103" t="s">
         <v>237</v>
       </c>
-      <c r="BO5" s="83" t="s">
+      <c r="BO5" s="102" t="s">
         <v>299</v>
       </c>
-      <c r="BP5" s="83" t="s">
+      <c r="BP5" s="102" t="s">
         <v>210</v>
       </c>
-      <c r="BQ5" s="83"/>
-      <c r="BR5" s="83" t="s">
+      <c r="BQ5" s="102"/>
+      <c r="BR5" s="102" t="s">
         <v>300</v>
       </c>
-      <c r="BS5" s="83" t="s">
+      <c r="BS5" s="102" t="s">
         <v>210</v>
       </c>
-      <c r="BT5" s="83"/>
-      <c r="BU5" s="80" t="s">
+      <c r="BT5" s="102"/>
+      <c r="BU5" s="99" t="s">
         <v>299</v>
       </c>
-      <c r="BV5" s="80" t="s">
+      <c r="BV5" s="99" t="s">
         <v>210</v>
       </c>
-      <c r="BW5" s="80"/>
-      <c r="BX5" s="80" t="s">
+      <c r="BW5" s="99"/>
+      <c r="BX5" s="99" t="s">
         <v>300</v>
       </c>
-      <c r="BY5" s="80" t="s">
+      <c r="BY5" s="99" t="s">
         <v>210</v>
       </c>
-      <c r="BZ5" s="80"/>
-      <c r="CA5" s="83" t="s">
+      <c r="BZ5" s="99"/>
+      <c r="CA5" s="102" t="s">
         <v>299</v>
       </c>
-      <c r="CB5" s="83" t="s">
+      <c r="CB5" s="102" t="s">
         <v>210</v>
       </c>
-      <c r="CC5" s="83"/>
-      <c r="CD5" s="83" t="s">
+      <c r="CC5" s="102"/>
+      <c r="CD5" s="102" t="s">
         <v>300</v>
       </c>
-      <c r="CE5" s="83" t="s">
+      <c r="CE5" s="102" t="s">
         <v>210</v>
       </c>
-      <c r="CF5" s="83"/>
-      <c r="CG5" s="84" t="s">
+      <c r="CF5" s="102"/>
+      <c r="CG5" s="103" t="s">
         <v>258</v>
       </c>
-      <c r="CH5" s="84" t="s">
+      <c r="CH5" s="103" t="s">
         <v>259</v>
       </c>
-      <c r="CI5" s="80" t="s">
+      <c r="CI5" s="99" t="s">
         <v>227</v>
       </c>
-      <c r="CJ5" s="80" t="s">
+      <c r="CJ5" s="99" t="s">
         <v>229</v>
       </c>
-      <c r="CK5" s="80"/>
-      <c r="CL5" s="80" t="s">
+      <c r="CK5" s="99"/>
+      <c r="CL5" s="99" t="s">
         <v>228</v>
       </c>
-      <c r="CM5" s="80" t="s">
+      <c r="CM5" s="99" t="s">
         <v>229</v>
       </c>
-      <c r="CN5" s="80"/>
-      <c r="CO5" s="81" t="s">
+      <c r="CN5" s="99"/>
+      <c r="CO5" s="100" t="s">
         <v>227</v>
       </c>
-      <c r="CP5" s="81" t="s">
+      <c r="CP5" s="100" t="s">
         <v>229</v>
       </c>
-      <c r="CQ5" s="81"/>
-      <c r="CR5" s="81" t="s">
+      <c r="CQ5" s="100"/>
+      <c r="CR5" s="100" t="s">
         <v>228</v>
       </c>
-      <c r="CS5" s="81" t="s">
+      <c r="CS5" s="100" t="s">
         <v>229</v>
       </c>
-      <c r="CT5" s="81"/>
-      <c r="CU5" s="80" t="s">
+      <c r="CT5" s="100"/>
+      <c r="CU5" s="99" t="s">
         <v>227</v>
       </c>
-      <c r="CV5" s="80" t="s">
+      <c r="CV5" s="99" t="s">
         <v>229</v>
       </c>
-      <c r="CW5" s="80"/>
-      <c r="CX5" s="80" t="s">
+      <c r="CW5" s="99"/>
+      <c r="CX5" s="99" t="s">
         <v>228</v>
       </c>
-      <c r="CY5" s="80" t="s">
+      <c r="CY5" s="99" t="s">
         <v>229</v>
       </c>
-      <c r="CZ5" s="80"/>
+      <c r="CZ5" s="99"/>
       <c r="DA5" s="24" t="s">
         <v>301</v>
       </c>
       <c r="DB5" s="24" t="s">
         <v>302</v>
       </c>
-      <c r="DC5" s="80" t="s">
+      <c r="DC5" s="99" t="s">
         <v>230</v>
       </c>
-      <c r="DD5" s="80" t="s">
+      <c r="DD5" s="99" t="s">
         <v>229</v>
       </c>
-      <c r="DE5" s="80"/>
-      <c r="DF5" s="80" t="s">
+      <c r="DE5" s="99"/>
+      <c r="DF5" s="99" t="s">
         <v>231</v>
       </c>
-      <c r="DG5" s="80" t="s">
+      <c r="DG5" s="99" t="s">
         <v>229</v>
       </c>
-      <c r="DH5" s="80"/>
-      <c r="DI5" s="81" t="s">
+      <c r="DH5" s="99"/>
+      <c r="DI5" s="100" t="s">
         <v>230</v>
       </c>
-      <c r="DJ5" s="81" t="s">
+      <c r="DJ5" s="100" t="s">
         <v>229</v>
       </c>
-      <c r="DK5" s="81"/>
-      <c r="DL5" s="81" t="s">
+      <c r="DK5" s="100"/>
+      <c r="DL5" s="100" t="s">
         <v>231</v>
       </c>
-      <c r="DM5" s="81" t="s">
+      <c r="DM5" s="100" t="s">
         <v>229</v>
       </c>
-      <c r="DN5" s="81"/>
-      <c r="DO5" s="80" t="s">
+      <c r="DN5" s="100"/>
+      <c r="DO5" s="99" t="s">
         <v>230</v>
       </c>
-      <c r="DP5" s="80" t="s">
+      <c r="DP5" s="99" t="s">
         <v>229</v>
       </c>
-      <c r="DQ5" s="80"/>
-      <c r="DR5" s="80" t="s">
+      <c r="DQ5" s="99"/>
+      <c r="DR5" s="99" t="s">
         <v>231</v>
       </c>
-      <c r="DS5" s="80" t="s">
+      <c r="DS5" s="99" t="s">
         <v>229</v>
       </c>
-      <c r="DT5" s="80"/>
+      <c r="DT5" s="99"/>
     </row>
-    <row r="6" spans="1:128" s="30" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="106"/>
-      <c r="B6" s="106"/>
-      <c r="C6" s="106"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="27" t="s">
+    <row r="6" spans="1:128" s="29" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="126"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="G6" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="H6" s="101"/>
-      <c r="I6" s="27" t="s">
+      <c r="H6" s="123"/>
+      <c r="I6" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="J6" s="28" t="s">
+      <c r="J6" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="K6" s="108"/>
-      <c r="L6" s="29" t="s">
+      <c r="K6" s="118"/>
+      <c r="L6" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="M6" s="29" t="s">
+      <c r="M6" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="N6" s="113"/>
-      <c r="O6" s="29" t="s">
+      <c r="N6" s="134"/>
+      <c r="O6" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="P6" s="29" t="s">
+      <c r="P6" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="Q6" s="112"/>
-      <c r="R6" s="27" t="s">
+      <c r="Q6" s="130"/>
+      <c r="R6" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="S6" s="27" t="s">
+      <c r="S6" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="T6" s="102"/>
-      <c r="U6" s="27" t="s">
+      <c r="T6" s="106"/>
+      <c r="U6" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="V6" s="28" t="s">
+      <c r="V6" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="W6" s="106"/>
-      <c r="X6" s="106"/>
-      <c r="Y6" s="102"/>
-      <c r="Z6" s="27" t="s">
+      <c r="W6" s="126"/>
+      <c r="X6" s="126"/>
+      <c r="Y6" s="106"/>
+      <c r="Z6" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="AA6" s="27" t="s">
+      <c r="AA6" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="AB6" s="102"/>
-      <c r="AC6" s="27" t="s">
+      <c r="AB6" s="106"/>
+      <c r="AC6" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="AD6" s="27" t="s">
+      <c r="AD6" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="AE6" s="108"/>
-      <c r="AF6" s="29" t="s">
+      <c r="AE6" s="118"/>
+      <c r="AF6" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="AG6" s="29" t="s">
+      <c r="AG6" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="AH6" s="108"/>
-      <c r="AI6" s="29" t="s">
+      <c r="AH6" s="118"/>
+      <c r="AI6" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="AJ6" s="29" t="s">
+      <c r="AJ6" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="AK6" s="102"/>
-      <c r="AL6" s="27" t="s">
+      <c r="AK6" s="106"/>
+      <c r="AL6" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="AM6" s="27" t="s">
+      <c r="AM6" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="AN6" s="102"/>
-      <c r="AO6" s="27" t="s">
+      <c r="AN6" s="106"/>
+      <c r="AO6" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="AP6" s="27" t="s">
+      <c r="AP6" s="26" t="s">
         <v>212</v>
       </c>
       <c r="AQ6" s="22"/>
       <c r="AR6" s="22"/>
-      <c r="AS6" s="80"/>
+      <c r="AS6" s="99"/>
       <c r="AT6" s="17" t="s">
         <v>211</v>
       </c>
       <c r="AU6" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="AV6" s="80"/>
+      <c r="AV6" s="99"/>
       <c r="AW6" s="17" t="s">
         <v>211</v>
       </c>
       <c r="AX6" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="AY6" s="81"/>
+      <c r="AY6" s="100"/>
       <c r="AZ6" s="23" t="s">
         <v>211</v>
       </c>
       <c r="BA6" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="BB6" s="81"/>
+      <c r="BB6" s="100"/>
       <c r="BC6" s="23" t="s">
         <v>211</v>
       </c>
       <c r="BD6" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="BE6" s="80"/>
+      <c r="BE6" s="99"/>
       <c r="BF6" s="17" t="s">
         <v>211</v>
       </c>
       <c r="BG6" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="BH6" s="80"/>
+      <c r="BH6" s="99"/>
       <c r="BI6" s="17"/>
       <c r="BJ6" s="17"/>
-      <c r="BK6" s="100"/>
-      <c r="BL6" s="88"/>
-      <c r="BM6" s="91"/>
-      <c r="BN6" s="85"/>
-      <c r="BO6" s="83"/>
+      <c r="BK6" s="122"/>
+      <c r="BL6" s="109"/>
+      <c r="BM6" s="112"/>
+      <c r="BN6" s="104"/>
+      <c r="BO6" s="102"/>
       <c r="BP6" s="15" t="s">
         <v>211</v>
       </c>
       <c r="BQ6" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="BR6" s="83"/>
+      <c r="BR6" s="102"/>
       <c r="BS6" s="15" t="s">
         <v>211</v>
       </c>
       <c r="BT6" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="BU6" s="80"/>
+      <c r="BU6" s="99"/>
       <c r="BV6" s="17" t="s">
         <v>211</v>
       </c>
       <c r="BW6" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="BX6" s="80"/>
+      <c r="BX6" s="99"/>
       <c r="BY6" s="17" t="s">
         <v>211</v>
       </c>
       <c r="BZ6" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="CA6" s="83"/>
+      <c r="CA6" s="102"/>
       <c r="CB6" s="15" t="s">
         <v>211</v>
       </c>
       <c r="CC6" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="CD6" s="83"/>
+      <c r="CD6" s="102"/>
       <c r="CE6" s="15" t="s">
         <v>211</v>
       </c>
       <c r="CF6" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="CG6" s="85"/>
-      <c r="CH6" s="85"/>
-      <c r="CI6" s="80"/>
+      <c r="CG6" s="104"/>
+      <c r="CH6" s="104"/>
+      <c r="CI6" s="99"/>
       <c r="CJ6" s="17" t="s">
         <v>211</v>
       </c>
       <c r="CK6" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="CL6" s="80"/>
+      <c r="CL6" s="99"/>
       <c r="CM6" s="17" t="s">
         <v>211</v>
       </c>
       <c r="CN6" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="CO6" s="81"/>
+      <c r="CO6" s="100"/>
       <c r="CP6" s="23" t="s">
         <v>211</v>
       </c>
       <c r="CQ6" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="CR6" s="81"/>
+      <c r="CR6" s="100"/>
       <c r="CS6" s="23" t="s">
         <v>211</v>
       </c>
       <c r="CT6" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="CU6" s="80"/>
+      <c r="CU6" s="99"/>
       <c r="CV6" s="17" t="s">
         <v>211</v>
       </c>
       <c r="CW6" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="CX6" s="80"/>
+      <c r="CX6" s="99"/>
       <c r="CY6" s="17"/>
       <c r="CZ6" s="17"/>
       <c r="DA6" s="22"/>
       <c r="DB6" s="22"/>
-      <c r="DC6" s="80"/>
+      <c r="DC6" s="99"/>
       <c r="DD6" s="17" t="s">
         <v>211</v>
       </c>
       <c r="DE6" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="DF6" s="80"/>
+      <c r="DF6" s="99"/>
       <c r="DG6" s="17" t="s">
         <v>211</v>
       </c>
       <c r="DH6" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="DI6" s="81"/>
+      <c r="DI6" s="100"/>
       <c r="DJ6" s="23" t="s">
         <v>211</v>
       </c>
       <c r="DK6" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="DL6" s="81"/>
+      <c r="DL6" s="100"/>
       <c r="DM6" s="23" t="s">
         <v>211</v>
       </c>
       <c r="DN6" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="DO6" s="80"/>
+      <c r="DO6" s="99"/>
       <c r="DP6" s="17" t="s">
         <v>211</v>
       </c>
       <c r="DQ6" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="DR6" s="80"/>
+      <c r="DR6" s="99"/>
       <c r="DS6" s="17"/>
       <c r="DT6" s="17"/>
     </row>
     <row r="7" spans="1:128" s="20" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="54" t="s">
         <v>279</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="55" t="s">
         <v>280</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="53" t="s">
         <v>238</v>
       </c>
-      <c r="D7" s="54" t="s">
+      <c r="D7" s="53" t="s">
         <v>239</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="35">
         <v>0.1295</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="26">
         <v>34.9</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="26">
         <v>8.4</v>
       </c>
-      <c r="H7" s="36">
+      <c r="H7" s="35">
         <v>0.74060000000000004</v>
       </c>
-      <c r="I7" s="27">
+      <c r="I7" s="26">
         <v>56.52</v>
       </c>
-      <c r="J7" s="28">
+      <c r="J7" s="27">
         <v>7.87</v>
       </c>
-      <c r="K7" s="37">
+      <c r="K7" s="36">
         <v>0.1555</v>
       </c>
-      <c r="L7" s="29">
+      <c r="L7" s="28">
         <v>44.35</v>
       </c>
-      <c r="M7" s="29">
+      <c r="M7" s="28">
         <v>7.96</v>
       </c>
-      <c r="N7" s="37">
+      <c r="N7" s="36">
         <v>0.74429999999999996</v>
       </c>
-      <c r="O7" s="38">
+      <c r="O7" s="37">
         <v>243.16</v>
       </c>
-      <c r="P7" s="38">
+      <c r="P7" s="37">
         <v>17.059999999999999</v>
       </c>
-      <c r="Q7" s="39">
+      <c r="Q7" s="38">
         <v>0.14649999999999999</v>
       </c>
-      <c r="R7" s="27">
+      <c r="R7" s="26">
         <v>32.9</v>
       </c>
-      <c r="S7" s="27">
+      <c r="S7" s="26">
         <v>7.8</v>
       </c>
-      <c r="T7" s="40">
+      <c r="T7" s="39">
         <v>0.74119999999999997</v>
       </c>
-      <c r="U7" s="27">
+      <c r="U7" s="26">
         <v>56.4</v>
       </c>
-      <c r="V7" s="28">
+      <c r="V7" s="27">
         <v>7.84</v>
       </c>
-      <c r="W7" s="53" t="s">
+      <c r="W7" s="52" t="s">
         <v>260</v>
       </c>
-      <c r="X7" s="53" t="s">
+      <c r="X7" s="52" t="s">
         <v>261</v>
       </c>
-      <c r="Y7" s="39">
+      <c r="Y7" s="38">
         <v>0.90180000000000005</v>
       </c>
-      <c r="Z7" s="27">
+      <c r="Z7" s="26">
         <v>414.66</v>
       </c>
-      <c r="AA7" s="27">
+      <c r="AA7" s="26">
         <v>91.41</v>
       </c>
-      <c r="AB7" s="40">
+      <c r="AB7" s="39">
         <v>0.92959999999999998</v>
       </c>
-      <c r="AC7" s="27">
+      <c r="AC7" s="26">
         <v>978.15</v>
       </c>
-      <c r="AD7" s="27">
+      <c r="AD7" s="26">
         <v>69.48</v>
       </c>
-      <c r="AE7" s="37">
+      <c r="AE7" s="36">
         <v>0.90600000000000003</v>
       </c>
-      <c r="AF7" s="29">
+      <c r="AF7" s="28">
         <v>452.15</v>
       </c>
-      <c r="AG7" s="29">
+      <c r="AG7" s="28">
         <v>100.62</v>
       </c>
-      <c r="AH7" s="41">
+      <c r="AH7" s="40">
         <v>0.92810000000000004</v>
       </c>
-      <c r="AI7" s="29">
+      <c r="AI7" s="28">
         <v>1325.19</v>
       </c>
-      <c r="AJ7" s="29">
+      <c r="AJ7" s="28">
         <v>83.78</v>
       </c>
-      <c r="AK7" s="39">
+      <c r="AK7" s="38">
         <v>0.90300000000000002</v>
       </c>
-      <c r="AL7" s="27">
+      <c r="AL7" s="26">
         <v>355.24</v>
       </c>
-      <c r="AM7" s="27">
+      <c r="AM7" s="26">
         <v>86</v>
       </c>
-      <c r="AN7" s="40">
+      <c r="AN7" s="39">
         <v>0.92720000000000002</v>
       </c>
-      <c r="AO7" s="27">
+      <c r="AO7" s="26">
         <v>1245.8800000000001</v>
       </c>
-      <c r="AP7" s="27">
+      <c r="AP7" s="26">
         <v>85.62</v>
       </c>
       <c r="AQ7" s="22" t="s">
@@ -11632,8 +11992,8 @@
       <c r="AR7" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="AS7" s="17">
-        <v>99.858000000000004</v>
+      <c r="AS7" s="62">
+        <v>0.99850000000000005</v>
       </c>
       <c r="AT7" s="17">
         <v>966.21</v>
@@ -11641,8 +12001,8 @@
       <c r="AU7" s="17">
         <v>187.97</v>
       </c>
-      <c r="AV7" s="17">
-        <v>99.885999999999996</v>
+      <c r="AV7" s="62">
+        <v>0.99880000000000002</v>
       </c>
       <c r="AW7" s="17">
         <v>3303.74</v>
@@ -11650,8 +12010,8 @@
       <c r="AX7" s="17">
         <v>198.98</v>
       </c>
-      <c r="AY7" s="23">
-        <v>99.85</v>
+      <c r="AY7" s="64">
+        <v>0.99850000000000005</v>
       </c>
       <c r="AZ7" s="23">
         <v>1017.05</v>
@@ -11659,8 +12019,8 @@
       <c r="BA7" s="23">
         <v>181.93</v>
       </c>
-      <c r="BB7" s="23">
-        <v>99.872</v>
+      <c r="BB7" s="64">
+        <v>0.99870000000000003</v>
       </c>
       <c r="BC7" s="23">
         <v>3404.84</v>
@@ -11668,8 +12028,8 @@
       <c r="BD7" s="23">
         <v>201.08</v>
       </c>
-      <c r="BE7" s="17">
-        <v>99.85</v>
+      <c r="BE7" s="62">
+        <v>0.99850000000000005</v>
       </c>
       <c r="BF7" s="17">
         <v>988.16</v>
@@ -11677,8 +12037,8 @@
       <c r="BG7" s="17">
         <v>217.98</v>
       </c>
-      <c r="BH7" s="17">
-        <v>99.878</v>
+      <c r="BH7" s="62">
+        <v>0.99880000000000002</v>
       </c>
       <c r="BI7" s="17">
         <v>3360.95</v>
@@ -11686,10 +12046,10 @@
       <c r="BJ7" s="17">
         <v>193.04</v>
       </c>
-      <c r="BK7" s="42" t="s">
+      <c r="BK7" s="41" t="s">
         <v>305</v>
       </c>
-      <c r="BL7" s="43" t="s">
+      <c r="BL7" s="42" t="s">
         <v>306</v>
       </c>
       <c r="BM7" s="22" t="s">
@@ -11698,58 +12058,58 @@
       <c r="BN7" s="22" t="s">
         <v>308</v>
       </c>
-      <c r="BO7" s="118">
-        <v>1.5940000000000001</v>
-      </c>
-      <c r="BP7" s="116">
+      <c r="BO7" s="61">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="BP7" s="15">
         <v>24.13</v>
       </c>
-      <c r="BQ7" s="116">
+      <c r="BQ7" s="15">
         <v>2.11</v>
       </c>
-      <c r="BR7" s="119">
-        <v>23.707999999999998</v>
-      </c>
-      <c r="BS7" s="116">
+      <c r="BR7" s="59">
+        <v>0.23710000000000001</v>
+      </c>
+      <c r="BS7" s="15">
         <v>42.33</v>
       </c>
-      <c r="BT7" s="116">
+      <c r="BT7" s="15">
         <v>2.31</v>
       </c>
-      <c r="BU7" s="120">
-        <v>1.28</v>
-      </c>
-      <c r="BV7" s="115">
+      <c r="BU7" s="57">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="BV7" s="17">
         <v>24.1</v>
       </c>
-      <c r="BW7" s="115">
+      <c r="BW7" s="17">
         <v>2.17</v>
       </c>
-      <c r="BX7" s="121">
-        <v>24.303999999999998</v>
-      </c>
-      <c r="BY7" s="122">
+      <c r="BX7" s="63">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="BY7" s="65">
         <v>44.01</v>
       </c>
-      <c r="BZ7" s="122">
+      <c r="BZ7" s="65">
         <v>2.0099999999999998</v>
       </c>
-      <c r="CA7" s="123">
-        <v>1.552</v>
-      </c>
-      <c r="CB7" s="114">
+      <c r="CA7" s="39">
+        <v>1.55E-2</v>
+      </c>
+      <c r="CB7" s="26">
         <v>19.39</v>
       </c>
-      <c r="CC7" s="114">
+      <c r="CC7" s="26">
         <v>2.06</v>
       </c>
-      <c r="CD7" s="118">
-        <v>24.045999999999999</v>
-      </c>
-      <c r="CE7" s="114">
+      <c r="CD7" s="59">
+        <v>0.2404</v>
+      </c>
+      <c r="CE7" s="26">
         <v>42.2</v>
       </c>
-      <c r="CF7" s="114">
+      <c r="CF7" s="26">
         <v>2.16</v>
       </c>
       <c r="CG7" s="22" t="s">
@@ -11758,8 +12118,8 @@
       <c r="CH7" s="22" t="s">
         <v>310</v>
       </c>
-      <c r="CI7" s="17">
-        <v>69.239999999999995</v>
+      <c r="CI7" s="62">
+        <v>0.69240000000000002</v>
       </c>
       <c r="CJ7" s="17">
         <v>209.97</v>
@@ -11767,8 +12127,8 @@
       <c r="CK7" s="17">
         <v>39.47</v>
       </c>
-      <c r="CL7" s="17">
-        <v>88.626000000000005</v>
+      <c r="CL7" s="62">
+        <v>0.88619999999999999</v>
       </c>
       <c r="CM7" s="17">
         <v>696.82</v>
@@ -11776,8 +12136,8 @@
       <c r="CN7" s="17">
         <v>40.799999999999997</v>
       </c>
-      <c r="CO7" s="23">
-        <v>68.835999999999999</v>
+      <c r="CO7" s="64">
+        <v>0.68830000000000002</v>
       </c>
       <c r="CP7" s="23">
         <v>205.16</v>
@@ -11785,8 +12145,8 @@
       <c r="CQ7" s="23">
         <v>39.89</v>
       </c>
-      <c r="CR7" s="23">
-        <v>88.516000000000005</v>
+      <c r="CR7" s="64">
+        <v>0.8851</v>
       </c>
       <c r="CS7" s="23">
         <v>698.52</v>
@@ -11794,8 +12154,8 @@
       <c r="CT7" s="23">
         <v>46.62</v>
       </c>
-      <c r="CU7" s="17">
-        <v>69.046000000000006</v>
+      <c r="CU7" s="62">
+        <v>0.69040000000000001</v>
       </c>
       <c r="CV7" s="17">
         <v>199.29</v>
@@ -11803,8 +12163,8 @@
       <c r="CW7" s="17">
         <v>36.72</v>
       </c>
-      <c r="CX7" s="17">
-        <v>88.15</v>
+      <c r="CX7" s="62">
+        <v>0.88149999999999995</v>
       </c>
       <c r="CY7" s="17">
         <v>694.62</v>
@@ -11818,8 +12178,8 @@
       <c r="DB7" s="22" t="s">
         <v>312</v>
       </c>
-      <c r="DC7" s="17">
-        <v>99.24</v>
+      <c r="DC7" s="62">
+        <v>0.99239999999999995</v>
       </c>
       <c r="DD7" s="17">
         <v>949.31</v>
@@ -11827,8 +12187,8 @@
       <c r="DE7" s="17">
         <v>175.06</v>
       </c>
-      <c r="DF7" s="17">
-        <v>99.28</v>
+      <c r="DF7" s="62">
+        <v>0.99280000000000002</v>
       </c>
       <c r="DG7" s="17">
         <v>3342.2</v>
@@ -11836,8 +12196,8 @@
       <c r="DH7" s="17">
         <v>187.68</v>
       </c>
-      <c r="DI7" s="23">
-        <v>99.248000000000005</v>
+      <c r="DI7" s="64">
+        <v>0.99239999999999995</v>
       </c>
       <c r="DJ7" s="23">
         <v>1006.51</v>
@@ -11845,8 +12205,8 @@
       <c r="DK7" s="23">
         <v>199.99</v>
       </c>
-      <c r="DL7" s="23">
-        <v>99.32</v>
+      <c r="DL7" s="64">
+        <v>0.99319999999999997</v>
       </c>
       <c r="DM7" s="23">
         <v>3495.83</v>
@@ -11854,8 +12214,8 @@
       <c r="DN7" s="23">
         <v>202.62</v>
       </c>
-      <c r="DO7" s="17">
-        <v>99.206000000000003</v>
+      <c r="DO7" s="62">
+        <v>0.99199999999999999</v>
       </c>
       <c r="DP7" s="17">
         <v>1357.29</v>
@@ -11863,8 +12223,8 @@
       <c r="DQ7" s="17">
         <v>217.21</v>
       </c>
-      <c r="DR7" s="17">
-        <v>99.308000000000007</v>
+      <c r="DR7" s="62">
+        <v>0.99299999999999999</v>
       </c>
       <c r="DS7" s="17">
         <v>3434.22</v>
@@ -11874,140 +12234,140 @@
       </c>
     </row>
     <row r="8" spans="1:128" s="20" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="54" t="s">
         <v>281</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="55" t="s">
         <v>282</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="53" t="s">
         <v>240</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="53" t="s">
         <v>241</v>
       </c>
-      <c r="E8" s="44">
+      <c r="E8" s="43">
         <v>0.4627</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="26">
         <v>35.380000000000003</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="26">
         <v>7.93</v>
       </c>
-      <c r="H8" s="44">
+      <c r="H8" s="43">
         <v>0.5887</v>
       </c>
-      <c r="I8" s="27">
+      <c r="I8" s="26">
         <v>160.88999999999999</v>
       </c>
-      <c r="J8" s="28">
+      <c r="J8" s="27">
         <v>9.3699999999999992</v>
       </c>
-      <c r="K8" s="41">
+      <c r="K8" s="40">
         <v>0.47960000000000003</v>
       </c>
-      <c r="L8" s="38">
+      <c r="L8" s="37">
         <v>35.369999999999997</v>
       </c>
-      <c r="M8" s="38">
+      <c r="M8" s="37">
         <v>7.78</v>
       </c>
-      <c r="N8" s="45">
+      <c r="N8" s="44">
         <v>0.5867</v>
       </c>
-      <c r="O8" s="38">
+      <c r="O8" s="37">
         <v>87.4</v>
       </c>
-      <c r="P8" s="38">
+      <c r="P8" s="37">
         <v>8.69</v>
       </c>
-      <c r="Q8" s="46">
+      <c r="Q8" s="45">
         <v>0.45440000000000003</v>
       </c>
-      <c r="R8" s="27">
+      <c r="R8" s="26">
         <v>35.47</v>
       </c>
-      <c r="S8" s="27">
+      <c r="S8" s="26">
         <v>7.97</v>
       </c>
-      <c r="T8" s="46">
+      <c r="T8" s="45">
         <v>0.58520000000000005</v>
       </c>
-      <c r="U8" s="27">
+      <c r="U8" s="26">
         <v>89.61</v>
       </c>
-      <c r="V8" s="28">
+      <c r="V8" s="27">
         <v>8.98</v>
       </c>
-      <c r="W8" s="53" t="s">
+      <c r="W8" s="52" t="s">
         <v>262</v>
       </c>
-      <c r="X8" s="53" t="s">
+      <c r="X8" s="52" t="s">
         <v>263</v>
       </c>
-      <c r="Y8" s="40">
+      <c r="Y8" s="39">
         <v>0.92320000000000002</v>
       </c>
-      <c r="Z8" s="27">
+      <c r="Z8" s="26">
         <v>1237.81</v>
       </c>
-      <c r="AA8" s="27">
+      <c r="AA8" s="26">
         <v>171.35</v>
       </c>
-      <c r="AB8" s="39">
+      <c r="AB8" s="38">
         <v>0.94199999999999995</v>
       </c>
-      <c r="AC8" s="27">
+      <c r="AC8" s="26">
         <v>3559.51</v>
       </c>
-      <c r="AD8" s="27">
+      <c r="AD8" s="26">
         <v>127.77</v>
       </c>
-      <c r="AE8" s="41">
+      <c r="AE8" s="40">
         <v>0.92330000000000001</v>
       </c>
-      <c r="AF8" s="29">
+      <c r="AF8" s="28">
         <v>1309.77</v>
       </c>
-      <c r="AG8" s="29">
+      <c r="AG8" s="28">
         <v>163.28</v>
       </c>
-      <c r="AH8" s="41">
+      <c r="AH8" s="40">
         <v>0.94059999999999999</v>
       </c>
-      <c r="AI8" s="29">
+      <c r="AI8" s="28">
         <v>3581.87</v>
       </c>
-      <c r="AJ8" s="29">
+      <c r="AJ8" s="28">
         <v>136.87</v>
       </c>
-      <c r="AK8" s="40">
+      <c r="AK8" s="39">
         <v>0.92390000000000005</v>
       </c>
-      <c r="AL8" s="27">
+      <c r="AL8" s="26">
         <v>1157.5</v>
       </c>
-      <c r="AM8" s="27">
+      <c r="AM8" s="26">
         <v>159.91</v>
       </c>
-      <c r="AN8" s="39">
+      <c r="AN8" s="38">
         <v>0.94340000000000002</v>
       </c>
-      <c r="AO8" s="27">
+      <c r="AO8" s="26">
         <v>3619.6</v>
       </c>
-      <c r="AP8" s="27">
+      <c r="AP8" s="26">
         <v>136.99</v>
       </c>
-      <c r="AQ8" s="47" t="s">
+      <c r="AQ8" s="46" t="s">
         <v>313</v>
       </c>
-      <c r="AR8" s="47" t="s">
+      <c r="AR8" s="46" t="s">
         <v>314</v>
       </c>
-      <c r="AS8" s="17">
-        <v>96.372</v>
+      <c r="AS8" s="62">
+        <v>0.9637</v>
       </c>
       <c r="AT8" s="17">
         <v>1097.78</v>
@@ -12015,8 +12375,8 @@
       <c r="AU8" s="17">
         <v>173.23</v>
       </c>
-      <c r="AV8" s="17">
-        <v>96.46</v>
+      <c r="AV8" s="62">
+        <v>0.96460000000000001</v>
       </c>
       <c r="AW8" s="17">
         <v>6061.68</v>
@@ -12024,8 +12384,8 @@
       <c r="AX8" s="17">
         <v>216.08</v>
       </c>
-      <c r="AY8" s="23">
-        <v>96.281999999999996</v>
+      <c r="AY8" s="64">
+        <v>0.96279999999999999</v>
       </c>
       <c r="AZ8" s="23">
         <v>1097.33</v>
@@ -12033,8 +12393,8 @@
       <c r="BA8" s="23">
         <v>184.07</v>
       </c>
-      <c r="BB8" s="23">
-        <v>96.421999999999997</v>
+      <c r="BB8" s="64">
+        <v>0.96419999999999995</v>
       </c>
       <c r="BC8" s="23">
         <v>4963.4799999999996</v>
@@ -12042,8 +12402,8 @@
       <c r="BD8" s="23">
         <v>216.47</v>
       </c>
-      <c r="BE8" s="17">
-        <v>96.304000000000002</v>
+      <c r="BE8" s="62">
+        <v>0.96299999999999997</v>
       </c>
       <c r="BF8" s="17">
         <v>1171.5</v>
@@ -12051,8 +12411,8 @@
       <c r="BG8" s="17">
         <v>180.8</v>
       </c>
-      <c r="BH8" s="17">
-        <v>96.396000000000001</v>
+      <c r="BH8" s="62">
+        <v>0.96389999999999998</v>
       </c>
       <c r="BI8" s="17">
         <v>4401.32</v>
@@ -12060,80 +12420,80 @@
       <c r="BJ8" s="17">
         <v>200.85</v>
       </c>
-      <c r="BK8" s="48" t="s">
+      <c r="BK8" s="47" t="s">
         <v>315</v>
       </c>
-      <c r="BL8" s="49" t="s">
+      <c r="BL8" s="48" t="s">
         <v>316</v>
       </c>
       <c r="BM8" s="22" t="s">
         <v>317</v>
       </c>
-      <c r="BN8" s="47" t="s">
+      <c r="BN8" s="46" t="s">
         <v>318</v>
       </c>
-      <c r="BO8" s="118">
-        <v>8.7639999999999993</v>
-      </c>
-      <c r="BP8" s="116">
+      <c r="BO8" s="61">
+        <v>8.7599999999999997E-2</v>
+      </c>
+      <c r="BP8" s="15">
         <v>19.239999999999998</v>
       </c>
-      <c r="BQ8" s="116">
+      <c r="BQ8" s="15">
         <v>1.8</v>
       </c>
-      <c r="BR8" s="118">
-        <v>15.68</v>
-      </c>
-      <c r="BS8" s="116">
+      <c r="BR8" s="59">
+        <v>0.15679999999999999</v>
+      </c>
+      <c r="BS8" s="15">
         <v>56.08</v>
       </c>
-      <c r="BT8" s="116">
+      <c r="BT8" s="15">
         <v>2.36</v>
       </c>
-      <c r="BU8" s="121">
-        <v>9.5879999999999992</v>
-      </c>
-      <c r="BV8" s="122">
+      <c r="BU8" s="57">
+        <v>9.5799999999999996E-2</v>
+      </c>
+      <c r="BV8" s="65">
         <v>19.96</v>
       </c>
-      <c r="BW8" s="122">
+      <c r="BW8" s="65">
         <v>1.97</v>
       </c>
-      <c r="BX8" s="121">
-        <v>15.166</v>
-      </c>
-      <c r="BY8" s="122">
+      <c r="BX8" s="63">
+        <v>0.15160000000000001</v>
+      </c>
+      <c r="BY8" s="65">
         <v>58.5</v>
       </c>
-      <c r="BZ8" s="122">
+      <c r="BZ8" s="65">
         <v>2.4500000000000002</v>
       </c>
-      <c r="CA8" s="118">
-        <v>9.1080000000000005</v>
-      </c>
-      <c r="CB8" s="114">
+      <c r="CA8" s="61">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="CB8" s="26">
         <v>21.31</v>
       </c>
-      <c r="CC8" s="114">
+      <c r="CC8" s="26">
         <v>2.0699999999999998</v>
       </c>
-      <c r="CD8" s="118">
-        <v>15.39</v>
-      </c>
-      <c r="CE8" s="114">
+      <c r="CD8" s="59">
+        <v>0.15390000000000001</v>
+      </c>
+      <c r="CE8" s="26">
         <v>56.03</v>
       </c>
-      <c r="CF8" s="114">
+      <c r="CF8" s="26">
         <v>2.5</v>
       </c>
-      <c r="CG8" s="47" t="s">
+      <c r="CG8" s="46" t="s">
         <v>319</v>
       </c>
-      <c r="CH8" s="47" t="s">
+      <c r="CH8" s="46" t="s">
         <v>320</v>
       </c>
-      <c r="CI8" s="17">
-        <v>68.176000000000002</v>
+      <c r="CI8" s="57">
+        <v>0.68169999999999997</v>
       </c>
       <c r="CJ8" s="17">
         <v>227.75</v>
@@ -12141,8 +12501,8 @@
       <c r="CK8" s="17">
         <v>37.15</v>
       </c>
-      <c r="CL8" s="17">
-        <v>69.244</v>
+      <c r="CL8" s="57">
+        <v>0.69240000000000002</v>
       </c>
       <c r="CM8" s="17">
         <v>866.29</v>
@@ -12150,8 +12510,8 @@
       <c r="CN8" s="17">
         <v>41.67</v>
       </c>
-      <c r="CO8" s="23">
-        <v>68.174000000000007</v>
+      <c r="CO8" s="58">
+        <v>0.68169999999999997</v>
       </c>
       <c r="CP8" s="23">
         <v>223.51</v>
@@ -12159,8 +12519,8 @@
       <c r="CQ8" s="23">
         <v>38.090000000000003</v>
       </c>
-      <c r="CR8" s="23">
-        <v>69.23</v>
+      <c r="CR8" s="58">
+        <v>0.69230000000000003</v>
       </c>
       <c r="CS8" s="23">
         <v>925.68</v>
@@ -12168,8 +12528,8 @@
       <c r="CT8" s="23">
         <v>42.74</v>
       </c>
-      <c r="CU8" s="17">
-        <v>69.147999999999996</v>
+      <c r="CU8" s="57">
+        <v>0.69140000000000001</v>
       </c>
       <c r="CV8" s="17">
         <v>887.73</v>
@@ -12177,8 +12537,8 @@
       <c r="CW8" s="17">
         <v>39.74</v>
       </c>
-      <c r="CX8" s="17">
-        <v>84.483999999999995</v>
+      <c r="CX8" s="62">
+        <v>0.8448</v>
       </c>
       <c r="CY8" s="17">
         <v>909.25</v>
@@ -12186,14 +12546,14 @@
       <c r="CZ8" s="17">
         <v>79.099999999999994</v>
       </c>
-      <c r="DA8" s="47" t="s">
+      <c r="DA8" s="46" t="s">
         <v>321</v>
       </c>
-      <c r="DB8" s="47" t="s">
+      <c r="DB8" s="46" t="s">
         <v>322</v>
       </c>
-      <c r="DC8" s="17">
-        <v>97.432000000000002</v>
+      <c r="DC8" s="62">
+        <v>0.97430000000000005</v>
       </c>
       <c r="DD8" s="17">
         <v>1078.1099999999999</v>
@@ -12201,8 +12561,8 @@
       <c r="DE8" s="17">
         <v>180.78</v>
       </c>
-      <c r="DF8" s="17">
-        <v>93.962000000000003</v>
+      <c r="DF8" s="62">
+        <v>0.93959999999999999</v>
       </c>
       <c r="DG8" s="17">
         <v>4621.79</v>
@@ -12210,8 +12570,8 @@
       <c r="DH8" s="17">
         <v>211.24</v>
       </c>
-      <c r="DI8" s="23">
-        <v>97.474000000000004</v>
+      <c r="DI8" s="64">
+        <v>0.97470000000000001</v>
       </c>
       <c r="DJ8" s="23">
         <v>1077.6199999999999</v>
@@ -12219,8 +12579,8 @@
       <c r="DK8" s="23">
         <v>178.43</v>
       </c>
-      <c r="DL8" s="23">
-        <v>94.408000000000001</v>
+      <c r="DL8" s="64">
+        <v>0.94399999999999995</v>
       </c>
       <c r="DM8" s="23">
         <v>4431.45</v>
@@ -12228,8 +12588,8 @@
       <c r="DN8" s="23">
         <v>213.09</v>
       </c>
-      <c r="DO8" s="17">
-        <v>97.36</v>
+      <c r="DO8" s="62">
+        <v>0.97360000000000002</v>
       </c>
       <c r="DP8" s="17">
         <v>1072.81</v>
@@ -12237,8 +12597,8 @@
       <c r="DQ8" s="17">
         <v>185.34</v>
       </c>
-      <c r="DR8" s="17">
-        <v>94.56</v>
+      <c r="DR8" s="62">
+        <v>0.9456</v>
       </c>
       <c r="DS8" s="17">
         <v>4714.67</v>
@@ -12248,140 +12608,140 @@
       </c>
     </row>
     <row r="9" spans="1:128" s="20" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="54" t="s">
         <v>283</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="55" t="s">
         <v>282</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="53" t="s">
         <v>242</v>
       </c>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="53" t="s">
         <v>243</v>
       </c>
-      <c r="E9" s="44">
+      <c r="E9" s="43">
         <v>0.17530000000000001</v>
       </c>
-      <c r="F9" s="50">
+      <c r="F9" s="49">
         <v>53.7</v>
       </c>
-      <c r="G9" s="51">
+      <c r="G9" s="50">
         <v>10.02</v>
       </c>
-      <c r="H9" s="52">
+      <c r="H9" s="51">
         <v>0.72819999999999996</v>
       </c>
-      <c r="I9" s="27">
+      <c r="I9" s="26">
         <v>226.9</v>
       </c>
-      <c r="J9" s="28">
+      <c r="J9" s="27">
         <v>12.71</v>
       </c>
-      <c r="K9" s="45">
+      <c r="K9" s="44">
         <v>0.1072</v>
       </c>
-      <c r="L9" s="38">
+      <c r="L9" s="37">
         <v>54.31</v>
       </c>
-      <c r="M9" s="38">
+      <c r="M9" s="37">
         <v>9.91</v>
       </c>
-      <c r="N9" s="41">
+      <c r="N9" s="40">
         <v>0.72299999999999998</v>
       </c>
-      <c r="O9" s="29">
+      <c r="O9" s="28">
         <v>100.6</v>
       </c>
-      <c r="P9" s="29">
+      <c r="P9" s="28">
         <v>9.8800000000000008</v>
       </c>
-      <c r="Q9" s="46">
+      <c r="Q9" s="45">
         <v>0.2102</v>
       </c>
-      <c r="R9" s="51">
+      <c r="R9" s="50">
         <v>35.619999999999997</v>
       </c>
-      <c r="S9" s="51">
+      <c r="S9" s="50">
         <v>7.94</v>
       </c>
-      <c r="T9" s="40">
+      <c r="T9" s="39">
         <v>0.71870000000000001</v>
       </c>
-      <c r="U9" s="27">
+      <c r="U9" s="26">
         <v>214.87</v>
       </c>
-      <c r="V9" s="28">
+      <c r="V9" s="27">
         <v>12.96</v>
       </c>
-      <c r="W9" s="53" t="s">
+      <c r="W9" s="52" t="s">
         <v>264</v>
       </c>
-      <c r="X9" s="53" t="s">
+      <c r="X9" s="52" t="s">
         <v>265</v>
       </c>
-      <c r="Y9" s="40">
+      <c r="Y9" s="39">
         <v>0.89649999999999996</v>
       </c>
-      <c r="Z9" s="27">
+      <c r="Z9" s="26">
         <v>636.05999999999995</v>
       </c>
-      <c r="AA9" s="27">
+      <c r="AA9" s="26">
         <v>101.83</v>
       </c>
-      <c r="AB9" s="39">
+      <c r="AB9" s="38">
         <v>0.94299999999999995</v>
       </c>
-      <c r="AC9" s="27">
+      <c r="AC9" s="26">
         <v>1097.81</v>
       </c>
-      <c r="AD9" s="27">
+      <c r="AD9" s="26">
         <v>63</v>
       </c>
-      <c r="AE9" s="41">
+      <c r="AE9" s="40">
         <v>0.90569999999999995</v>
       </c>
-      <c r="AF9" s="29">
+      <c r="AF9" s="28">
         <v>592.51</v>
       </c>
-      <c r="AG9" s="29">
+      <c r="AG9" s="28">
         <v>94.32</v>
       </c>
-      <c r="AH9" s="37">
+      <c r="AH9" s="36">
         <v>0.94159999999999999</v>
       </c>
-      <c r="AI9" s="29">
+      <c r="AI9" s="28">
         <v>1048.43</v>
       </c>
-      <c r="AJ9" s="29">
+      <c r="AJ9" s="28">
         <v>62.74</v>
       </c>
-      <c r="AK9" s="40">
+      <c r="AK9" s="39">
         <v>0.90739999999999998</v>
       </c>
-      <c r="AL9" s="27">
+      <c r="AL9" s="26">
         <v>689.99</v>
       </c>
-      <c r="AM9" s="27">
+      <c r="AM9" s="26">
         <v>97.09</v>
       </c>
-      <c r="AN9" s="39">
+      <c r="AN9" s="38">
         <v>0.94320000000000004</v>
       </c>
-      <c r="AO9" s="27">
+      <c r="AO9" s="26">
         <v>1037.29</v>
       </c>
-      <c r="AP9" s="27">
+      <c r="AP9" s="26">
         <v>65.84</v>
       </c>
-      <c r="AQ9" s="47" t="s">
+      <c r="AQ9" s="46" t="s">
         <v>323</v>
       </c>
-      <c r="AR9" s="47" t="s">
+      <c r="AR9" s="46" t="s">
         <v>324</v>
       </c>
-      <c r="AS9" s="17">
-        <v>99.885999999999996</v>
+      <c r="AS9" s="62">
+        <v>0.99880000000000002</v>
       </c>
       <c r="AT9" s="17">
         <v>1345.3</v>
@@ -12389,8 +12749,8 @@
       <c r="AU9" s="17">
         <v>199.61</v>
       </c>
-      <c r="AV9" s="17">
-        <v>99.97</v>
+      <c r="AV9" s="62">
+        <v>0.99970000000000003</v>
       </c>
       <c r="AW9" s="17">
         <v>5040.7</v>
@@ -12398,8 +12758,8 @@
       <c r="AX9" s="17">
         <v>222.63</v>
       </c>
-      <c r="AY9" s="23">
-        <v>99.914000000000001</v>
+      <c r="AY9" s="64">
+        <v>0.99909999999999999</v>
       </c>
       <c r="AZ9" s="23">
         <v>1359.49</v>
@@ -12407,8 +12767,8 @@
       <c r="BA9" s="23">
         <v>199.11</v>
       </c>
-      <c r="BB9" s="23">
-        <v>99.965999999999994</v>
+      <c r="BB9" s="64">
+        <v>0.99960000000000004</v>
       </c>
       <c r="BC9" s="23">
         <v>5181.8100000000004</v>
@@ -12416,8 +12776,8 @@
       <c r="BD9" s="23">
         <v>228.55</v>
       </c>
-      <c r="BE9" s="17">
-        <v>99.927999999999997</v>
+      <c r="BE9" s="62">
+        <v>0.99929999999999997</v>
       </c>
       <c r="BF9" s="17">
         <v>1365.27</v>
@@ -12425,8 +12785,8 @@
       <c r="BG9" s="17">
         <v>210.91</v>
       </c>
-      <c r="BH9" s="17">
-        <v>99.962000000000003</v>
+      <c r="BH9" s="62">
+        <v>0.99960000000000004</v>
       </c>
       <c r="BI9" s="17">
         <v>5137.0600000000004</v>
@@ -12434,80 +12794,80 @@
       <c r="BJ9" s="17">
         <v>231.62</v>
       </c>
-      <c r="BK9" s="48" t="s">
+      <c r="BK9" s="47" t="s">
         <v>325</v>
       </c>
-      <c r="BL9" s="49" t="s">
+      <c r="BL9" s="48" t="s">
         <v>316</v>
       </c>
       <c r="BM9" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="BN9" s="47" t="s">
+      <c r="BN9" s="46" t="s">
         <v>327</v>
       </c>
-      <c r="BO9" s="117">
-        <v>8.4760000000000009</v>
-      </c>
-      <c r="BP9" s="117">
+      <c r="BO9" s="60">
+        <v>8.4699999999999998E-2</v>
+      </c>
+      <c r="BP9" s="56">
         <v>23.16</v>
       </c>
-      <c r="BQ9" s="114">
+      <c r="BQ9" s="26">
         <v>2.65</v>
       </c>
-      <c r="BR9" s="114">
-        <v>22.36</v>
-      </c>
-      <c r="BS9" s="114">
+      <c r="BR9" s="45">
+        <v>0.22359999999999999</v>
+      </c>
+      <c r="BS9" s="26">
         <v>60.15</v>
       </c>
-      <c r="BT9" s="114">
+      <c r="BT9" s="26">
         <v>2.25</v>
       </c>
-      <c r="BU9" s="115">
-        <v>8.4160000000000004</v>
-      </c>
-      <c r="BV9" s="115">
+      <c r="BU9" s="57">
+        <v>8.4099999999999994E-2</v>
+      </c>
+      <c r="BV9" s="17">
         <v>22.44</v>
       </c>
-      <c r="BW9" s="115">
+      <c r="BW9" s="17">
         <v>2.39</v>
       </c>
-      <c r="BX9" s="115">
-        <v>22.654</v>
-      </c>
-      <c r="BY9" s="115">
+      <c r="BX9" s="63">
+        <v>0.22650000000000001</v>
+      </c>
+      <c r="BY9" s="17">
         <v>70.739999999999995</v>
       </c>
-      <c r="BZ9" s="115">
+      <c r="BZ9" s="17">
         <v>2.71</v>
       </c>
-      <c r="CA9" s="114">
-        <v>8.2940000000000005</v>
-      </c>
-      <c r="CB9" s="114">
+      <c r="CA9" s="39">
+        <v>8.2900000000000001E-2</v>
+      </c>
+      <c r="CB9" s="26">
         <v>22.51</v>
       </c>
-      <c r="CC9" s="114">
+      <c r="CC9" s="26">
         <v>2.27</v>
       </c>
-      <c r="CD9" s="114">
-        <v>22.808</v>
-      </c>
-      <c r="CE9" s="114">
+      <c r="CD9" s="45">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="CE9" s="26">
         <v>74.61</v>
       </c>
-      <c r="CF9" s="114">
+      <c r="CF9" s="26">
         <v>2.5299999999999998</v>
       </c>
-      <c r="CG9" s="47" t="s">
+      <c r="CG9" s="46" t="s">
         <v>328</v>
       </c>
-      <c r="CH9" s="47" t="s">
+      <c r="CH9" s="46" t="s">
         <v>329</v>
       </c>
-      <c r="CI9" s="17">
-        <v>87.774000000000001</v>
+      <c r="CI9" s="62">
+        <v>0.87770000000000004</v>
       </c>
       <c r="CJ9" s="17">
         <v>279.47000000000003</v>
@@ -12515,8 +12875,8 @@
       <c r="CK9" s="17">
         <v>42.41</v>
       </c>
-      <c r="CL9" s="17">
-        <v>94.713999999999999</v>
+      <c r="CL9" s="62">
+        <v>0.94710000000000005</v>
       </c>
       <c r="CM9" s="17">
         <v>1020.78</v>
@@ -12524,8 +12884,8 @@
       <c r="CN9" s="17">
         <v>44.29</v>
       </c>
-      <c r="CO9" s="23">
-        <v>87.623999999999995</v>
+      <c r="CO9" s="64">
+        <v>0.87619999999999998</v>
       </c>
       <c r="CP9" s="23">
         <v>280.93</v>
@@ -12533,8 +12893,8 @@
       <c r="CQ9" s="23">
         <v>43.3</v>
       </c>
-      <c r="CR9" s="23">
-        <v>94.79</v>
+      <c r="CR9" s="64">
+        <v>0.94789999999999996</v>
       </c>
       <c r="CS9" s="23">
         <v>1011.68</v>
@@ -12542,8 +12902,8 @@
       <c r="CT9" s="23">
         <v>42.26</v>
       </c>
-      <c r="CU9" s="17">
-        <v>87.792000000000002</v>
+      <c r="CU9" s="62">
+        <v>0.87790000000000001</v>
       </c>
       <c r="CV9" s="17">
         <v>324.48</v>
@@ -12551,8 +12911,8 @@
       <c r="CW9" s="17">
         <v>46.29</v>
       </c>
-      <c r="CX9" s="17">
-        <v>94.623999999999995</v>
+      <c r="CX9" s="62">
+        <v>0.94620000000000004</v>
       </c>
       <c r="CY9" s="17">
         <v>1017.93</v>
@@ -12560,14 +12920,14 @@
       <c r="CZ9" s="17">
         <v>44.9</v>
       </c>
-      <c r="DA9" s="47" t="s">
+      <c r="DA9" s="46" t="s">
         <v>330</v>
       </c>
-      <c r="DB9" s="47" t="s">
+      <c r="DB9" s="46" t="s">
         <v>331</v>
       </c>
-      <c r="DC9" s="17">
-        <v>99.912000000000006</v>
+      <c r="DC9" s="62">
+        <v>0.99909999999999999</v>
       </c>
       <c r="DD9" s="17">
         <v>1383.09</v>
@@ -12575,8 +12935,8 @@
       <c r="DE9" s="17">
         <v>221.24</v>
       </c>
-      <c r="DF9" s="17">
-        <v>99.778000000000006</v>
+      <c r="DF9" s="62">
+        <v>0.99770000000000003</v>
       </c>
       <c r="DG9" s="17">
         <v>5081.99</v>
@@ -12584,8 +12944,8 @@
       <c r="DH9" s="17">
         <v>230.66</v>
       </c>
-      <c r="DI9" s="23">
-        <v>99.906000000000006</v>
+      <c r="DI9" s="64">
+        <v>0.999</v>
       </c>
       <c r="DJ9" s="23">
         <v>1353.09</v>
@@ -12593,8 +12953,8 @@
       <c r="DK9" s="23">
         <v>203.62</v>
       </c>
-      <c r="DL9" s="23">
-        <v>99.745999999999995</v>
+      <c r="DL9" s="64">
+        <v>0.99739999999999995</v>
       </c>
       <c r="DM9" s="23">
         <v>5104.93</v>
@@ -12602,8 +12962,8 @@
       <c r="DN9" s="23">
         <v>230.11</v>
       </c>
-      <c r="DO9" s="17">
-        <v>99.902000000000001</v>
+      <c r="DO9" s="62">
+        <v>0.999</v>
       </c>
       <c r="DP9" s="17">
         <v>1375.88</v>
@@ -12611,8 +12971,8 @@
       <c r="DQ9" s="17">
         <v>222.91</v>
       </c>
-      <c r="DR9" s="17">
-        <v>99.757999999999996</v>
+      <c r="DR9" s="62">
+        <v>0.99750000000000005</v>
       </c>
       <c r="DS9" s="17">
         <v>5109.3900000000003</v>
@@ -12622,140 +12982,140 @@
       </c>
     </row>
     <row r="10" spans="1:128" s="20" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="54" t="s">
         <v>284</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="55" t="s">
         <v>285</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="53" t="s">
         <v>244</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="53" t="s">
         <v>245</v>
       </c>
-      <c r="E10" s="36">
+      <c r="E10" s="35">
         <v>0.56089999999999995</v>
       </c>
-      <c r="F10" s="51">
+      <c r="F10" s="50">
         <v>90.36</v>
       </c>
-      <c r="G10" s="51">
+      <c r="G10" s="50">
         <v>10.17</v>
       </c>
-      <c r="H10" s="36">
+      <c r="H10" s="35">
         <v>0.76170000000000004</v>
       </c>
-      <c r="I10" s="27">
+      <c r="I10" s="26">
         <v>598.9</v>
       </c>
-      <c r="J10" s="28">
+      <c r="J10" s="27">
         <v>12.46</v>
       </c>
-      <c r="K10" s="41">
+      <c r="K10" s="40">
         <v>0.56210000000000004</v>
       </c>
-      <c r="L10" s="38">
+      <c r="L10" s="37">
         <v>76.22</v>
       </c>
-      <c r="M10" s="38">
+      <c r="M10" s="37">
         <v>10.84</v>
       </c>
-      <c r="N10" s="41">
+      <c r="N10" s="40">
         <v>0.76339999999999997</v>
       </c>
-      <c r="O10" s="29">
+      <c r="O10" s="28">
         <v>555.14</v>
       </c>
-      <c r="P10" s="29">
+      <c r="P10" s="28">
         <v>13</v>
       </c>
-      <c r="Q10" s="40">
+      <c r="Q10" s="39">
         <v>0.5504</v>
       </c>
-      <c r="R10" s="51">
+      <c r="R10" s="50">
         <v>139.31</v>
       </c>
-      <c r="S10" s="51">
+      <c r="S10" s="50">
         <v>10.25</v>
       </c>
-      <c r="T10" s="40">
+      <c r="T10" s="39">
         <v>0.76429999999999998</v>
       </c>
-      <c r="U10" s="27">
+      <c r="U10" s="26">
         <v>655.73</v>
       </c>
-      <c r="V10" s="28">
+      <c r="V10" s="27">
         <v>11.93</v>
       </c>
-      <c r="W10" s="53" t="s">
+      <c r="W10" s="52" t="s">
         <v>261</v>
       </c>
-      <c r="X10" s="53" t="s">
+      <c r="X10" s="52" t="s">
         <v>266</v>
       </c>
-      <c r="Y10" s="40">
+      <c r="Y10" s="39">
         <v>0.93100000000000005</v>
       </c>
-      <c r="Z10" s="27">
+      <c r="Z10" s="26">
         <v>1174.68</v>
       </c>
-      <c r="AA10" s="27">
+      <c r="AA10" s="26">
         <v>111.86</v>
       </c>
-      <c r="AB10" s="39">
+      <c r="AB10" s="38">
         <v>0.9496</v>
       </c>
-      <c r="AC10" s="27">
+      <c r="AC10" s="26">
         <v>5028.6499999999996</v>
       </c>
-      <c r="AD10" s="27">
+      <c r="AD10" s="26">
         <v>132.66999999999999</v>
       </c>
-      <c r="AE10" s="41">
+      <c r="AE10" s="40">
         <v>0.93020000000000003</v>
       </c>
-      <c r="AF10" s="29">
+      <c r="AF10" s="28">
         <v>1132.57</v>
       </c>
-      <c r="AG10" s="29">
+      <c r="AG10" s="28">
         <v>91.34</v>
       </c>
-      <c r="AH10" s="41">
+      <c r="AH10" s="40">
         <v>0.94889999999999997</v>
       </c>
-      <c r="AI10" s="29">
+      <c r="AI10" s="28">
         <v>4630.6000000000004</v>
       </c>
-      <c r="AJ10" s="29">
+      <c r="AJ10" s="28">
         <v>125.93</v>
       </c>
-      <c r="AK10" s="40">
+      <c r="AK10" s="39">
         <v>0.93210000000000004</v>
       </c>
-      <c r="AL10" s="27">
+      <c r="AL10" s="26">
         <v>1162.58</v>
       </c>
-      <c r="AM10" s="27">
+      <c r="AM10" s="26">
         <v>97.98</v>
       </c>
-      <c r="AN10" s="40">
+      <c r="AN10" s="39">
         <v>0.94750000000000001</v>
       </c>
-      <c r="AO10" s="27">
+      <c r="AO10" s="26">
         <v>4718.71</v>
       </c>
-      <c r="AP10" s="27">
+      <c r="AP10" s="26">
         <v>126.13</v>
       </c>
-      <c r="AQ10" s="47" t="s">
+      <c r="AQ10" s="46" t="s">
         <v>332</v>
       </c>
-      <c r="AR10" s="47" t="s">
+      <c r="AR10" s="46" t="s">
         <v>333</v>
       </c>
-      <c r="AS10" s="17">
-        <v>99.957999999999998</v>
+      <c r="AS10" s="62">
+        <v>0.99950000000000006</v>
       </c>
       <c r="AT10" s="17">
         <v>5519.53</v>
@@ -12763,8 +13123,8 @@
       <c r="AU10" s="17">
         <v>458.94</v>
       </c>
-      <c r="AV10" s="17">
-        <v>99.957999999999998</v>
+      <c r="AV10" s="62">
+        <v>0.99958000000000002</v>
       </c>
       <c r="AW10" s="17">
         <v>23155.58</v>
@@ -12772,8 +13132,8 @@
       <c r="AX10" s="17">
         <v>536.25</v>
       </c>
-      <c r="AY10" s="23">
-        <v>99.945999999999998</v>
+      <c r="AY10" s="64">
+        <v>0.99939999999999996</v>
       </c>
       <c r="AZ10" s="23">
         <v>5550.44</v>
@@ -12781,8 +13141,8 @@
       <c r="BA10" s="23">
         <v>458.71</v>
       </c>
-      <c r="BB10" s="23">
-        <v>99.97</v>
+      <c r="BB10" s="64">
+        <v>0.99970000000000003</v>
       </c>
       <c r="BC10" s="23">
         <v>24321.040000000001</v>
@@ -12790,8 +13150,8 @@
       <c r="BD10" s="23">
         <v>546.66999999999996</v>
       </c>
-      <c r="BE10" s="17">
-        <v>99.951999999999998</v>
+      <c r="BE10" s="62">
+        <v>0.99950000000000006</v>
       </c>
       <c r="BF10" s="17">
         <v>5577.28</v>
@@ -12799,8 +13159,8 @@
       <c r="BG10" s="17">
         <v>463.89</v>
       </c>
-      <c r="BH10" s="17">
-        <v>99.971999999999994</v>
+      <c r="BH10" s="62">
+        <v>0.99970000000000003</v>
       </c>
       <c r="BI10" s="17">
         <v>23097.89</v>
@@ -12808,80 +13168,80 @@
       <c r="BJ10" s="17">
         <v>533.55999999999995</v>
       </c>
-      <c r="BK10" s="48" t="s">
+      <c r="BK10" s="47" t="s">
         <v>334</v>
       </c>
-      <c r="BL10" s="49" t="s">
+      <c r="BL10" s="48" t="s">
         <v>335</v>
       </c>
       <c r="BM10" s="22" t="s">
         <v>336</v>
       </c>
-      <c r="BN10" s="47" t="s">
+      <c r="BN10" s="46" t="s">
         <v>337</v>
       </c>
-      <c r="BO10" s="114">
-        <v>11.188000000000001</v>
-      </c>
-      <c r="BP10" s="114">
+      <c r="BO10" s="39">
+        <v>0.1118</v>
+      </c>
+      <c r="BP10" s="26">
         <v>68.14</v>
       </c>
-      <c r="BQ10" s="116">
+      <c r="BQ10" s="15">
         <v>4.97</v>
       </c>
-      <c r="BR10" s="116">
-        <v>28.34</v>
-      </c>
-      <c r="BS10" s="116">
+      <c r="BR10" s="59">
+        <v>0.28339999999999999</v>
+      </c>
+      <c r="BS10" s="15">
         <v>265.11</v>
       </c>
-      <c r="BT10" s="116">
+      <c r="BT10" s="15">
         <v>6.01</v>
       </c>
-      <c r="BU10" s="115">
-        <v>11.162000000000001</v>
-      </c>
-      <c r="BV10" s="115">
+      <c r="BU10" s="57">
+        <v>0.1116</v>
+      </c>
+      <c r="BV10" s="17">
         <v>68.27</v>
       </c>
-      <c r="BW10" s="115">
+      <c r="BW10" s="17">
         <v>4.88</v>
       </c>
-      <c r="BX10" s="115">
-        <v>27.923999999999999</v>
-      </c>
-      <c r="BY10" s="115">
+      <c r="BX10" s="63">
+        <v>0.2792</v>
+      </c>
+      <c r="BY10" s="17">
         <v>245.9</v>
       </c>
-      <c r="BZ10" s="115">
+      <c r="BZ10" s="17">
         <v>6.77</v>
       </c>
-      <c r="CA10" s="116">
-        <v>11.02</v>
-      </c>
-      <c r="CB10" s="116">
+      <c r="CA10" s="61">
+        <v>0.11020000000000001</v>
+      </c>
+      <c r="CB10" s="15">
         <v>67.95</v>
       </c>
-      <c r="CC10" s="116">
+      <c r="CC10" s="15">
         <v>4.95</v>
       </c>
-      <c r="CD10" s="116">
-        <v>27.936</v>
-      </c>
-      <c r="CE10" s="116">
+      <c r="CD10" s="59">
+        <v>0.27929999999999999</v>
+      </c>
+      <c r="CE10" s="15">
         <v>245.48</v>
       </c>
-      <c r="CF10" s="116">
+      <c r="CF10" s="15">
         <v>5.92</v>
       </c>
-      <c r="CG10" s="47" t="s">
+      <c r="CG10" s="46" t="s">
         <v>338</v>
       </c>
-      <c r="CH10" s="47" t="s">
+      <c r="CH10" s="46" t="s">
         <v>339</v>
       </c>
-      <c r="CI10" s="17">
-        <v>92.956000000000003</v>
+      <c r="CI10" s="62">
+        <v>0.92949999999999999</v>
       </c>
       <c r="CJ10" s="17">
         <v>1141.6600000000001</v>
@@ -12889,8 +13249,8 @@
       <c r="CK10" s="17">
         <v>94.32</v>
       </c>
-      <c r="CL10" s="17">
-        <v>98.18</v>
+      <c r="CL10" s="62">
+        <v>0.98180000000000001</v>
       </c>
       <c r="CM10" s="17">
         <v>4716.4399999999996</v>
@@ -12898,8 +13258,8 @@
       <c r="CN10" s="17">
         <v>110.58</v>
       </c>
-      <c r="CO10" s="23">
-        <v>93.052000000000007</v>
+      <c r="CO10" s="64">
+        <v>0.93049999999999999</v>
       </c>
       <c r="CP10" s="23">
         <v>1124.73</v>
@@ -12907,8 +13267,8 @@
       <c r="CQ10" s="23">
         <v>94.72</v>
       </c>
-      <c r="CR10" s="23">
-        <v>98.093999999999994</v>
+      <c r="CR10" s="64">
+        <v>0.98089999999999999</v>
       </c>
       <c r="CS10" s="23">
         <v>4668.1400000000003</v>
@@ -12916,8 +13276,8 @@
       <c r="CT10" s="23">
         <v>108.34</v>
       </c>
-      <c r="CU10" s="17">
-        <v>92.858000000000004</v>
+      <c r="CU10" s="62">
+        <v>0.92849999999999999</v>
       </c>
       <c r="CV10" s="17">
         <v>1315.25</v>
@@ -12925,8 +13285,8 @@
       <c r="CW10" s="17">
         <v>95.62</v>
       </c>
-      <c r="CX10" s="17">
-        <v>98.081999999999994</v>
+      <c r="CX10" s="62">
+        <v>0.98080000000000001</v>
       </c>
       <c r="CY10" s="17">
         <v>4652.3900000000003</v>
@@ -12934,14 +13294,14 @@
       <c r="CZ10" s="17">
         <v>107.49</v>
       </c>
-      <c r="DA10" s="47" t="s">
+      <c r="DA10" s="46" t="s">
         <v>340</v>
       </c>
-      <c r="DB10" s="47" t="s">
+      <c r="DB10" s="46" t="s">
         <v>341</v>
       </c>
-      <c r="DC10" s="17">
-        <v>99.897999999999996</v>
+      <c r="DC10" s="62">
+        <v>0.99890000000000001</v>
       </c>
       <c r="DD10" s="17">
         <v>5582.69</v>
@@ -12949,8 +13309,8 @@
       <c r="DE10" s="17">
         <v>456.06</v>
       </c>
-      <c r="DF10" s="17">
-        <v>99.93</v>
+      <c r="DF10" s="62">
+        <v>0.99929999999999997</v>
       </c>
       <c r="DG10" s="17">
         <v>26825.61</v>
@@ -12958,8 +13318,8 @@
       <c r="DH10" s="17">
         <v>605.38</v>
       </c>
-      <c r="DI10" s="23">
-        <v>99.894000000000005</v>
+      <c r="DI10" s="64">
+        <v>0.99890000000000001</v>
       </c>
       <c r="DJ10" s="23">
         <v>5547.34</v>
@@ -12967,8 +13327,8 @@
       <c r="DK10" s="23">
         <v>451.29</v>
       </c>
-      <c r="DL10" s="23">
-        <v>99.924000000000007</v>
+      <c r="DL10" s="64">
+        <v>0.99919999999999998</v>
       </c>
       <c r="DM10" s="23">
         <v>23292.57</v>
@@ -12976,8 +13336,8 @@
       <c r="DN10" s="23">
         <v>551.94000000000005</v>
       </c>
-      <c r="DO10" s="17">
-        <v>99.906000000000006</v>
+      <c r="DO10" s="62">
+        <v>0.999</v>
       </c>
       <c r="DP10" s="17">
         <v>5606.3</v>
@@ -12985,8 +13345,8 @@
       <c r="DQ10" s="17">
         <v>471.39</v>
       </c>
-      <c r="DR10" s="17">
-        <v>99.933999999999997</v>
+      <c r="DR10" s="62">
+        <v>0.99929999999999997</v>
       </c>
       <c r="DS10" s="17">
         <v>26170.57</v>
@@ -12996,140 +13356,140 @@
       </c>
     </row>
     <row r="11" spans="1:128" s="20" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="54" t="s">
         <v>286</v>
       </c>
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="55" t="s">
         <v>287</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="53" t="s">
         <v>246</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="53" t="s">
         <v>247</v>
       </c>
-      <c r="E11" s="44">
+      <c r="E11" s="43">
         <v>0.2455</v>
       </c>
-      <c r="F11" s="51">
+      <c r="F11" s="50">
         <v>53.77</v>
       </c>
-      <c r="G11" s="51">
+      <c r="G11" s="50">
         <v>9.1199999999999992</v>
       </c>
-      <c r="H11" s="52">
+      <c r="H11" s="51">
         <v>0.69879999999999998</v>
       </c>
-      <c r="I11" s="27">
+      <c r="I11" s="26">
         <v>339.75</v>
       </c>
-      <c r="J11" s="28">
+      <c r="J11" s="27">
         <v>11.66</v>
       </c>
-      <c r="K11" s="45">
+      <c r="K11" s="44">
         <v>0.28199999999999997</v>
       </c>
-      <c r="L11" s="38">
+      <c r="L11" s="37">
         <v>91.64</v>
       </c>
-      <c r="M11" s="38">
+      <c r="M11" s="37">
         <v>12.54</v>
       </c>
-      <c r="N11" s="41">
+      <c r="N11" s="40">
         <v>0.69</v>
       </c>
-      <c r="O11" s="29">
+      <c r="O11" s="28">
         <v>318.36</v>
       </c>
-      <c r="P11" s="29">
+      <c r="P11" s="28">
         <v>14.12</v>
       </c>
-      <c r="Q11" s="46">
+      <c r="Q11" s="45">
         <v>0.24340000000000001</v>
       </c>
-      <c r="R11" s="51">
+      <c r="R11" s="50">
         <v>53.75</v>
       </c>
-      <c r="S11" s="51">
+      <c r="S11" s="50">
         <v>9.16</v>
       </c>
-      <c r="T11" s="40">
+      <c r="T11" s="39">
         <v>0.69169999999999998</v>
       </c>
-      <c r="U11" s="27">
+      <c r="U11" s="26">
         <v>315.75</v>
       </c>
-      <c r="V11" s="28">
+      <c r="V11" s="27">
         <v>11.81</v>
       </c>
-      <c r="W11" s="53" t="s">
+      <c r="W11" s="52" t="s">
         <v>267</v>
       </c>
-      <c r="X11" s="53" t="s">
+      <c r="X11" s="52" t="s">
         <v>268</v>
       </c>
-      <c r="Y11" s="40">
+      <c r="Y11" s="39">
         <v>0.92610000000000003</v>
       </c>
-      <c r="Z11" s="27">
+      <c r="Z11" s="26">
         <v>904.01</v>
       </c>
-      <c r="AA11" s="27">
+      <c r="AA11" s="26">
         <v>82.99</v>
       </c>
-      <c r="AB11" s="40">
+      <c r="AB11" s="39">
         <v>0.93489999999999995</v>
       </c>
-      <c r="AC11" s="27">
+      <c r="AC11" s="26">
         <v>2614.81</v>
       </c>
-      <c r="AD11" s="27">
+      <c r="AD11" s="26">
         <v>108.24</v>
       </c>
-      <c r="AE11" s="37">
+      <c r="AE11" s="36">
         <v>0.92369999999999997</v>
       </c>
-      <c r="AF11" s="29">
+      <c r="AF11" s="28">
         <v>896.13</v>
       </c>
-      <c r="AG11" s="29">
+      <c r="AG11" s="28">
         <v>78.88</v>
       </c>
-      <c r="AH11" s="41">
+      <c r="AH11" s="40">
         <v>0.93530000000000002</v>
       </c>
-      <c r="AI11" s="29">
+      <c r="AI11" s="28">
         <v>2578.39</v>
       </c>
-      <c r="AJ11" s="29">
+      <c r="AJ11" s="28">
         <v>92.23</v>
       </c>
-      <c r="AK11" s="40">
+      <c r="AK11" s="39">
         <v>0.9204</v>
       </c>
-      <c r="AL11" s="27">
+      <c r="AL11" s="26">
         <v>919.3</v>
       </c>
-      <c r="AM11" s="27">
+      <c r="AM11" s="26">
         <v>98.9</v>
       </c>
-      <c r="AN11" s="40">
+      <c r="AN11" s="39">
         <v>0.93689999999999996</v>
       </c>
-      <c r="AO11" s="27">
+      <c r="AO11" s="26">
         <v>2594.16</v>
       </c>
-      <c r="AP11" s="27">
+      <c r="AP11" s="26">
         <v>86.59</v>
       </c>
-      <c r="AQ11" s="47" t="s">
+      <c r="AQ11" s="46" t="s">
         <v>342</v>
       </c>
-      <c r="AR11" s="47" t="s">
+      <c r="AR11" s="46" t="s">
         <v>343</v>
       </c>
-      <c r="AS11" s="17">
-        <v>99.992000000000004</v>
+      <c r="AS11" s="62">
+        <v>0.99990000000000001</v>
       </c>
       <c r="AT11" s="17">
         <v>4467.5600000000004</v>
@@ -13137,8 +13497,8 @@
       <c r="AU11" s="17">
         <v>387.58</v>
       </c>
-      <c r="AV11" s="17">
-        <v>99.974000000000004</v>
+      <c r="AV11" s="62">
+        <v>0.99970000000000003</v>
       </c>
       <c r="AW11" s="17">
         <v>12898.3</v>
@@ -13146,8 +13506,8 @@
       <c r="AX11" s="17">
         <v>434.84</v>
       </c>
-      <c r="AY11" s="23">
-        <v>99.99</v>
+      <c r="AY11" s="64">
+        <v>0.99990000000000001</v>
       </c>
       <c r="AZ11" s="23">
         <v>4479.75</v>
@@ -13155,8 +13515,8 @@
       <c r="BA11" s="23">
         <v>401.45</v>
       </c>
-      <c r="BB11" s="23">
-        <v>99.98</v>
+      <c r="BB11" s="64">
+        <v>0.99980000000000002</v>
       </c>
       <c r="BC11" s="23">
         <v>12852.98</v>
@@ -13164,8 +13524,8 @@
       <c r="BD11" s="23">
         <v>439.14</v>
       </c>
-      <c r="BE11" s="17">
-        <v>99.986000000000004</v>
+      <c r="BE11" s="62">
+        <v>0.99980000000000002</v>
       </c>
       <c r="BF11" s="17">
         <v>4474.5200000000004</v>
@@ -13173,8 +13533,8 @@
       <c r="BG11" s="17">
         <v>390.77</v>
       </c>
-      <c r="BH11" s="17">
-        <v>99.974000000000004</v>
+      <c r="BH11" s="62">
+        <v>0.99970000000000003</v>
       </c>
       <c r="BI11" s="17">
         <v>12904.14</v>
@@ -13182,80 +13542,80 @@
       <c r="BJ11" s="17">
         <v>428.54</v>
       </c>
-      <c r="BK11" s="48" t="s">
+      <c r="BK11" s="47" t="s">
         <v>344</v>
       </c>
-      <c r="BL11" s="49" t="s">
+      <c r="BL11" s="48" t="s">
         <v>345</v>
       </c>
       <c r="BM11" s="22" t="s">
         <v>346</v>
       </c>
-      <c r="BN11" s="47" t="s">
+      <c r="BN11" s="46" t="s">
         <v>347</v>
       </c>
-      <c r="BO11" s="116">
-        <v>3.8220000000000001</v>
-      </c>
-      <c r="BP11" s="116">
+      <c r="BO11" s="59">
+        <v>3.8199999999999998E-2</v>
+      </c>
+      <c r="BP11" s="15">
         <v>56.35</v>
       </c>
-      <c r="BQ11" s="116">
+      <c r="BQ11" s="15">
         <v>4.13</v>
       </c>
-      <c r="BR11" s="116">
-        <v>22.626000000000001</v>
-      </c>
-      <c r="BS11" s="116">
+      <c r="BR11" s="61">
+        <v>0.2263</v>
+      </c>
+      <c r="BS11" s="15">
         <v>140.88</v>
       </c>
-      <c r="BT11" s="116">
+      <c r="BT11" s="15">
         <v>4.67</v>
       </c>
-      <c r="BU11" s="115">
-        <v>3.5979999999999999</v>
-      </c>
-      <c r="BV11" s="115">
+      <c r="BU11" s="63">
+        <v>3.5900000000000001E-2</v>
+      </c>
+      <c r="BV11" s="17">
         <v>56.91</v>
       </c>
-      <c r="BW11" s="115">
+      <c r="BW11" s="17">
         <v>4.24</v>
       </c>
-      <c r="BX11" s="115">
-        <v>22.998000000000001</v>
-      </c>
-      <c r="BY11" s="115">
+      <c r="BX11" s="57">
+        <v>0.22989999999999999</v>
+      </c>
+      <c r="BY11" s="17">
         <v>142.28</v>
       </c>
-      <c r="BZ11" s="115">
+      <c r="BZ11" s="17">
         <v>4.47</v>
       </c>
-      <c r="CA11" s="116">
-        <v>4.274</v>
-      </c>
-      <c r="CB11" s="116">
+      <c r="CA11" s="59">
+        <v>4.2700000000000002E-2</v>
+      </c>
+      <c r="CB11" s="15">
         <v>56.88</v>
       </c>
-      <c r="CC11" s="116">
+      <c r="CC11" s="15">
         <v>4.24</v>
       </c>
-      <c r="CD11" s="116">
-        <v>22.41</v>
-      </c>
-      <c r="CE11" s="116">
+      <c r="CD11" s="61">
+        <v>0.22409999999999999</v>
+      </c>
+      <c r="CE11" s="15">
         <v>144.32</v>
       </c>
-      <c r="CF11" s="116">
+      <c r="CF11" s="15">
         <v>4.5599999999999996</v>
       </c>
-      <c r="CG11" s="47" t="s">
+      <c r="CG11" s="46" t="s">
         <v>348</v>
       </c>
-      <c r="CH11" s="47" t="s">
+      <c r="CH11" s="46" t="s">
         <v>349</v>
       </c>
-      <c r="CI11" s="17">
-        <v>84.364000000000004</v>
+      <c r="CI11" s="62">
+        <v>0.84360000000000002</v>
       </c>
       <c r="CJ11" s="17">
         <v>911.81</v>
@@ -13263,8 +13623,8 @@
       <c r="CK11" s="17">
         <v>79.05</v>
       </c>
-      <c r="CL11" s="17">
-        <v>98.347999999999999</v>
+      <c r="CL11" s="62">
+        <v>0.98340000000000005</v>
       </c>
       <c r="CM11" s="17">
         <v>2588.31</v>
@@ -13272,8 +13632,8 @@
       <c r="CN11" s="17">
         <v>87.17</v>
       </c>
-      <c r="CO11" s="23">
-        <v>84.47</v>
+      <c r="CO11" s="64">
+        <v>0.84470000000000001</v>
       </c>
       <c r="CP11" s="23">
         <v>907.84</v>
@@ -13281,8 +13641,8 @@
       <c r="CQ11" s="23">
         <v>78.63</v>
       </c>
-      <c r="CR11" s="23">
-        <v>98.316000000000003</v>
+      <c r="CR11" s="64">
+        <v>0.98309999999999997</v>
       </c>
       <c r="CS11" s="23">
         <v>2620.8200000000002</v>
@@ -13290,8 +13650,8 @@
       <c r="CT11" s="23">
         <v>89.11</v>
       </c>
-      <c r="CU11" s="17">
-        <v>84.483999999999995</v>
+      <c r="CU11" s="62">
+        <v>0.8448</v>
       </c>
       <c r="CV11" s="17">
         <v>909.25</v>
@@ -13299,8 +13659,8 @@
       <c r="CW11" s="17">
         <v>79.099999999999994</v>
       </c>
-      <c r="CX11" s="17">
-        <v>98.328000000000003</v>
+      <c r="CX11" s="62">
+        <v>0.98319999999999996</v>
       </c>
       <c r="CY11" s="17">
         <v>2600.71</v>
@@ -13308,14 +13668,14 @@
       <c r="CZ11" s="17">
         <v>87.92</v>
       </c>
-      <c r="DA11" s="47" t="s">
+      <c r="DA11" s="46" t="s">
         <v>350</v>
       </c>
-      <c r="DB11" s="47" t="s">
+      <c r="DB11" s="46" t="s">
         <v>351</v>
       </c>
-      <c r="DC11" s="17">
-        <v>99.933999999999997</v>
+      <c r="DC11" s="62">
+        <v>0.99929999999999997</v>
       </c>
       <c r="DD11" s="17">
         <v>4479.8</v>
@@ -13323,8 +13683,8 @@
       <c r="DE11" s="17">
         <v>403.38</v>
       </c>
-      <c r="DF11" s="17">
-        <v>99.965999999999994</v>
+      <c r="DF11" s="62">
+        <v>0.99960000000000004</v>
       </c>
       <c r="DG11" s="17">
         <v>12973.61</v>
@@ -13332,8 +13692,8 @@
       <c r="DH11" s="17">
         <v>432.87</v>
       </c>
-      <c r="DI11" s="23">
-        <v>99.936000000000007</v>
+      <c r="DI11" s="64">
+        <v>0.99929999999999997</v>
       </c>
       <c r="DJ11" s="23">
         <v>4508.66</v>
@@ -13341,8 +13701,8 @@
       <c r="DK11" s="23">
         <v>409.48</v>
       </c>
-      <c r="DL11" s="23">
-        <v>99.968000000000004</v>
+      <c r="DL11" s="64">
+        <v>0.99960000000000004</v>
       </c>
       <c r="DM11" s="23">
         <v>12872.25</v>
@@ -13350,8 +13710,8 @@
       <c r="DN11" s="23">
         <v>447.97</v>
       </c>
-      <c r="DO11" s="17">
-        <v>99.932000000000002</v>
+      <c r="DO11" s="62">
+        <v>0.99929999999999997</v>
       </c>
       <c r="DP11" s="17">
         <v>4508.43</v>
@@ -13359,8 +13719,8 @@
       <c r="DQ11" s="17">
         <v>398.06</v>
       </c>
-      <c r="DR11" s="17">
-        <v>99.968000000000004</v>
+      <c r="DR11" s="62">
+        <v>0.99960000000000004</v>
       </c>
       <c r="DS11" s="17">
         <v>12841.25</v>
@@ -13370,140 +13730,140 @@
       </c>
     </row>
     <row r="12" spans="1:128" s="20" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="54" t="s">
         <v>288</v>
       </c>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="55" t="s">
         <v>289</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="53" t="s">
         <v>248</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="53" t="s">
         <v>249</v>
       </c>
-      <c r="E12" s="52">
+      <c r="E12" s="51">
         <v>0.55220000000000002</v>
       </c>
-      <c r="F12" s="51">
+      <c r="F12" s="50">
         <v>45.38</v>
       </c>
-      <c r="G12" s="51">
+      <c r="G12" s="50">
         <v>8.51</v>
       </c>
-      <c r="H12" s="36">
+      <c r="H12" s="35">
         <v>0.58960000000000001</v>
       </c>
-      <c r="I12" s="27">
+      <c r="I12" s="26">
         <v>343.2</v>
       </c>
-      <c r="J12" s="28">
+      <c r="J12" s="27">
         <v>11.38</v>
       </c>
-      <c r="K12" s="41">
+      <c r="K12" s="40">
         <v>0.51819999999999999</v>
       </c>
-      <c r="L12" s="38">
+      <c r="L12" s="37">
         <v>43.46</v>
       </c>
-      <c r="M12" s="38">
+      <c r="M12" s="37">
         <v>8.23</v>
       </c>
-      <c r="N12" s="41">
+      <c r="N12" s="40">
         <v>0.61180000000000001</v>
       </c>
-      <c r="O12" s="29">
+      <c r="O12" s="28">
         <v>494.91</v>
       </c>
-      <c r="P12" s="29">
+      <c r="P12" s="28">
         <v>13.21</v>
       </c>
-      <c r="Q12" s="40">
+      <c r="Q12" s="39">
         <v>0.52739999999999998</v>
       </c>
-      <c r="R12" s="51">
+      <c r="R12" s="50">
         <v>42.81</v>
       </c>
-      <c r="S12" s="51">
+      <c r="S12" s="50">
         <v>8.44</v>
       </c>
-      <c r="T12" s="40">
+      <c r="T12" s="39">
         <v>0.59419999999999995</v>
       </c>
-      <c r="U12" s="27">
+      <c r="U12" s="26">
         <v>343.09</v>
       </c>
-      <c r="V12" s="28">
+      <c r="V12" s="27">
         <v>21.21</v>
       </c>
-      <c r="W12" s="53" t="s">
+      <c r="W12" s="52" t="s">
         <v>269</v>
       </c>
-      <c r="X12" s="53" t="s">
+      <c r="X12" s="52" t="s">
         <v>270</v>
       </c>
-      <c r="Y12" s="39">
+      <c r="Y12" s="38">
         <v>0.9073</v>
       </c>
-      <c r="Z12" s="27">
+      <c r="Z12" s="26">
         <v>451.53</v>
       </c>
-      <c r="AA12" s="27">
+      <c r="AA12" s="26">
         <v>65.72</v>
       </c>
-      <c r="AB12" s="40">
+      <c r="AB12" s="39">
         <v>0.92220000000000002</v>
       </c>
-      <c r="AC12" s="27">
+      <c r="AC12" s="26">
         <v>1810.48</v>
       </c>
-      <c r="AD12" s="27">
+      <c r="AD12" s="26">
         <v>81.400000000000006</v>
       </c>
-      <c r="AE12" s="37">
+      <c r="AE12" s="36">
         <v>0.90669999999999995</v>
       </c>
-      <c r="AF12" s="29">
+      <c r="AF12" s="28">
         <v>521.64</v>
       </c>
-      <c r="AG12" s="29">
+      <c r="AG12" s="28">
         <v>69.5</v>
       </c>
-      <c r="AH12" s="41">
+      <c r="AH12" s="40">
         <v>0.92069999999999996</v>
       </c>
-      <c r="AI12" s="29">
+      <c r="AI12" s="28">
         <v>1766.51</v>
       </c>
-      <c r="AJ12" s="29">
+      <c r="AJ12" s="28">
         <v>61.81</v>
       </c>
-      <c r="AK12" s="39">
+      <c r="AK12" s="38">
         <v>0.90710000000000002</v>
       </c>
-      <c r="AL12" s="27">
+      <c r="AL12" s="26">
         <v>503.55</v>
       </c>
-      <c r="AM12" s="27">
+      <c r="AM12" s="26">
         <v>76.06</v>
       </c>
-      <c r="AN12" s="40">
+      <c r="AN12" s="39">
         <v>0.92030000000000001</v>
       </c>
-      <c r="AO12" s="27">
+      <c r="AO12" s="26">
         <v>1637.5</v>
       </c>
-      <c r="AP12" s="27">
+      <c r="AP12" s="26">
         <v>56.76</v>
       </c>
-      <c r="AQ12" s="47" t="s">
+      <c r="AQ12" s="46" t="s">
         <v>352</v>
       </c>
-      <c r="AR12" s="47" t="s">
+      <c r="AR12" s="46" t="s">
         <v>353</v>
       </c>
-      <c r="AS12" s="17">
-        <v>94.78</v>
+      <c r="AS12" s="62">
+        <v>0.94779999999999998</v>
       </c>
       <c r="AT12" s="17">
         <v>2203.75</v>
@@ -13511,8 +13871,8 @@
       <c r="AU12" s="17">
         <v>240.18</v>
       </c>
-      <c r="AV12" s="17">
-        <v>99.534000000000006</v>
+      <c r="AV12" s="62">
+        <v>0.99529999999999996</v>
       </c>
       <c r="AW12" s="17">
         <v>8330.35</v>
@@ -13520,8 +13880,8 @@
       <c r="AX12" s="17">
         <v>292.16000000000003</v>
       </c>
-      <c r="AY12" s="23">
-        <v>94.686000000000007</v>
+      <c r="AY12" s="64">
+        <v>0.94679999999999997</v>
       </c>
       <c r="AZ12" s="23">
         <v>2179.7800000000002</v>
@@ -13529,8 +13889,8 @@
       <c r="BA12" s="23">
         <v>234.84</v>
       </c>
-      <c r="BB12" s="23">
-        <v>99.558000000000007</v>
+      <c r="BB12" s="64">
+        <v>0.99550000000000005</v>
       </c>
       <c r="BC12" s="23">
         <v>7876.4</v>
@@ -13538,8 +13898,8 @@
       <c r="BD12" s="23">
         <v>281.29000000000002</v>
       </c>
-      <c r="BE12" s="17">
-        <v>94.947999999999993</v>
+      <c r="BE12" s="62">
+        <v>0.94950000000000001</v>
       </c>
       <c r="BF12" s="17">
         <v>2167.6</v>
@@ -13547,8 +13907,8 @@
       <c r="BG12" s="17">
         <v>236.75</v>
       </c>
-      <c r="BH12" s="17">
-        <v>99.575999999999993</v>
+      <c r="BH12" s="62">
+        <v>0.99570000000000003</v>
       </c>
       <c r="BI12" s="17">
         <v>8112.42</v>
@@ -13556,80 +13916,80 @@
       <c r="BJ12" s="17">
         <v>307.89</v>
       </c>
-      <c r="BK12" s="48" t="s">
+      <c r="BK12" s="47" t="s">
         <v>354</v>
       </c>
-      <c r="BL12" s="49" t="s">
+      <c r="BL12" s="48" t="s">
         <v>355</v>
       </c>
       <c r="BM12" s="22" t="s">
         <v>356</v>
       </c>
-      <c r="BN12" s="47" t="s">
+      <c r="BN12" s="46" t="s">
         <v>357</v>
       </c>
-      <c r="BO12" s="116">
-        <v>9.3559999999999999</v>
-      </c>
-      <c r="BP12" s="116">
+      <c r="BO12" s="61">
+        <v>9.35E-2</v>
+      </c>
+      <c r="BP12" s="15">
         <v>32.53</v>
       </c>
-      <c r="BQ12" s="116">
+      <c r="BQ12" s="15">
         <v>2.42</v>
       </c>
-      <c r="BR12" s="116">
-        <v>14.247999999999999</v>
-      </c>
-      <c r="BS12" s="116">
+      <c r="BR12" s="59">
+        <v>0.14249999999999999</v>
+      </c>
+      <c r="BS12" s="15">
         <v>88.46</v>
       </c>
-      <c r="BT12" s="116">
+      <c r="BT12" s="15">
         <v>2.87</v>
       </c>
-      <c r="BU12" s="115">
-        <v>10.5</v>
-      </c>
-      <c r="BV12" s="115">
+      <c r="BU12" s="57">
+        <v>0.105</v>
+      </c>
+      <c r="BV12" s="17">
         <v>33.44</v>
       </c>
-      <c r="BW12" s="115">
+      <c r="BW12" s="17">
         <v>2.4</v>
       </c>
-      <c r="BX12" s="115">
-        <v>14.366</v>
-      </c>
-      <c r="BY12" s="115">
+      <c r="BX12" s="63">
+        <v>0.14360000000000001</v>
+      </c>
+      <c r="BY12" s="17">
         <v>88.1</v>
       </c>
-      <c r="BZ12" s="115">
+      <c r="BZ12" s="17">
         <v>2.81</v>
       </c>
-      <c r="CA12" s="116">
-        <v>10.486000000000001</v>
-      </c>
-      <c r="CB12" s="116">
+      <c r="CA12" s="61">
+        <v>0.1048</v>
+      </c>
+      <c r="CB12" s="15">
         <v>32.93</v>
       </c>
-      <c r="CC12" s="116">
+      <c r="CC12" s="15">
         <v>2.37</v>
       </c>
-      <c r="CD12" s="116">
-        <v>14.362</v>
-      </c>
-      <c r="CE12" s="116">
+      <c r="CD12" s="59">
+        <v>0.14360000000000001</v>
+      </c>
+      <c r="CE12" s="15">
         <v>90.99</v>
       </c>
-      <c r="CF12" s="116">
+      <c r="CF12" s="15">
         <v>3.06</v>
       </c>
-      <c r="CG12" s="47" t="s">
+      <c r="CG12" s="46" t="s">
         <v>358</v>
       </c>
-      <c r="CH12" s="47" t="s">
+      <c r="CH12" s="46" t="s">
         <v>359</v>
       </c>
-      <c r="CI12" s="17">
-        <v>75.355999999999995</v>
+      <c r="CI12" s="62">
+        <v>0.75349999999999995</v>
       </c>
       <c r="CJ12" s="17">
         <v>459.78</v>
@@ -13637,8 +13997,8 @@
       <c r="CK12" s="17">
         <v>47.26</v>
       </c>
-      <c r="CL12" s="17">
-        <v>82.998000000000005</v>
+      <c r="CL12" s="62">
+        <v>0.82989999999999997</v>
       </c>
       <c r="CM12" s="17">
         <v>1619.9</v>
@@ -13646,8 +14006,8 @@
       <c r="CN12" s="17">
         <v>55.36</v>
       </c>
-      <c r="CO12" s="23">
-        <v>74.995999999999995</v>
+      <c r="CO12" s="64">
+        <v>0.74990000000000001</v>
       </c>
       <c r="CP12" s="23">
         <v>450.52</v>
@@ -13655,8 +14015,8 @@
       <c r="CQ12" s="23">
         <v>49.24</v>
       </c>
-      <c r="CR12" s="23">
-        <v>82.957999999999998</v>
+      <c r="CR12" s="64">
+        <v>0.82950000000000002</v>
       </c>
       <c r="CS12" s="23">
         <v>1648.8</v>
@@ -13664,8 +14024,8 @@
       <c r="CT12" s="23">
         <v>57.99</v>
       </c>
-      <c r="CU12" s="17">
-        <v>74.825999999999993</v>
+      <c r="CU12" s="62">
+        <v>0.74819999999999998</v>
       </c>
       <c r="CV12" s="17">
         <v>438.87</v>
@@ -13673,8 +14033,8 @@
       <c r="CW12" s="17">
         <v>46.14</v>
       </c>
-      <c r="CX12" s="17">
-        <v>82.834000000000003</v>
+      <c r="CX12" s="62">
+        <v>0.82830000000000004</v>
       </c>
       <c r="CY12" s="17">
         <v>1671.56</v>
@@ -13682,14 +14042,14 @@
       <c r="CZ12" s="17">
         <v>57.64</v>
       </c>
-      <c r="DA12" s="47" t="s">
+      <c r="DA12" s="46" t="s">
         <v>360</v>
       </c>
-      <c r="DB12" s="47" t="s">
+      <c r="DB12" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="DC12" s="17">
-        <v>78.691999999999993</v>
+      <c r="DC12" s="62">
+        <v>0.78690000000000004</v>
       </c>
       <c r="DD12" s="17">
         <v>2182.37</v>
@@ -13697,8 +14057,8 @@
       <c r="DE12" s="17">
         <v>237.11</v>
       </c>
-      <c r="DF12" s="17">
-        <v>98.525999999999996</v>
+      <c r="DF12" s="62">
+        <v>0.98519999999999996</v>
       </c>
       <c r="DG12" s="17">
         <v>8354.08</v>
@@ -13706,8 +14066,8 @@
       <c r="DH12" s="17">
         <v>292.54000000000002</v>
       </c>
-      <c r="DI12" s="23">
-        <v>78.721999999999994</v>
+      <c r="DI12" s="64">
+        <v>0.78720000000000001</v>
       </c>
       <c r="DJ12" s="23">
         <v>3137.9</v>
@@ -13715,8 +14075,8 @@
       <c r="DK12" s="23">
         <v>265.98</v>
       </c>
-      <c r="DL12" s="23">
-        <v>98.537999999999997</v>
+      <c r="DL12" s="64">
+        <v>0.98529999999999995</v>
       </c>
       <c r="DM12" s="23">
         <v>8132.19</v>
@@ -13724,8 +14084,8 @@
       <c r="DN12" s="23">
         <v>290.51</v>
       </c>
-      <c r="DO12" s="17">
-        <v>78.17</v>
+      <c r="DO12" s="62">
+        <v>0.78169999999999995</v>
       </c>
       <c r="DP12" s="17">
         <v>3216.9</v>
@@ -13733,8 +14093,8 @@
       <c r="DQ12" s="17">
         <v>272.91000000000003</v>
       </c>
-      <c r="DR12" s="17">
-        <v>98.522000000000006</v>
+      <c r="DR12" s="62">
+        <v>0.98519999999999996</v>
       </c>
       <c r="DS12" s="17">
         <v>8059.6</v>
@@ -13744,140 +14104,140 @@
       </c>
     </row>
     <row r="13" spans="1:128" s="20" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="54" t="s">
         <v>290</v>
       </c>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="55" t="s">
         <v>291</v>
       </c>
-      <c r="C13" s="54" t="s">
+      <c r="C13" s="53" t="s">
         <v>250</v>
       </c>
-      <c r="D13" s="54" t="s">
+      <c r="D13" s="53" t="s">
         <v>251</v>
       </c>
-      <c r="E13" s="36">
+      <c r="E13" s="35">
         <v>0.27500000000000002</v>
       </c>
-      <c r="F13" s="51">
+      <c r="F13" s="50">
         <v>189.25</v>
       </c>
-      <c r="G13" s="51">
+      <c r="G13" s="50">
         <v>13.5</v>
       </c>
-      <c r="H13" s="36">
+      <c r="H13" s="35">
         <v>0.49669999999999997</v>
       </c>
-      <c r="I13" s="27">
+      <c r="I13" s="26">
         <v>1208.94</v>
       </c>
-      <c r="J13" s="28">
+      <c r="J13" s="27">
         <v>36.409999999999997</v>
       </c>
-      <c r="K13" s="45">
+      <c r="K13" s="44">
         <v>0.20749999999999999</v>
       </c>
-      <c r="L13" s="38">
+      <c r="L13" s="37">
         <v>192.6</v>
       </c>
-      <c r="M13" s="38">
+      <c r="M13" s="37">
         <v>13.78</v>
       </c>
-      <c r="N13" s="41">
+      <c r="N13" s="40">
         <v>0.5101</v>
       </c>
-      <c r="O13" s="29">
+      <c r="O13" s="28">
         <v>527.96</v>
       </c>
-      <c r="P13" s="29">
+      <c r="P13" s="28">
         <v>14.78</v>
       </c>
-      <c r="Q13" s="46">
+      <c r="Q13" s="45">
         <v>0.2157</v>
       </c>
-      <c r="R13" s="51">
+      <c r="R13" s="50">
         <v>189.36</v>
       </c>
-      <c r="S13" s="51">
+      <c r="S13" s="50">
         <v>14.03</v>
       </c>
-      <c r="T13" s="40">
+      <c r="T13" s="39">
         <v>0.51160000000000005</v>
       </c>
-      <c r="U13" s="27">
+      <c r="U13" s="26">
         <v>389.14</v>
       </c>
-      <c r="V13" s="28">
+      <c r="V13" s="27">
         <v>14.52</v>
       </c>
-      <c r="W13" s="53" t="s">
+      <c r="W13" s="52" t="s">
         <v>271</v>
       </c>
-      <c r="X13" s="53" t="s">
+      <c r="X13" s="52" t="s">
         <v>272</v>
       </c>
-      <c r="Y13" s="40">
+      <c r="Y13" s="39">
         <v>0.91590000000000005</v>
       </c>
-      <c r="Z13" s="27">
+      <c r="Z13" s="26">
         <v>2750.28</v>
       </c>
-      <c r="AA13" s="27">
+      <c r="AA13" s="26">
         <v>179.18</v>
       </c>
-      <c r="AB13" s="40">
+      <c r="AB13" s="39">
         <v>0.93700000000000006</v>
       </c>
-      <c r="AC13" s="27">
+      <c r="AC13" s="26">
         <v>6567.51</v>
       </c>
-      <c r="AD13" s="27">
+      <c r="AD13" s="26">
         <v>196.55</v>
       </c>
-      <c r="AE13" s="41">
+      <c r="AE13" s="40">
         <v>0.92190000000000005</v>
       </c>
-      <c r="AF13" s="29">
+      <c r="AF13" s="28">
         <v>2780.88</v>
       </c>
-      <c r="AG13" s="29">
+      <c r="AG13" s="28">
         <v>178.25</v>
       </c>
-      <c r="AH13" s="41">
+      <c r="AH13" s="40">
         <v>0.93469999999999998</v>
       </c>
-      <c r="AI13" s="29">
+      <c r="AI13" s="28">
         <v>6534.73</v>
       </c>
-      <c r="AJ13" s="29">
+      <c r="AJ13" s="28">
         <v>176.97</v>
       </c>
-      <c r="AK13" s="40">
+      <c r="AK13" s="39">
         <v>0.91590000000000005</v>
       </c>
-      <c r="AL13" s="27">
+      <c r="AL13" s="26">
         <v>2772.89</v>
       </c>
-      <c r="AM13" s="27">
+      <c r="AM13" s="26">
         <v>181.87</v>
       </c>
-      <c r="AN13" s="40">
+      <c r="AN13" s="39">
         <v>0.93469999999999998</v>
       </c>
-      <c r="AO13" s="27">
+      <c r="AO13" s="26">
         <v>6397.82</v>
       </c>
-      <c r="AP13" s="27">
+      <c r="AP13" s="26">
         <v>173.28</v>
       </c>
-      <c r="AQ13" s="47" t="s">
+      <c r="AQ13" s="46" t="s">
         <v>362</v>
       </c>
-      <c r="AR13" s="47" t="s">
+      <c r="AR13" s="46" t="s">
         <v>363</v>
       </c>
-      <c r="AS13" s="17">
-        <v>99.97</v>
+      <c r="AS13" s="62">
+        <v>0.99970000000000003</v>
       </c>
       <c r="AT13" s="17">
         <v>13633.64</v>
@@ -13885,8 +14245,8 @@
       <c r="AU13" s="17">
         <v>813.25</v>
       </c>
-      <c r="AV13" s="17">
-        <v>99.96</v>
+      <c r="AV13" s="62">
+        <v>0.99960000000000004</v>
       </c>
       <c r="AW13" s="17">
         <v>31706.78</v>
@@ -13894,8 +14254,8 @@
       <c r="AX13" s="17">
         <v>859.76</v>
       </c>
-      <c r="AY13" s="23">
-        <v>99.957999999999998</v>
+      <c r="AY13" s="64">
+        <v>0.99960000000000004</v>
       </c>
       <c r="AZ13" s="23">
         <v>13723.7</v>
@@ -13903,8 +14263,8 @@
       <c r="BA13" s="23">
         <v>820.83</v>
       </c>
-      <c r="BB13" s="23">
-        <v>99.965999999999994</v>
+      <c r="BB13" s="64">
+        <v>0.99960000000000004</v>
       </c>
       <c r="BC13" s="23">
         <v>31890.79</v>
@@ -13912,8 +14272,8 @@
       <c r="BD13" s="23">
         <v>865.95</v>
       </c>
-      <c r="BE13" s="17">
-        <v>99.975999999999999</v>
+      <c r="BE13" s="62">
+        <v>0.99970000000000003</v>
       </c>
       <c r="BF13" s="17">
         <v>13583.44</v>
@@ -13921,8 +14281,8 @@
       <c r="BG13" s="17">
         <v>805.96</v>
       </c>
-      <c r="BH13" s="17">
-        <v>99.971999999999994</v>
+      <c r="BH13" s="62">
+        <v>0.99970000000000003</v>
       </c>
       <c r="BI13" s="17">
         <v>31733.39</v>
@@ -13930,80 +14290,80 @@
       <c r="BJ13" s="17">
         <v>870.49</v>
       </c>
-      <c r="BK13" s="48" t="s">
+      <c r="BK13" s="47" t="s">
         <v>364</v>
       </c>
-      <c r="BL13" s="49" t="s">
+      <c r="BL13" s="48" t="s">
         <v>365</v>
       </c>
       <c r="BM13" s="22" t="s">
         <v>366</v>
       </c>
-      <c r="BN13" s="47" t="s">
+      <c r="BN13" s="46" t="s">
         <v>367</v>
       </c>
-      <c r="BO13" s="116">
-        <v>1.6919999999999999</v>
-      </c>
-      <c r="BP13" s="116">
+      <c r="BO13" s="61">
+        <v>1.6899999999999998E-2</v>
+      </c>
+      <c r="BP13" s="15">
         <v>152.97</v>
       </c>
-      <c r="BQ13" s="116">
+      <c r="BQ13" s="15">
         <v>9.49</v>
       </c>
-      <c r="BR13" s="116">
-        <v>12.986000000000001</v>
-      </c>
-      <c r="BS13" s="116">
+      <c r="BR13" s="61">
+        <v>0.1298</v>
+      </c>
+      <c r="BS13" s="15">
         <v>339.99</v>
       </c>
-      <c r="BT13" s="116">
+      <c r="BT13" s="15">
         <v>8.9499999999999993</v>
       </c>
-      <c r="BU13" s="115">
-        <v>1.486</v>
-      </c>
-      <c r="BV13" s="115">
+      <c r="BU13" s="57">
+        <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="BV13" s="17">
         <v>153.47</v>
       </c>
-      <c r="BW13" s="115">
+      <c r="BW13" s="17">
         <v>9.4499999999999993</v>
       </c>
-      <c r="BX13" s="115">
-        <v>12.754</v>
-      </c>
-      <c r="BY13" s="115">
+      <c r="BX13" s="63">
+        <v>0.1275</v>
+      </c>
+      <c r="BY13" s="17">
         <v>346.4</v>
       </c>
-      <c r="BZ13" s="115">
+      <c r="BZ13" s="17">
         <v>8.83</v>
       </c>
-      <c r="CA13" s="116">
-        <v>1.5780000000000001</v>
-      </c>
-      <c r="CB13" s="116">
+      <c r="CA13" s="61">
+        <v>1.5699999999999999E-2</v>
+      </c>
+      <c r="CB13" s="15">
         <v>152.80000000000001</v>
       </c>
-      <c r="CC13" s="116">
+      <c r="CC13" s="15">
         <v>8.8800000000000008</v>
       </c>
-      <c r="CD13" s="116">
-        <v>12.73</v>
-      </c>
-      <c r="CE13" s="116">
+      <c r="CD13" s="61">
+        <v>0.1273</v>
+      </c>
+      <c r="CE13" s="15">
         <v>339.69</v>
       </c>
-      <c r="CF13" s="116">
+      <c r="CF13" s="15">
         <v>9</v>
       </c>
-      <c r="CG13" s="47" t="s">
+      <c r="CG13" s="46" t="s">
         <v>368</v>
       </c>
-      <c r="CH13" s="47" t="s">
+      <c r="CH13" s="46" t="s">
         <v>369</v>
       </c>
-      <c r="CI13" s="17">
-        <v>85.965999999999994</v>
+      <c r="CI13" s="62">
+        <v>0.85960000000000003</v>
       </c>
       <c r="CJ13" s="17">
         <v>2743.38</v>
@@ -14011,8 +14371,8 @@
       <c r="CK13" s="17">
         <v>165.81</v>
       </c>
-      <c r="CL13" s="17">
-        <v>96.846000000000004</v>
+      <c r="CL13" s="62">
+        <v>0.96840000000000004</v>
       </c>
       <c r="CM13" s="17">
         <v>6452.24</v>
@@ -14020,8 +14380,8 @@
       <c r="CN13" s="17">
         <v>177.21</v>
       </c>
-      <c r="CO13" s="23">
-        <v>84.147999999999996</v>
+      <c r="CO13" s="64">
+        <v>0.84140000000000004</v>
       </c>
       <c r="CP13" s="23">
         <v>2738.34</v>
@@ -14029,8 +14389,8 @@
       <c r="CQ13" s="23">
         <v>161.78</v>
       </c>
-      <c r="CR13" s="23">
-        <v>96.662000000000006</v>
+      <c r="CR13" s="64">
+        <v>0.96660000000000001</v>
       </c>
       <c r="CS13" s="23">
         <v>6393.99</v>
@@ -14038,11 +14398,17 @@
       <c r="CT13" s="23">
         <v>171.86</v>
       </c>
-      <c r="CU13" s="17"/>
-      <c r="CV13" s="17"/>
-      <c r="CW13" s="17"/>
-      <c r="CX13" s="17">
-        <v>96.81</v>
+      <c r="CU13" s="62">
+        <v>0.59660000000000002</v>
+      </c>
+      <c r="CV13" s="17">
+        <v>1676.22</v>
+      </c>
+      <c r="CW13" s="17">
+        <v>99.83</v>
+      </c>
+      <c r="CX13" s="62">
+        <v>0.96809999999999996</v>
       </c>
       <c r="CY13" s="17">
         <v>6412.53</v>
@@ -14050,14 +14416,14 @@
       <c r="CZ13" s="17">
         <v>175.71</v>
       </c>
-      <c r="DA13" s="47" t="s">
+      <c r="DA13" s="46" t="s">
         <v>370</v>
       </c>
-      <c r="DB13" s="47" t="s">
+      <c r="DB13" s="46" t="s">
         <v>371</v>
       </c>
-      <c r="DC13" s="17">
-        <v>99.944000000000003</v>
+      <c r="DC13" s="62">
+        <v>0.99939999999999996</v>
       </c>
       <c r="DD13" s="17">
         <v>13722.76</v>
@@ -14065,8 +14431,8 @@
       <c r="DE13" s="17">
         <v>813.11</v>
       </c>
-      <c r="DF13" s="17">
-        <v>99.97</v>
+      <c r="DF13" s="62">
+        <v>0.99970000000000003</v>
       </c>
       <c r="DG13" s="17">
         <v>32088.93</v>
@@ -14074,8 +14440,8 @@
       <c r="DH13" s="17">
         <v>871.95</v>
       </c>
-      <c r="DI13" s="23">
-        <v>99.914000000000001</v>
+      <c r="DI13" s="64">
+        <v>0.99909999999999999</v>
       </c>
       <c r="DJ13" s="23">
         <v>13698.12</v>
@@ -14083,8 +14449,8 @@
       <c r="DK13" s="23">
         <v>812.18</v>
       </c>
-      <c r="DL13" s="23">
-        <v>99.974000000000004</v>
+      <c r="DL13" s="64">
+        <v>0.99970000000000003</v>
       </c>
       <c r="DM13" s="23">
         <v>31911.37</v>
@@ -14092,8 +14458,8 @@
       <c r="DN13" s="23">
         <v>863.29</v>
       </c>
-      <c r="DO13" s="17">
-        <v>99.94</v>
+      <c r="DO13" s="62">
+        <v>0.99939999999999996</v>
       </c>
       <c r="DP13" s="17">
         <v>13632.88</v>
@@ -14101,8 +14467,8 @@
       <c r="DQ13" s="17">
         <v>824.08</v>
       </c>
-      <c r="DR13" s="17">
-        <v>99.97</v>
+      <c r="DR13" s="62">
+        <v>0.99970000000000003</v>
       </c>
       <c r="DS13" s="17">
         <v>32681.81</v>
@@ -14112,140 +14478,140 @@
       </c>
     </row>
     <row r="14" spans="1:128" s="20" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="54" t="s">
         <v>292</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="55" t="s">
         <v>293</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="53" t="s">
         <v>252</v>
       </c>
-      <c r="D14" s="54" t="s">
+      <c r="D14" s="53" t="s">
         <v>253</v>
       </c>
-      <c r="E14" s="44">
+      <c r="E14" s="43">
         <v>0.1152</v>
       </c>
-      <c r="F14" s="51">
+      <c r="F14" s="50">
         <v>35.340000000000003</v>
       </c>
-      <c r="G14" s="51">
+      <c r="G14" s="50">
         <v>7.66</v>
       </c>
-      <c r="H14" s="52">
+      <c r="H14" s="51">
         <v>0.65010000000000001</v>
       </c>
-      <c r="I14" s="27">
+      <c r="I14" s="26">
         <v>161.01</v>
       </c>
-      <c r="J14" s="28">
+      <c r="J14" s="27">
         <v>11.4</v>
       </c>
-      <c r="K14" s="45">
+      <c r="K14" s="44">
         <v>0.1012</v>
       </c>
-      <c r="L14" s="38">
+      <c r="L14" s="37">
         <v>34.99</v>
       </c>
-      <c r="M14" s="38">
+      <c r="M14" s="37">
         <v>7.96</v>
       </c>
-      <c r="N14" s="37">
+      <c r="N14" s="36">
         <v>0.65329999999999999</v>
       </c>
-      <c r="O14" s="29">
+      <c r="O14" s="28">
         <v>102.6</v>
       </c>
-      <c r="P14" s="29">
+      <c r="P14" s="28">
         <v>8.5399999999999991</v>
       </c>
-      <c r="Q14" s="46">
+      <c r="Q14" s="45">
         <v>0.10009999999999999</v>
       </c>
-      <c r="R14" s="51">
+      <c r="R14" s="50">
         <v>35.33</v>
       </c>
-      <c r="S14" s="27">
+      <c r="S14" s="26">
         <v>8.15</v>
       </c>
-      <c r="T14" s="39">
+      <c r="T14" s="38">
         <v>0.65229999999999999</v>
       </c>
-      <c r="U14" s="27">
+      <c r="U14" s="26">
         <v>196.02</v>
       </c>
-      <c r="V14" s="28">
+      <c r="V14" s="27">
         <v>8.27</v>
       </c>
-      <c r="W14" s="53" t="s">
+      <c r="W14" s="52" t="s">
         <v>273</v>
       </c>
-      <c r="X14" s="53" t="s">
+      <c r="X14" s="52" t="s">
         <v>274</v>
       </c>
-      <c r="Y14" s="46">
+      <c r="Y14" s="45">
         <v>0.65659999999999996</v>
       </c>
-      <c r="Z14" s="27">
+      <c r="Z14" s="26">
         <v>369.46</v>
       </c>
-      <c r="AA14" s="27">
+      <c r="AA14" s="26">
         <v>45.06</v>
       </c>
-      <c r="AB14" s="40">
+      <c r="AB14" s="39">
         <v>0.81940000000000002</v>
       </c>
-      <c r="AC14" s="27">
+      <c r="AC14" s="26">
         <v>1595.45</v>
       </c>
-      <c r="AD14" s="27">
+      <c r="AD14" s="26">
         <v>42.82</v>
       </c>
-      <c r="AE14" s="45">
+      <c r="AE14" s="44">
         <v>0.46310000000000001</v>
       </c>
-      <c r="AF14" s="29">
+      <c r="AF14" s="28">
         <v>370</v>
       </c>
-      <c r="AG14" s="29">
+      <c r="AG14" s="28">
         <v>46.03</v>
       </c>
-      <c r="AH14" s="41">
+      <c r="AH14" s="40">
         <v>0.8145</v>
       </c>
-      <c r="AI14" s="29">
+      <c r="AI14" s="28">
         <v>1591.27</v>
       </c>
-      <c r="AJ14" s="29">
+      <c r="AJ14" s="28">
         <v>46.74</v>
       </c>
-      <c r="AK14" s="46">
+      <c r="AK14" s="45">
         <v>0.64559999999999995</v>
       </c>
-      <c r="AL14" s="27">
+      <c r="AL14" s="26">
         <v>369.91</v>
       </c>
-      <c r="AM14" s="27">
+      <c r="AM14" s="26">
         <v>46.17</v>
       </c>
-      <c r="AN14" s="40">
+      <c r="AN14" s="39">
         <v>0.81440000000000001</v>
       </c>
-      <c r="AO14" s="27">
+      <c r="AO14" s="26">
         <v>1592.78</v>
       </c>
-      <c r="AP14" s="27">
+      <c r="AP14" s="26">
         <v>45.45</v>
       </c>
-      <c r="AQ14" s="47" t="s">
+      <c r="AQ14" s="46" t="s">
         <v>372</v>
       </c>
-      <c r="AR14" s="47" t="s">
+      <c r="AR14" s="46" t="s">
         <v>373</v>
       </c>
-      <c r="AS14" s="17">
-        <v>81.617999999999995</v>
+      <c r="AS14" s="62">
+        <v>0.81610000000000005</v>
       </c>
       <c r="AT14" s="17">
         <v>1818.96</v>
@@ -14253,8 +14619,8 @@
       <c r="AU14" s="17">
         <v>227.89</v>
       </c>
-      <c r="AV14" s="17">
-        <v>89.004000000000005</v>
+      <c r="AV14" s="62">
+        <v>0.89</v>
       </c>
       <c r="AW14" s="17">
         <v>7954.63</v>
@@ -14262,8 +14628,8 @@
       <c r="AX14" s="17">
         <v>221.65</v>
       </c>
-      <c r="AY14" s="23">
-        <v>81.864000000000004</v>
+      <c r="AY14" s="64">
+        <v>0.81859999999999999</v>
       </c>
       <c r="AZ14" s="23">
         <v>1821.45</v>
@@ -14271,8 +14637,8 @@
       <c r="BA14" s="23">
         <v>227.91</v>
       </c>
-      <c r="BB14" s="23">
-        <v>88.906000000000006</v>
+      <c r="BB14" s="64">
+        <v>0.88900000000000001</v>
       </c>
       <c r="BC14" s="23">
         <v>7931.41</v>
@@ -14280,8 +14646,8 @@
       <c r="BD14" s="23">
         <v>211.56</v>
       </c>
-      <c r="BE14" s="17">
-        <v>81.433999999999997</v>
+      <c r="BE14" s="62">
+        <v>0.81430000000000002</v>
       </c>
       <c r="BF14" s="17">
         <v>1793.45</v>
@@ -14289,8 +14655,8 @@
       <c r="BG14" s="17">
         <v>219.07</v>
       </c>
-      <c r="BH14" s="17">
-        <v>89.028000000000006</v>
+      <c r="BH14" s="62">
+        <v>0.89029999999999998</v>
       </c>
       <c r="BI14" s="17">
         <v>7959.13</v>
@@ -14298,80 +14664,80 @@
       <c r="BJ14" s="17">
         <v>224.63</v>
       </c>
-      <c r="BK14" s="48" t="s">
+      <c r="BK14" s="47" t="s">
         <v>374</v>
       </c>
-      <c r="BL14" s="49" t="s">
+      <c r="BL14" s="48" t="s">
         <v>375</v>
       </c>
       <c r="BM14" s="22" t="s">
         <v>376</v>
       </c>
-      <c r="BN14" s="47" t="s">
+      <c r="BN14" s="46" t="s">
         <v>377</v>
       </c>
-      <c r="BO14" s="116">
-        <v>1.1479999999999999</v>
-      </c>
-      <c r="BP14" s="116">
+      <c r="BO14" s="61">
+        <v>1.14E-2</v>
+      </c>
+      <c r="BP14" s="15">
         <v>25.86</v>
       </c>
-      <c r="BQ14" s="116">
+      <c r="BQ14" s="15">
         <v>2.38</v>
       </c>
-      <c r="BR14" s="116">
-        <v>20.844000000000001</v>
-      </c>
-      <c r="BS14" s="116">
+      <c r="BR14" s="59">
+        <v>0.2084</v>
+      </c>
+      <c r="BS14" s="15">
         <v>93.51</v>
       </c>
-      <c r="BT14" s="116">
+      <c r="BT14" s="15">
         <v>2.41</v>
       </c>
-      <c r="BU14" s="115">
-        <v>1.6359999999999999</v>
-      </c>
-      <c r="BV14" s="115">
+      <c r="BU14" s="63">
+        <v>1.6299999999999999E-2</v>
+      </c>
+      <c r="BV14" s="17">
         <v>28.6</v>
       </c>
-      <c r="BW14" s="115">
+      <c r="BW14" s="17">
         <v>2.41</v>
       </c>
-      <c r="BX14" s="115">
-        <v>20.190000000000001</v>
-      </c>
-      <c r="BY14" s="115">
+      <c r="BX14" s="63">
+        <v>0.2019</v>
+      </c>
+      <c r="BY14" s="17">
         <v>89</v>
       </c>
-      <c r="BZ14" s="115">
+      <c r="BZ14" s="17">
         <v>2.44</v>
       </c>
-      <c r="CA14" s="116">
-        <v>1.5980000000000001</v>
-      </c>
-      <c r="CB14" s="116">
+      <c r="CA14" s="61">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="CB14" s="15">
         <v>26.83</v>
       </c>
-      <c r="CC14" s="116">
+      <c r="CC14" s="15">
         <v>2.17</v>
       </c>
-      <c r="CD14" s="116">
-        <v>20.396000000000001</v>
-      </c>
-      <c r="CE14" s="116">
+      <c r="CD14" s="59">
+        <v>0.2039</v>
+      </c>
+      <c r="CE14" s="15">
         <v>87.45</v>
       </c>
-      <c r="CF14" s="116">
+      <c r="CF14" s="15">
         <v>2.25</v>
       </c>
-      <c r="CG14" s="47" t="s">
+      <c r="CG14" s="46" t="s">
         <v>378</v>
       </c>
-      <c r="CH14" s="47" t="s">
+      <c r="CH14" s="46" t="s">
         <v>379</v>
       </c>
-      <c r="CI14" s="17">
-        <v>35.064</v>
+      <c r="CI14" s="57">
+        <v>0.35060000000000002</v>
       </c>
       <c r="CJ14" s="17">
         <v>393.29</v>
@@ -14379,8 +14745,8 @@
       <c r="CK14" s="17">
         <v>51.06</v>
       </c>
-      <c r="CL14" s="17">
-        <v>58.247999999999998</v>
+      <c r="CL14" s="62">
+        <v>0.58240000000000003</v>
       </c>
       <c r="CM14" s="17">
         <v>1619.32</v>
@@ -14388,8 +14754,8 @@
       <c r="CN14" s="17">
         <v>47.62</v>
       </c>
-      <c r="CO14" s="23">
-        <v>34.404000000000003</v>
+      <c r="CO14" s="66">
+        <v>0.34399999999999997</v>
       </c>
       <c r="CP14" s="23">
         <v>368.54</v>
@@ -14397,8 +14763,8 @@
       <c r="CQ14" s="23">
         <v>44.31</v>
       </c>
-      <c r="CR14" s="23">
-        <v>58.36</v>
+      <c r="CR14" s="64">
+        <v>0.58360000000000001</v>
       </c>
       <c r="CS14" s="23">
         <v>1609.33</v>
@@ -14406,8 +14772,8 @@
       <c r="CT14" s="23">
         <v>51.38</v>
       </c>
-      <c r="CU14" s="17">
-        <v>37.543999999999997</v>
+      <c r="CU14" s="57">
+        <v>0.37540000000000001</v>
       </c>
       <c r="CV14" s="17">
         <v>373.52</v>
@@ -14415,8 +14781,8 @@
       <c r="CW14" s="17">
         <v>45.86</v>
       </c>
-      <c r="CX14" s="17">
-        <v>58.213999999999999</v>
+      <c r="CX14" s="62">
+        <v>0.58209999999999995</v>
       </c>
       <c r="CY14" s="17">
         <v>1600.28</v>
@@ -14424,14 +14790,14 @@
       <c r="CZ14" s="17">
         <v>43.83</v>
       </c>
-      <c r="DA14" s="47" t="s">
+      <c r="DA14" s="46" t="s">
         <v>380</v>
       </c>
-      <c r="DB14" s="47" t="s">
+      <c r="DB14" s="46" t="s">
         <v>381</v>
       </c>
-      <c r="DC14" s="17">
-        <v>32.856000000000002</v>
+      <c r="DC14" s="57">
+        <v>0.32850000000000001</v>
       </c>
       <c r="DD14" s="17">
         <v>1821.34</v>
@@ -14439,8 +14805,8 @@
       <c r="DE14" s="17">
         <v>231.13</v>
       </c>
-      <c r="DF14" s="17">
-        <v>65.611999999999995</v>
+      <c r="DF14" s="62">
+        <v>0.65610000000000002</v>
       </c>
       <c r="DG14" s="17">
         <v>7954.64</v>
@@ -14448,8 +14814,8 @@
       <c r="DH14" s="17">
         <v>235.41</v>
       </c>
-      <c r="DI14" s="23">
-        <v>48.543999999999997</v>
+      <c r="DI14" s="58">
+        <v>0.4854</v>
       </c>
       <c r="DJ14" s="23">
         <v>1804.23</v>
@@ -14457,8 +14823,8 @@
       <c r="DK14" s="23">
         <v>215</v>
       </c>
-      <c r="DL14" s="23">
-        <v>65.646000000000001</v>
+      <c r="DL14" s="64">
+        <v>0.65639999999999998</v>
       </c>
       <c r="DM14" s="23">
         <v>8312.66</v>
@@ -14466,8 +14832,8 @@
       <c r="DN14" s="23">
         <v>241.55</v>
       </c>
-      <c r="DO14" s="17">
-        <v>46.11</v>
+      <c r="DO14" s="57">
+        <v>0.46110000000000001</v>
       </c>
       <c r="DP14" s="17">
         <v>1821.1</v>
@@ -14475,8 +14841,8 @@
       <c r="DQ14" s="17">
         <v>235.17</v>
       </c>
-      <c r="DR14" s="17">
-        <v>65.725999999999999</v>
+      <c r="DR14" s="62">
+        <v>0.65720000000000001</v>
       </c>
       <c r="DS14" s="17">
         <v>8392.15</v>
@@ -14486,140 +14852,140 @@
       </c>
     </row>
     <row r="15" spans="1:128" s="20" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="55" t="s">
+      <c r="A15" s="54" t="s">
         <v>294</v>
       </c>
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="55" t="s">
         <v>295</v>
       </c>
-      <c r="C15" s="54" t="s">
+      <c r="C15" s="53" t="s">
         <v>254</v>
       </c>
-      <c r="D15" s="54" t="s">
+      <c r="D15" s="53" t="s">
         <v>255</v>
       </c>
-      <c r="E15" s="52">
+      <c r="E15" s="51">
         <v>0.59119999999999995</v>
       </c>
-      <c r="F15" s="51">
+      <c r="F15" s="50">
         <v>41.54</v>
       </c>
-      <c r="G15" s="51">
+      <c r="G15" s="50">
         <v>8.33</v>
       </c>
-      <c r="H15" s="36">
+      <c r="H15" s="35">
         <v>0.67049999999999998</v>
       </c>
-      <c r="I15" s="27">
+      <c r="I15" s="26">
         <v>398.89</v>
       </c>
-      <c r="J15" s="28">
+      <c r="J15" s="27">
         <v>15.5</v>
       </c>
-      <c r="K15" s="37">
+      <c r="K15" s="36">
         <v>0.58160000000000001</v>
       </c>
-      <c r="L15" s="38">
+      <c r="L15" s="37">
         <v>38.64</v>
       </c>
-      <c r="M15" s="38">
+      <c r="M15" s="37">
         <v>8.16</v>
       </c>
-      <c r="N15" s="37">
+      <c r="N15" s="36">
         <v>0.68479999999999996</v>
       </c>
-      <c r="O15" s="29">
+      <c r="O15" s="28">
         <v>232.17</v>
       </c>
-      <c r="P15" s="29">
+      <c r="P15" s="28">
         <v>12.35</v>
       </c>
-      <c r="Q15" s="39">
+      <c r="Q15" s="38">
         <v>0.58579999999999999</v>
       </c>
-      <c r="R15" s="51">
+      <c r="R15" s="50">
         <v>38.380000000000003</v>
       </c>
-      <c r="S15" s="51">
+      <c r="S15" s="50">
         <v>8.24</v>
       </c>
-      <c r="T15" s="39">
+      <c r="T15" s="38">
         <v>0.67859999999999998</v>
       </c>
-      <c r="U15" s="27">
+      <c r="U15" s="26">
         <v>472.31</v>
       </c>
-      <c r="V15" s="28">
+      <c r="V15" s="27">
         <v>19.489999999999998</v>
       </c>
-      <c r="W15" s="53" t="s">
+      <c r="W15" s="52" t="s">
         <v>275</v>
       </c>
-      <c r="X15" s="53" t="s">
+      <c r="X15" s="52" t="s">
         <v>276</v>
       </c>
-      <c r="Y15" s="39">
+      <c r="Y15" s="38">
         <v>0.92889999999999995</v>
       </c>
-      <c r="Z15" s="27">
+      <c r="Z15" s="26">
         <v>337.94</v>
       </c>
-      <c r="AA15" s="27">
+      <c r="AA15" s="26">
         <v>48.81</v>
       </c>
-      <c r="AB15" s="39">
+      <c r="AB15" s="38">
         <v>0.94169999999999998</v>
       </c>
-      <c r="AC15" s="27">
+      <c r="AC15" s="26">
         <v>1747.25</v>
       </c>
-      <c r="AD15" s="27">
+      <c r="AD15" s="26">
         <v>51.92</v>
       </c>
-      <c r="AE15" s="37">
+      <c r="AE15" s="36">
         <v>0.9284</v>
       </c>
-      <c r="AF15" s="29">
+      <c r="AF15" s="28">
         <v>357.15</v>
       </c>
-      <c r="AG15" s="29">
+      <c r="AG15" s="28">
         <v>46.63</v>
       </c>
-      <c r="AH15" s="37">
+      <c r="AH15" s="36">
         <v>0.94440000000000002</v>
       </c>
-      <c r="AI15" s="29">
+      <c r="AI15" s="28">
         <v>1399.06</v>
       </c>
-      <c r="AJ15" s="29">
+      <c r="AJ15" s="28">
         <v>49.08</v>
       </c>
-      <c r="AK15" s="39">
+      <c r="AK15" s="38">
         <v>0.92500000000000004</v>
       </c>
-      <c r="AL15" s="27">
+      <c r="AL15" s="26">
         <v>337.57</v>
       </c>
-      <c r="AM15" s="27">
+      <c r="AM15" s="26">
         <v>48.7</v>
       </c>
-      <c r="AN15" s="39">
+      <c r="AN15" s="38">
         <v>0.9415</v>
       </c>
-      <c r="AO15" s="27">
+      <c r="AO15" s="26">
         <v>1407.07</v>
       </c>
-      <c r="AP15" s="27">
+      <c r="AP15" s="26">
         <v>50.37</v>
       </c>
-      <c r="AQ15" s="47" t="s">
+      <c r="AQ15" s="46" t="s">
         <v>382</v>
       </c>
-      <c r="AR15" s="47" t="s">
+      <c r="AR15" s="46" t="s">
         <v>383</v>
       </c>
-      <c r="AS15" s="17">
-        <v>99.951999999999998</v>
+      <c r="AS15" s="62">
+        <v>0.99950000000000006</v>
       </c>
       <c r="AT15" s="17">
         <v>1689.88</v>
@@ -14627,8 +14993,8 @@
       <c r="AU15" s="17">
         <v>219.23</v>
       </c>
-      <c r="AV15" s="17">
-        <v>99.951999999999998</v>
+      <c r="AV15" s="62">
+        <v>0.99950000000000006</v>
       </c>
       <c r="AW15" s="17">
         <v>6809.89</v>
@@ -14636,8 +15002,8 @@
       <c r="AX15" s="17">
         <v>249.38</v>
       </c>
-      <c r="AY15" s="23">
-        <v>99.947999999999993</v>
+      <c r="AY15" s="64">
+        <v>0.99939999999999996</v>
       </c>
       <c r="AZ15" s="23">
         <v>1665.28</v>
@@ -14645,8 +15011,8 @@
       <c r="BA15" s="23">
         <v>227.61</v>
       </c>
-      <c r="BB15" s="23">
-        <v>99.95</v>
+      <c r="BB15" s="64">
+        <v>0.99950000000000006</v>
       </c>
       <c r="BC15" s="23">
         <v>6935.27</v>
@@ -14654,8 +15020,8 @@
       <c r="BD15" s="23">
         <v>242.33</v>
       </c>
-      <c r="BE15" s="17">
-        <v>99.963999999999999</v>
+      <c r="BE15" s="62">
+        <v>0.99960000000000004</v>
       </c>
       <c r="BF15" s="17">
         <v>1655.23</v>
@@ -14663,8 +15029,8 @@
       <c r="BG15" s="17">
         <v>228.64</v>
       </c>
-      <c r="BH15" s="17">
-        <v>99.96</v>
+      <c r="BH15" s="62">
+        <v>0.99960000000000004</v>
       </c>
       <c r="BI15" s="17">
         <v>7315.4</v>
@@ -14672,80 +15038,80 @@
       <c r="BJ15" s="17">
         <v>250.46</v>
       </c>
-      <c r="BK15" s="48" t="s">
+      <c r="BK15" s="47" t="s">
         <v>384</v>
       </c>
-      <c r="BL15" s="49" t="s">
+      <c r="BL15" s="48" t="s">
         <v>385</v>
       </c>
       <c r="BM15" s="22" t="s">
         <v>386</v>
       </c>
-      <c r="BN15" s="47" t="s">
+      <c r="BN15" s="46" t="s">
         <v>387</v>
       </c>
-      <c r="BO15" s="116">
-        <v>12.608000000000001</v>
-      </c>
-      <c r="BP15" s="116">
+      <c r="BO15" s="61">
+        <v>0.12609999999999999</v>
+      </c>
+      <c r="BP15" s="15">
         <v>26.65</v>
       </c>
-      <c r="BQ15" s="116">
+      <c r="BQ15" s="15">
         <v>2.46</v>
       </c>
-      <c r="BR15" s="116">
-        <v>20.568000000000001</v>
-      </c>
-      <c r="BS15" s="116">
+      <c r="BR15" s="59">
+        <v>0.2056</v>
+      </c>
+      <c r="BS15" s="15">
         <v>84.24</v>
       </c>
-      <c r="BT15" s="116">
+      <c r="BT15" s="15">
         <v>2.86</v>
       </c>
-      <c r="BU15" s="115">
-        <v>12.74</v>
-      </c>
-      <c r="BV15" s="115">
+      <c r="BU15" s="57">
+        <v>0.12740000000000001</v>
+      </c>
+      <c r="BV15" s="17">
         <v>26.62</v>
       </c>
-      <c r="BW15" s="115">
+      <c r="BW15" s="17">
         <v>2.41</v>
       </c>
-      <c r="BX15" s="115">
-        <v>20.28</v>
-      </c>
-      <c r="BY15" s="115">
+      <c r="BX15" s="63">
+        <v>0.20280000000000001</v>
+      </c>
+      <c r="BY15" s="17">
         <v>81.98</v>
       </c>
-      <c r="BZ15" s="115">
+      <c r="BZ15" s="17">
         <v>2.81</v>
       </c>
-      <c r="CA15" s="116">
-        <v>12.404</v>
-      </c>
-      <c r="CB15" s="116">
+      <c r="CA15" s="61">
+        <v>0.124</v>
+      </c>
+      <c r="CB15" s="15">
         <v>26.41</v>
       </c>
-      <c r="CC15" s="116">
+      <c r="CC15" s="15">
         <v>2.75</v>
       </c>
-      <c r="CD15" s="116">
-        <v>20.67</v>
-      </c>
-      <c r="CE15" s="116">
+      <c r="CD15" s="59">
+        <v>0.20669999999999999</v>
+      </c>
+      <c r="CE15" s="15">
         <v>79.45</v>
       </c>
-      <c r="CF15" s="116">
+      <c r="CF15" s="15">
         <v>2.62</v>
       </c>
-      <c r="CG15" s="47" t="s">
+      <c r="CG15" s="46" t="s">
         <v>388</v>
       </c>
-      <c r="CH15" s="47" t="s">
+      <c r="CH15" s="46" t="s">
         <v>389</v>
       </c>
-      <c r="CI15" s="17">
-        <v>87.998000000000005</v>
+      <c r="CI15" s="62">
+        <v>0.87990000000000002</v>
       </c>
       <c r="CJ15" s="17">
         <v>345.24</v>
@@ -14753,8 +15119,8 @@
       <c r="CK15" s="17">
         <v>45.2</v>
       </c>
-      <c r="CL15" s="17">
-        <v>94.35</v>
+      <c r="CL15" s="62">
+        <v>0.94350000000000001</v>
       </c>
       <c r="CM15" s="17">
         <v>1779.25</v>
@@ -14762,8 +15128,8 @@
       <c r="CN15" s="17">
         <v>57.47</v>
       </c>
-      <c r="CO15" s="23">
-        <v>87.768000000000001</v>
+      <c r="CO15" s="64">
+        <v>0.87760000000000005</v>
       </c>
       <c r="CP15" s="23">
         <v>346.59</v>
@@ -14771,8 +15137,8 @@
       <c r="CQ15" s="23">
         <v>46.47</v>
       </c>
-      <c r="CR15" s="23">
-        <v>93.936000000000007</v>
+      <c r="CR15" s="64">
+        <v>0.93930000000000002</v>
       </c>
       <c r="CS15" s="23">
         <v>1401.54</v>
@@ -14780,8 +15146,8 @@
       <c r="CT15" s="23">
         <v>51.56</v>
       </c>
-      <c r="CU15" s="17">
-        <v>87.866</v>
+      <c r="CU15" s="62">
+        <v>0.87860000000000005</v>
       </c>
       <c r="CV15" s="17">
         <v>349.95</v>
@@ -14789,8 +15155,8 @@
       <c r="CW15" s="17">
         <v>47.83</v>
       </c>
-      <c r="CX15" s="17">
-        <v>94.097999999999999</v>
+      <c r="CX15" s="62">
+        <v>0.94089999999999996</v>
       </c>
       <c r="CY15" s="17">
         <v>1481.68</v>
@@ -14798,14 +15164,14 @@
       <c r="CZ15" s="17">
         <v>51.74</v>
       </c>
-      <c r="DA15" s="47" t="s">
+      <c r="DA15" s="46" t="s">
         <v>390</v>
       </c>
-      <c r="DB15" s="47" t="s">
+      <c r="DB15" s="46" t="s">
         <v>322</v>
       </c>
-      <c r="DC15" s="17">
-        <v>99.936000000000007</v>
+      <c r="DC15" s="62">
+        <v>0.99929999999999997</v>
       </c>
       <c r="DD15" s="17">
         <v>1689.69</v>
@@ -14813,8 +15179,8 @@
       <c r="DE15" s="17">
         <v>221.9</v>
       </c>
-      <c r="DF15" s="17">
-        <v>99.66</v>
+      <c r="DF15" s="62">
+        <v>0.99660000000000004</v>
       </c>
       <c r="DG15" s="17">
         <v>6889.26</v>
@@ -14822,8 +15188,8 @@
       <c r="DH15" s="17">
         <v>248.05</v>
       </c>
-      <c r="DI15" s="23">
-        <v>99.927999999999997</v>
+      <c r="DI15" s="64">
+        <v>0.99919999999999998</v>
       </c>
       <c r="DJ15" s="23">
         <v>1682.86</v>
@@ -14831,8 +15197,8 @@
       <c r="DK15" s="23">
         <v>241.82</v>
       </c>
-      <c r="DL15" s="23">
-        <v>99.652000000000001</v>
+      <c r="DL15" s="64">
+        <v>0.99650000000000005</v>
       </c>
       <c r="DM15" s="23">
         <v>6788.88</v>
@@ -14840,8 +15206,8 @@
       <c r="DN15" s="23">
         <v>290.54000000000002</v>
       </c>
-      <c r="DO15" s="17">
-        <v>99.921999999999997</v>
+      <c r="DO15" s="62">
+        <v>0.99919999999999998</v>
       </c>
       <c r="DP15" s="17">
         <v>1702.06</v>
@@ -14849,8 +15215,8 @@
       <c r="DQ15" s="17">
         <v>243.39</v>
       </c>
-      <c r="DR15" s="17">
-        <v>99.68</v>
+      <c r="DR15" s="62">
+        <v>0.99680000000000002</v>
       </c>
       <c r="DS15" s="17">
         <v>6761.34</v>
@@ -14860,140 +15226,140 @@
       </c>
     </row>
     <row r="16" spans="1:128" s="20" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="55" t="s">
+      <c r="A16" s="54" t="s">
         <v>296</v>
       </c>
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="55" t="s">
         <v>297</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="53" t="s">
         <v>256</v>
       </c>
-      <c r="D16" s="54" t="s">
+      <c r="D16" s="53" t="s">
         <v>257</v>
       </c>
-      <c r="E16" s="52">
+      <c r="E16" s="51">
         <v>0.43840000000000001</v>
       </c>
-      <c r="F16" s="51">
+      <c r="F16" s="50">
         <v>46.73</v>
       </c>
-      <c r="G16" s="51">
+      <c r="G16" s="50">
         <v>8.1</v>
       </c>
-      <c r="H16" s="52">
+      <c r="H16" s="51">
         <v>0.58350000000000002</v>
       </c>
-      <c r="I16" s="27">
+      <c r="I16" s="26">
         <v>177.24</v>
       </c>
-      <c r="J16" s="28">
+      <c r="J16" s="27">
         <v>18.47</v>
       </c>
-      <c r="K16" s="37">
+      <c r="K16" s="36">
         <v>0.44700000000000001</v>
       </c>
-      <c r="L16" s="38">
+      <c r="L16" s="37">
         <v>47.1</v>
       </c>
-      <c r="M16" s="38">
+      <c r="M16" s="37">
         <v>8.34</v>
       </c>
-      <c r="N16" s="37">
+      <c r="N16" s="36">
         <v>0.60809999999999997</v>
       </c>
-      <c r="O16" s="29">
+      <c r="O16" s="28">
         <v>58.84</v>
       </c>
-      <c r="P16" s="29">
+      <c r="P16" s="28">
         <v>10.119999999999999</v>
       </c>
-      <c r="Q16" s="40">
+      <c r="Q16" s="39">
         <v>0.31769999999999998</v>
       </c>
-      <c r="R16" s="51">
+      <c r="R16" s="50">
         <v>80.319999999999993</v>
       </c>
-      <c r="S16" s="51">
+      <c r="S16" s="50">
         <v>10.46</v>
       </c>
-      <c r="T16" s="39">
+      <c r="T16" s="38">
         <v>0.60570000000000002</v>
       </c>
-      <c r="U16" s="27">
+      <c r="U16" s="26">
         <v>164.93</v>
       </c>
-      <c r="V16" s="28">
+      <c r="V16" s="27">
         <v>26.97</v>
       </c>
-      <c r="W16" s="53" t="s">
+      <c r="W16" s="52" t="s">
         <v>277</v>
       </c>
-      <c r="X16" s="53" t="s">
+      <c r="X16" s="52" t="s">
         <v>278</v>
       </c>
-      <c r="Y16" s="39">
+      <c r="Y16" s="38">
         <v>0.85519999999999996</v>
       </c>
-      <c r="Z16" s="27">
+      <c r="Z16" s="26">
         <v>539.96</v>
       </c>
-      <c r="AA16" s="27">
+      <c r="AA16" s="26">
         <v>48.22</v>
       </c>
-      <c r="AB16" s="39">
+      <c r="AB16" s="38">
         <v>0.87450000000000006</v>
       </c>
-      <c r="AC16" s="27">
+      <c r="AC16" s="26">
         <v>568.1</v>
       </c>
-      <c r="AD16" s="27">
+      <c r="AD16" s="26">
         <v>50.71</v>
       </c>
-      <c r="AE16" s="41">
+      <c r="AE16" s="40">
         <v>0.84179999999999999</v>
       </c>
-      <c r="AF16" s="29">
+      <c r="AF16" s="28">
         <v>541.57000000000005</v>
       </c>
-      <c r="AG16" s="29">
+      <c r="AG16" s="28">
         <v>50.3</v>
       </c>
-      <c r="AH16" s="37">
+      <c r="AH16" s="36">
         <v>0.87760000000000005</v>
       </c>
-      <c r="AI16" s="29">
+      <c r="AI16" s="28">
         <v>545.67999999999995</v>
       </c>
-      <c r="AJ16" s="29">
+      <c r="AJ16" s="28">
         <v>49.01</v>
       </c>
-      <c r="AK16" s="39">
+      <c r="AK16" s="38">
         <v>0.84340000000000004</v>
       </c>
-      <c r="AL16" s="27">
+      <c r="AL16" s="26">
         <v>569.22</v>
       </c>
-      <c r="AM16" s="27">
+      <c r="AM16" s="26">
         <v>48.84</v>
       </c>
-      <c r="AN16" s="39">
+      <c r="AN16" s="38">
         <v>0.88090000000000002</v>
       </c>
-      <c r="AO16" s="27">
+      <c r="AO16" s="26">
         <v>621.97</v>
       </c>
-      <c r="AP16" s="27">
+      <c r="AP16" s="26">
         <v>50</v>
       </c>
-      <c r="AQ16" s="47" t="s">
+      <c r="AQ16" s="46" t="s">
         <v>391</v>
       </c>
-      <c r="AR16" s="47" t="s">
+      <c r="AR16" s="46" t="s">
         <v>392</v>
       </c>
-      <c r="AS16" s="17">
-        <v>88.891999999999996</v>
+      <c r="AS16" s="62">
+        <v>0.88890000000000002</v>
       </c>
       <c r="AT16" s="17">
         <v>2742.91</v>
@@ -15001,8 +15367,8 @@
       <c r="AU16" s="17">
         <v>245.23</v>
       </c>
-      <c r="AV16" s="17">
-        <v>90.391999999999996</v>
+      <c r="AV16" s="62">
+        <v>0.90390000000000004</v>
       </c>
       <c r="AW16" s="17">
         <v>2660.73</v>
@@ -15010,8 +15376,8 @@
       <c r="AX16" s="17">
         <v>249.72</v>
       </c>
-      <c r="AY16" s="23">
-        <v>88.665999999999997</v>
+      <c r="AY16" s="64">
+        <v>0.88660000000000005</v>
       </c>
       <c r="AZ16" s="23">
         <v>2618.12</v>
@@ -15019,8 +15385,8 @@
       <c r="BA16" s="23">
         <v>236.45</v>
       </c>
-      <c r="BB16" s="23">
-        <v>89.936000000000007</v>
+      <c r="BB16" s="64">
+        <v>0.89929999999999999</v>
       </c>
       <c r="BC16" s="23">
         <v>2650.72</v>
@@ -15028,8 +15394,8 @@
       <c r="BD16" s="23">
         <v>237.43</v>
       </c>
-      <c r="BE16" s="17">
-        <v>87.611999999999995</v>
+      <c r="BE16" s="62">
+        <v>0.87609999999999999</v>
       </c>
       <c r="BF16" s="17">
         <v>2580.06</v>
@@ -15037,8 +15403,8 @@
       <c r="BG16" s="17">
         <v>247.07</v>
       </c>
-      <c r="BH16" s="17">
-        <v>89.986000000000004</v>
+      <c r="BH16" s="62">
+        <v>0.89980000000000004</v>
       </c>
       <c r="BI16" s="17">
         <v>2826.76</v>
@@ -15046,80 +15412,80 @@
       <c r="BJ16" s="17">
         <v>255.26</v>
       </c>
-      <c r="BK16" s="48" t="s">
+      <c r="BK16" s="47" t="s">
         <v>393</v>
       </c>
-      <c r="BL16" s="49" t="s">
+      <c r="BL16" s="48" t="s">
         <v>394</v>
       </c>
       <c r="BM16" s="22" t="s">
         <v>395</v>
       </c>
-      <c r="BN16" s="47" t="s">
+      <c r="BN16" s="46" t="s">
         <v>396</v>
       </c>
-      <c r="BO16" s="116">
-        <v>6.8479999999999999</v>
-      </c>
-      <c r="BP16" s="116">
+      <c r="BO16" s="61">
+        <v>6.8500000000000005E-2</v>
+      </c>
+      <c r="BP16" s="15">
         <v>35.58</v>
       </c>
-      <c r="BQ16" s="116">
+      <c r="BQ16" s="15">
         <v>2.67</v>
       </c>
-      <c r="BR16" s="116">
-        <v>15.286</v>
-      </c>
-      <c r="BS16" s="116">
+      <c r="BR16" s="61">
+        <v>0.15279999999999999</v>
+      </c>
+      <c r="BS16" s="15">
         <v>37</v>
       </c>
-      <c r="BT16" s="116">
+      <c r="BT16" s="15">
         <v>2.54</v>
       </c>
-      <c r="BU16" s="115">
-        <v>3.2480000000000002</v>
-      </c>
-      <c r="BV16" s="115">
+      <c r="BU16" s="63">
+        <v>3.2399999999999998E-2</v>
+      </c>
+      <c r="BV16" s="17">
         <v>35.799999999999997</v>
       </c>
-      <c r="BW16" s="115">
+      <c r="BW16" s="17">
         <v>2.44</v>
       </c>
-      <c r="BX16" s="115">
-        <v>16.745999999999999</v>
-      </c>
-      <c r="BY16" s="115">
+      <c r="BX16" s="57">
+        <v>0.16739999999999999</v>
+      </c>
+      <c r="BY16" s="17">
         <v>51.35</v>
       </c>
-      <c r="BZ16" s="115">
+      <c r="BZ16" s="17">
         <v>2.78</v>
       </c>
-      <c r="CA16" s="116">
-        <v>5.7220000000000004</v>
-      </c>
-      <c r="CB16" s="116">
+      <c r="CA16" s="59">
+        <v>5.7200000000000001E-2</v>
+      </c>
+      <c r="CB16" s="15">
         <v>35.119999999999997</v>
       </c>
-      <c r="CC16" s="116">
+      <c r="CC16" s="15">
         <v>2.6</v>
       </c>
-      <c r="CD16" s="116">
-        <v>16.32</v>
-      </c>
-      <c r="CE16" s="116">
+      <c r="CD16" s="61">
+        <v>0.16320000000000001</v>
+      </c>
+      <c r="CE16" s="15">
         <v>36.25</v>
       </c>
-      <c r="CF16" s="116">
+      <c r="CF16" s="15">
         <v>2.7</v>
       </c>
-      <c r="CG16" s="47" t="s">
+      <c r="CG16" s="46" t="s">
         <v>397</v>
       </c>
-      <c r="CH16" s="47" t="s">
+      <c r="CH16" s="46" t="s">
         <v>398</v>
       </c>
-      <c r="CI16" s="17">
-        <v>59.423999999999999</v>
+      <c r="CI16" s="62">
+        <v>0.59419999999999995</v>
       </c>
       <c r="CJ16" s="17">
         <v>531.74</v>
@@ -15127,8 +15493,8 @@
       <c r="CK16" s="17">
         <v>47.79</v>
       </c>
-      <c r="CL16" s="17">
-        <v>66.947999999999993</v>
+      <c r="CL16" s="62">
+        <v>0.6694</v>
       </c>
       <c r="CM16" s="17">
         <v>540.29</v>
@@ -15136,8 +15502,8 @@
       <c r="CN16" s="17">
         <v>50.09</v>
       </c>
-      <c r="CO16" s="23">
-        <v>63.503999999999998</v>
+      <c r="CO16" s="64">
+        <v>0.63500000000000001</v>
       </c>
       <c r="CP16" s="23">
         <v>566</v>
@@ -15145,8 +15511,8 @@
       <c r="CQ16" s="23">
         <v>53.17</v>
       </c>
-      <c r="CR16" s="23">
-        <v>66.882000000000005</v>
+      <c r="CR16" s="64">
+        <v>0.66879999999999995</v>
       </c>
       <c r="CS16" s="23">
         <v>581.30999999999995</v>
@@ -15154,11 +15520,17 @@
       <c r="CT16" s="23">
         <v>51.93</v>
       </c>
-      <c r="CU16" s="17"/>
-      <c r="CV16" s="17"/>
-      <c r="CW16" s="17"/>
-      <c r="CX16" s="17">
-        <v>66.677999999999997</v>
+      <c r="CU16" s="62">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="CV16" s="17">
+        <v>63.503999999999998</v>
+      </c>
+      <c r="CW16" s="17">
+        <v>53.17</v>
+      </c>
+      <c r="CX16" s="62">
+        <v>0.66669999999999996</v>
       </c>
       <c r="CY16" s="17">
         <v>542.79</v>
@@ -15166,14 +15538,14 @@
       <c r="CZ16" s="17">
         <v>49.1</v>
       </c>
-      <c r="DA16" s="47" t="s">
+      <c r="DA16" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="DB16" s="47" t="s">
+      <c r="DB16" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="DC16" s="17">
-        <v>66.016000000000005</v>
+      <c r="DC16" s="62">
+        <v>0.66010000000000002</v>
       </c>
       <c r="DD16" s="17">
         <v>2611.75</v>
@@ -15181,8 +15553,8 @@
       <c r="DE16" s="17">
         <v>255.11</v>
       </c>
-      <c r="DF16" s="17">
-        <v>69.024000000000001</v>
+      <c r="DF16" s="62">
+        <v>0.69020000000000004</v>
       </c>
       <c r="DG16" s="17">
         <v>2751.6</v>
@@ -15190,8 +15562,8 @@
       <c r="DH16" s="17">
         <v>257.81</v>
       </c>
-      <c r="DI16" s="23">
-        <v>68.146000000000001</v>
+      <c r="DI16" s="64">
+        <v>0.68140000000000001</v>
       </c>
       <c r="DJ16" s="23">
         <v>2792.14</v>
@@ -15199,8 +15571,8 @@
       <c r="DK16" s="23">
         <v>263.43</v>
       </c>
-      <c r="DL16" s="23">
-        <v>69.921999999999997</v>
+      <c r="DL16" s="64">
+        <v>0.69920000000000004</v>
       </c>
       <c r="DM16" s="23">
         <v>2854.73</v>
@@ -15208,8 +15580,8 @@
       <c r="DN16" s="23">
         <v>266.47000000000003</v>
       </c>
-      <c r="DO16" s="17">
-        <v>66.19</v>
+      <c r="DO16" s="62">
+        <v>0.66190000000000004</v>
       </c>
       <c r="DP16" s="17">
         <v>2646.89</v>
@@ -15217,8 +15589,8 @@
       <c r="DQ16" s="17">
         <v>2646.89</v>
       </c>
-      <c r="DR16" s="17">
-        <v>67.427999999999997</v>
+      <c r="DR16" s="62">
+        <v>0.67420000000000002</v>
       </c>
       <c r="DS16" s="17">
         <v>2745.91</v>
@@ -15228,7 +15600,7 @@
       </c>
     </row>
     <row r="19" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="H19" s="35">
+      <c r="H19" s="34">
         <v>74.06</v>
       </c>
     </row>
@@ -15243,299 +15615,915 @@
       </c>
     </row>
     <row r="24" spans="1:74" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="BV24" s="115"/>
+      <c r="A24" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="BV24" s="17"/>
     </row>
-    <row r="26" spans="1:74" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="BL26" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="BM26" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="BN26" s="16"/>
-      <c r="BO26" s="24"/>
-      <c r="BP26" s="24" t="s">
-        <v>220</v>
-      </c>
-      <c r="BQ26" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="BR26" s="24"/>
-      <c r="BS26" s="24"/>
-      <c r="BT26" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="BU26" s="24" t="s">
-        <v>223</v>
+    <row r="25" spans="1:74" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="133" t="s">
+        <v>402</v>
+      </c>
+      <c r="B25" s="133" t="s">
+        <v>403</v>
+      </c>
+      <c r="C25" s="132" t="s">
+        <v>218</v>
+      </c>
+      <c r="D25" s="132"/>
+      <c r="E25" s="132"/>
+      <c r="F25" s="132"/>
+      <c r="G25" s="132"/>
+      <c r="H25" s="132"/>
+      <c r="I25" s="132" t="s">
+        <v>234</v>
+      </c>
+      <c r="J25" s="132"/>
+      <c r="K25" s="132"/>
+      <c r="L25" s="132"/>
+      <c r="M25" s="132"/>
+      <c r="N25" s="132"/>
+      <c r="BV25" s="67"/>
+    </row>
+    <row r="26" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A26" s="133"/>
+      <c r="B26" s="133"/>
+      <c r="C26" s="68" t="s">
+        <v>236</v>
+      </c>
+      <c r="D26" s="68" t="s">
+        <v>237</v>
+      </c>
+      <c r="E26" s="68" t="s">
+        <v>258</v>
+      </c>
+      <c r="F26" s="68" t="s">
+        <v>259</v>
+      </c>
+      <c r="G26" s="68" t="s">
+        <v>301</v>
+      </c>
+      <c r="H26" s="69" t="s">
+        <v>302</v>
+      </c>
+      <c r="I26" s="68" t="s">
+        <v>236</v>
+      </c>
+      <c r="J26" s="68" t="s">
+        <v>237</v>
+      </c>
+      <c r="K26" s="68" t="s">
+        <v>258</v>
+      </c>
+      <c r="L26" s="68" t="s">
+        <v>259</v>
+      </c>
+      <c r="M26" s="68" t="s">
+        <v>301</v>
+      </c>
+      <c r="N26" s="69" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:74" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="BL27" s="18"/>
-      <c r="BM27" s="18"/>
-      <c r="BN27" s="18"/>
-      <c r="BO27" s="22"/>
-      <c r="BP27" s="22"/>
-      <c r="BQ27" s="22"/>
-      <c r="BR27" s="22"/>
-      <c r="BS27" s="22"/>
-      <c r="BT27" s="22"/>
-      <c r="BU27" s="22"/>
+      <c r="A27" s="54" t="s">
+        <v>279</v>
+      </c>
+      <c r="B27" s="55" t="s">
+        <v>280</v>
+      </c>
+      <c r="C27" s="70">
+        <f>AVERAGE(E7,K7,Q7)</f>
+        <v>0.14383333333333334</v>
+      </c>
+      <c r="D27" s="70">
+        <f>AVERAGE(H7,N7,T7)</f>
+        <v>0.74203333333333343</v>
+      </c>
+      <c r="E27" s="70">
+        <f>AVERAGE(Y7,AE7,AK7)</f>
+        <v>0.90359999999999996</v>
+      </c>
+      <c r="F27" s="70">
+        <f>AVERAGE(AB7,AH7,AN7)</f>
+        <v>0.92830000000000001</v>
+      </c>
+      <c r="G27" s="70">
+        <f>AVERAGE(AS7,AY7,BB7)</f>
+        <v>0.99856666666666671</v>
+      </c>
+      <c r="H27" s="70">
+        <f>AVERAGE(AV7,BB7,BH7)</f>
+        <v>0.99876666666666669</v>
+      </c>
+      <c r="I27" s="70">
+        <f>AVERAGE(BO7,BU7,CA7)</f>
+        <v>1.4733333333333334E-2</v>
+      </c>
+      <c r="J27" s="70">
+        <f>AVERAGE(BR7,BX7,CD7)</f>
+        <v>0.24016666666666664</v>
+      </c>
+      <c r="K27" s="70">
+        <f>AVERAGE(CI7,CO7,CU7)</f>
+        <v>0.69036666666666668</v>
+      </c>
+      <c r="L27" s="70">
+        <f>AVERAGE(CL7,CR7,CX7)</f>
+        <v>0.88426666666666665</v>
+      </c>
+      <c r="M27" s="70">
+        <f>AVERAGE(DC7,DI7,DO7)</f>
+        <v>0.99226666666666663</v>
+      </c>
+      <c r="N27" s="70">
+        <f>AVERAGE(DF7,DL7,DR7)</f>
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="BL27" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="BM27" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="BN27" s="16"/>
+      <c r="BO27" s="24"/>
+      <c r="BP27" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="BQ27" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="BR27" s="24"/>
+      <c r="BS27" s="24"/>
+      <c r="BT27" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="BU27" s="24" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="28" spans="1:74" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="BL28" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="BM28" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="BN28" s="13"/>
-      <c r="BO28" s="13"/>
-      <c r="BP28" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="BQ28" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="BR28" s="13"/>
-      <c r="BS28" s="13"/>
-      <c r="BT28" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="BU28" s="13" t="s">
-        <v>156</v>
-      </c>
+      <c r="A28" s="54" t="s">
+        <v>281</v>
+      </c>
+      <c r="B28" s="55" t="s">
+        <v>282</v>
+      </c>
+      <c r="C28" s="70">
+        <f>AVERAGE(E8,K8,Q8)</f>
+        <v>0.46556666666666668</v>
+      </c>
+      <c r="D28" s="70">
+        <f t="shared" ref="D28:D36" si="0">AVERAGE(H8,N8,T8)</f>
+        <v>0.58686666666666676</v>
+      </c>
+      <c r="E28" s="70">
+        <f t="shared" ref="E28:E36" si="1">AVERAGE(Y8,AE8,AK8)</f>
+        <v>0.92346666666666666</v>
+      </c>
+      <c r="F28" s="70">
+        <f t="shared" ref="F28:F36" si="2">AVERAGE(AB8,AH8,AN8)</f>
+        <v>0.94200000000000006</v>
+      </c>
+      <c r="G28" s="70">
+        <f t="shared" ref="G28:G35" si="3">AVERAGE(AS8,AY8,BB8)</f>
+        <v>0.96356666666666657</v>
+      </c>
+      <c r="H28" s="70">
+        <f t="shared" ref="H28:H36" si="4">AVERAGE(AV8,BB8,BH8)</f>
+        <v>0.96423333333333316</v>
+      </c>
+      <c r="I28" s="70">
+        <f t="shared" ref="I28:I36" si="5">AVERAGE(BO8,BU8,CA8)</f>
+        <v>9.1466666666666654E-2</v>
+      </c>
+      <c r="J28" s="70">
+        <f t="shared" ref="J28:J36" si="6">AVERAGE(BR8,BX8,CD8)</f>
+        <v>0.15410000000000001</v>
+      </c>
+      <c r="K28" s="70">
+        <f t="shared" ref="K28:K36" si="7">AVERAGE(CI8,CO8,CU8)</f>
+        <v>0.68493333333333339</v>
+      </c>
+      <c r="L28" s="70">
+        <f t="shared" ref="L28:L36" si="8">AVERAGE(CL8,CR8,CX8)</f>
+        <v>0.74316666666666664</v>
+      </c>
+      <c r="M28" s="70">
+        <f t="shared" ref="M28:M36" si="9">AVERAGE(DC8,DI8,DO8)</f>
+        <v>0.97420000000000007</v>
+      </c>
+      <c r="N28" s="70">
+        <f t="shared" ref="N28:N36" si="10">AVERAGE(DF8,DL8,DR8)</f>
+        <v>0.94306666666666672</v>
+      </c>
+      <c r="BL28" s="18"/>
+      <c r="BM28" s="18"/>
+      <c r="BN28" s="18"/>
+      <c r="BO28" s="22"/>
+      <c r="BP28" s="22"/>
+      <c r="BQ28" s="22"/>
+      <c r="BR28" s="22"/>
+      <c r="BS28" s="22"/>
+      <c r="BT28" s="22"/>
+      <c r="BU28" s="22"/>
     </row>
     <row r="29" spans="1:74" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D29" s="26"/>
+      <c r="A29" s="54" t="s">
+        <v>283</v>
+      </c>
+      <c r="B29" s="55" t="s">
+        <v>282</v>
+      </c>
+      <c r="C29" s="70">
+        <f t="shared" ref="C29:C35" si="11">AVERAGE(E9,K9,Q9)</f>
+        <v>0.16423333333333334</v>
+      </c>
+      <c r="D29" s="70">
+        <f t="shared" si="0"/>
+        <v>0.72330000000000005</v>
+      </c>
+      <c r="E29" s="70">
+        <f t="shared" si="1"/>
+        <v>0.9032</v>
+      </c>
+      <c r="F29" s="70">
+        <f t="shared" si="2"/>
+        <v>0.94259999999999999</v>
+      </c>
+      <c r="G29" s="70">
+        <f t="shared" si="3"/>
+        <v>0.99916666666666665</v>
+      </c>
+      <c r="H29" s="70">
+        <f t="shared" si="4"/>
+        <v>0.99963333333333326</v>
+      </c>
+      <c r="I29" s="70">
+        <f t="shared" si="5"/>
+        <v>8.3900000000000016E-2</v>
+      </c>
+      <c r="J29" s="70">
+        <f t="shared" si="6"/>
+        <v>0.22603333333333334</v>
+      </c>
+      <c r="K29" s="70">
+        <f t="shared" si="7"/>
+        <v>0.87726666666666675</v>
+      </c>
+      <c r="L29" s="70">
+        <f t="shared" si="8"/>
+        <v>0.94706666666666672</v>
+      </c>
+      <c r="M29" s="70">
+        <f t="shared" si="9"/>
+        <v>0.99903333333333333</v>
+      </c>
+      <c r="N29" s="70">
+        <f t="shared" si="10"/>
+        <v>0.99753333333333327</v>
+      </c>
       <c r="BL29" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="BM29" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="BN29" s="11"/>
-      <c r="BO29" s="11"/>
-      <c r="BP29" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="BQ29" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="BR29" s="11"/>
-      <c r="BS29" s="11"/>
-      <c r="BT29" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="BU29" s="11" t="s">
-        <v>162</v>
+        <v>151</v>
+      </c>
+      <c r="BM29" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="BN29" s="13"/>
+      <c r="BO29" s="13"/>
+      <c r="BP29" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="BQ29" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="BR29" s="13"/>
+      <c r="BS29" s="13"/>
+      <c r="BT29" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="BU29" s="13" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:74" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="54" t="s">
+        <v>284</v>
+      </c>
+      <c r="B30" s="55" t="s">
+        <v>285</v>
+      </c>
+      <c r="C30" s="70">
+        <f t="shared" si="11"/>
+        <v>0.55779999999999996</v>
+      </c>
+      <c r="D30" s="70">
+        <f t="shared" si="0"/>
+        <v>0.76313333333333333</v>
+      </c>
+      <c r="E30" s="70">
+        <f t="shared" si="1"/>
+        <v>0.93110000000000015</v>
+      </c>
+      <c r="F30" s="70">
+        <f t="shared" si="2"/>
+        <v>0.94866666666666666</v>
+      </c>
+      <c r="G30" s="70">
+        <f t="shared" si="3"/>
+        <v>0.99953333333333327</v>
+      </c>
+      <c r="H30" s="70">
+        <f t="shared" si="4"/>
+        <v>0.9996600000000001</v>
+      </c>
+      <c r="I30" s="70">
+        <f t="shared" si="5"/>
+        <v>0.11120000000000001</v>
+      </c>
+      <c r="J30" s="70">
+        <f t="shared" si="6"/>
+        <v>0.28063333333333335</v>
+      </c>
+      <c r="K30" s="70">
+        <f t="shared" si="7"/>
+        <v>0.92949999999999999</v>
+      </c>
+      <c r="L30" s="70">
+        <f t="shared" si="8"/>
+        <v>0.98116666666666663</v>
+      </c>
+      <c r="M30" s="70">
+        <f t="shared" si="9"/>
+        <v>0.99893333333333334</v>
+      </c>
+      <c r="N30" s="70">
+        <f t="shared" si="10"/>
+        <v>0.99926666666666664</v>
+      </c>
       <c r="BL30" s="13" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="BM30" s="11" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="BN30" s="11"/>
       <c r="BO30" s="11"/>
       <c r="BP30" s="11" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="BQ30" s="11" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="BR30" s="11"/>
       <c r="BS30" s="11"/>
       <c r="BT30" s="11" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="BU30" s="11" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:74" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="54" t="s">
+        <v>286</v>
+      </c>
+      <c r="B31" s="55" t="s">
+        <v>287</v>
+      </c>
+      <c r="C31" s="70">
+        <f t="shared" si="11"/>
+        <v>0.25696666666666662</v>
+      </c>
+      <c r="D31" s="70">
+        <f t="shared" si="0"/>
+        <v>0.69349999999999989</v>
+      </c>
+      <c r="E31" s="70">
+        <f t="shared" si="1"/>
+        <v>0.9234</v>
+      </c>
+      <c r="F31" s="70">
+        <f t="shared" si="2"/>
+        <v>0.93570000000000009</v>
+      </c>
+      <c r="G31" s="70">
+        <f t="shared" si="3"/>
+        <v>0.99986666666666668</v>
+      </c>
+      <c r="H31" s="70">
+        <f t="shared" si="4"/>
+        <v>0.99973333333333336</v>
+      </c>
+      <c r="I31" s="70">
+        <f t="shared" si="5"/>
+        <v>3.8933333333333334E-2</v>
+      </c>
+      <c r="J31" s="70">
+        <f t="shared" si="6"/>
+        <v>0.22676666666666667</v>
+      </c>
+      <c r="K31" s="70">
+        <f t="shared" si="7"/>
+        <v>0.84436666666666671</v>
+      </c>
+      <c r="L31" s="70">
+        <f t="shared" si="8"/>
+        <v>0.98323333333333329</v>
+      </c>
+      <c r="M31" s="70">
+        <f t="shared" si="9"/>
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="N31" s="70">
+        <f t="shared" si="10"/>
+        <v>0.99960000000000004</v>
+      </c>
       <c r="BL31" s="13" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="BM31" s="11" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="BN31" s="11"/>
       <c r="BO31" s="11"/>
       <c r="BP31" s="11" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="BQ31" s="11" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="BR31" s="11"/>
       <c r="BS31" s="11"/>
       <c r="BT31" s="11" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="BU31" s="11" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:74" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="54" t="s">
+        <v>288</v>
+      </c>
+      <c r="B32" s="55" t="s">
+        <v>289</v>
+      </c>
+      <c r="C32" s="70">
+        <f t="shared" si="11"/>
+        <v>0.53259999999999996</v>
+      </c>
+      <c r="D32" s="70">
+        <f t="shared" si="0"/>
+        <v>0.59853333333333325</v>
+      </c>
+      <c r="E32" s="70">
+        <f t="shared" si="1"/>
+        <v>0.90703333333333325</v>
+      </c>
+      <c r="F32" s="70">
+        <f t="shared" si="2"/>
+        <v>0.92106666666666659</v>
+      </c>
+      <c r="G32" s="70">
+        <f t="shared" si="3"/>
+        <v>0.96336666666666682</v>
+      </c>
+      <c r="H32" s="70">
+        <f t="shared" si="4"/>
+        <v>0.99550000000000016</v>
+      </c>
+      <c r="I32" s="70">
+        <f t="shared" si="5"/>
+        <v>0.10110000000000001</v>
+      </c>
+      <c r="J32" s="70">
+        <f t="shared" si="6"/>
+        <v>0.14323333333333335</v>
+      </c>
+      <c r="K32" s="70">
+        <f t="shared" si="7"/>
+        <v>0.75053333333333327</v>
+      </c>
+      <c r="L32" s="70">
+        <f t="shared" si="8"/>
+        <v>0.82923333333333338</v>
+      </c>
+      <c r="M32" s="70">
+        <f t="shared" si="9"/>
+        <v>0.78526666666666667</v>
+      </c>
+      <c r="N32" s="70">
+        <f t="shared" si="10"/>
+        <v>0.98523333333333329</v>
+      </c>
       <c r="BL32" s="13" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="BM32" s="11" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="BN32" s="11"/>
       <c r="BO32" s="11"/>
       <c r="BP32" s="11" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="BQ32" s="11" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="BR32" s="11"/>
       <c r="BS32" s="11"/>
       <c r="BT32" s="11" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="BU32" s="11" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
-    <row r="33" spans="64:73" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:73" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="54" t="s">
+        <v>290</v>
+      </c>
+      <c r="B33" s="55" t="s">
+        <v>291</v>
+      </c>
+      <c r="C33" s="70">
+        <f t="shared" si="11"/>
+        <v>0.23273333333333335</v>
+      </c>
+      <c r="D33" s="70">
+        <f t="shared" si="0"/>
+        <v>0.50613333333333332</v>
+      </c>
+      <c r="E33" s="70">
+        <f t="shared" si="1"/>
+        <v>0.91790000000000005</v>
+      </c>
+      <c r="F33" s="70">
+        <f t="shared" si="2"/>
+        <v>0.93546666666666667</v>
+      </c>
+      <c r="G33" s="70">
+        <f t="shared" si="3"/>
+        <v>0.99963333333333326</v>
+      </c>
+      <c r="H33" s="70">
+        <f t="shared" si="4"/>
+        <v>0.99963333333333326</v>
+      </c>
+      <c r="I33" s="70">
+        <f t="shared" si="5"/>
+        <v>1.5799999999999998E-2</v>
+      </c>
+      <c r="J33" s="70">
+        <f t="shared" si="6"/>
+        <v>0.12819999999999998</v>
+      </c>
+      <c r="K33" s="70">
+        <f t="shared" si="7"/>
+        <v>0.7658666666666667</v>
+      </c>
+      <c r="L33" s="70">
+        <f t="shared" si="8"/>
+        <v>0.96770000000000012</v>
+      </c>
+      <c r="M33" s="70">
+        <f t="shared" si="9"/>
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="N33" s="70">
+        <f t="shared" si="10"/>
+        <v>0.99970000000000014</v>
+      </c>
       <c r="BL33" s="13" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="BM33" s="11" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="BN33" s="11"/>
       <c r="BO33" s="11"/>
       <c r="BP33" s="11" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="BQ33" s="11" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="BR33" s="11"/>
       <c r="BS33" s="11"/>
       <c r="BT33" s="11" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="BU33" s="11" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
-    <row r="34" spans="64:73" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:73" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="54" t="s">
+        <v>292</v>
+      </c>
+      <c r="B34" s="55" t="s">
+        <v>293</v>
+      </c>
+      <c r="C34" s="70">
+        <f t="shared" si="11"/>
+        <v>0.1055</v>
+      </c>
+      <c r="D34" s="70">
+        <f t="shared" si="0"/>
+        <v>0.65189999999999992</v>
+      </c>
+      <c r="E34" s="70">
+        <f t="shared" si="1"/>
+        <v>0.58843333333333325</v>
+      </c>
+      <c r="F34" s="70">
+        <f t="shared" si="2"/>
+        <v>0.81610000000000005</v>
+      </c>
+      <c r="G34" s="70">
+        <f t="shared" si="3"/>
+        <v>0.84123333333333328</v>
+      </c>
+      <c r="H34" s="70">
+        <f t="shared" si="4"/>
+        <v>0.88976666666666659</v>
+      </c>
+      <c r="I34" s="70">
+        <f t="shared" si="5"/>
+        <v>1.4533333333333334E-2</v>
+      </c>
+      <c r="J34" s="70">
+        <f t="shared" si="6"/>
+        <v>0.20473333333333332</v>
+      </c>
+      <c r="K34" s="70">
+        <f t="shared" si="7"/>
+        <v>0.35666666666666669</v>
+      </c>
+      <c r="L34" s="70">
+        <f t="shared" si="8"/>
+        <v>0.5827</v>
+      </c>
+      <c r="M34" s="70">
+        <f t="shared" si="9"/>
+        <v>0.42500000000000004</v>
+      </c>
+      <c r="N34" s="70">
+        <f t="shared" si="10"/>
+        <v>0.65656666666666663</v>
+      </c>
       <c r="BL34" s="13" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="BM34" s="11" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="BN34" s="11"/>
       <c r="BO34" s="11"/>
       <c r="BP34" s="11" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="BQ34" s="11" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="BR34" s="11"/>
       <c r="BS34" s="11"/>
       <c r="BT34" s="11" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="BU34" s="11" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
-    <row r="35" spans="64:73" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:73" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="54" t="s">
+        <v>294</v>
+      </c>
+      <c r="B35" s="55" t="s">
+        <v>295</v>
+      </c>
+      <c r="C35" s="70">
+        <f t="shared" si="11"/>
+        <v>0.58619999999999994</v>
+      </c>
+      <c r="D35" s="70">
+        <f t="shared" si="0"/>
+        <v>0.67796666666666672</v>
+      </c>
+      <c r="E35" s="70">
+        <f t="shared" si="1"/>
+        <v>0.92743333333333344</v>
+      </c>
+      <c r="F35" s="70">
+        <f t="shared" si="2"/>
+        <v>0.94253333333333333</v>
+      </c>
+      <c r="G35" s="70">
+        <f t="shared" si="3"/>
+        <v>0.99946666666666673</v>
+      </c>
+      <c r="H35" s="70">
+        <f t="shared" si="4"/>
+        <v>0.99953333333333338</v>
+      </c>
+      <c r="I35" s="70">
+        <f t="shared" si="5"/>
+        <v>0.12583333333333332</v>
+      </c>
+      <c r="J35" s="70">
+        <f t="shared" si="6"/>
+        <v>0.20503333333333332</v>
+      </c>
+      <c r="K35" s="70">
+        <f t="shared" si="7"/>
+        <v>0.87869999999999993</v>
+      </c>
+      <c r="L35" s="70">
+        <f t="shared" si="8"/>
+        <v>0.94123333333333337</v>
+      </c>
+      <c r="M35" s="70">
+        <f t="shared" si="9"/>
+        <v>0.99923333333333331</v>
+      </c>
+      <c r="N35" s="70">
+        <f t="shared" si="10"/>
+        <v>0.99663333333333337</v>
+      </c>
       <c r="BL35" s="13" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="BM35" s="11" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="BN35" s="11"/>
       <c r="BO35" s="11"/>
       <c r="BP35" s="11" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="BQ35" s="11" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="BR35" s="11"/>
       <c r="BS35" s="11"/>
       <c r="BT35" s="11" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="BU35" s="11" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
-    <row r="36" spans="64:73" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:73" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="54" t="s">
+        <v>296</v>
+      </c>
+      <c r="B36" s="55" t="s">
+        <v>297</v>
+      </c>
+      <c r="C36" s="70">
+        <f>AVERAGE(E16,K16,Q16)</f>
+        <v>0.40103333333333335</v>
+      </c>
+      <c r="D36" s="70">
+        <f t="shared" si="0"/>
+        <v>0.59909999999999997</v>
+      </c>
+      <c r="E36" s="70">
+        <f t="shared" si="1"/>
+        <v>0.8468</v>
+      </c>
+      <c r="F36" s="70">
+        <f t="shared" si="2"/>
+        <v>0.87766666666666671</v>
+      </c>
+      <c r="G36" s="70">
+        <f>AVERAGE(AS16,AY16,BB16)</f>
+        <v>0.89160000000000006</v>
+      </c>
+      <c r="H36" s="70">
+        <f t="shared" si="4"/>
+        <v>0.90099999999999991</v>
+      </c>
+      <c r="I36" s="70">
+        <f t="shared" si="5"/>
+        <v>5.2700000000000004E-2</v>
+      </c>
+      <c r="J36" s="70">
+        <f t="shared" si="6"/>
+        <v>0.16113333333333332</v>
+      </c>
+      <c r="K36" s="70">
+        <f t="shared" si="7"/>
+        <v>0.62140000000000006</v>
+      </c>
+      <c r="L36" s="70">
+        <f t="shared" si="8"/>
+        <v>0.66830000000000001</v>
+      </c>
+      <c r="M36" s="70">
+        <f t="shared" si="9"/>
+        <v>0.66780000000000006</v>
+      </c>
+      <c r="N36" s="70">
+        <f t="shared" si="10"/>
+        <v>0.68786666666666674</v>
+      </c>
       <c r="BL36" s="13" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="BM36" s="11" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="BN36" s="11"/>
       <c r="BO36" s="11"/>
       <c r="BP36" s="11" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="BQ36" s="11" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="BR36" s="11"/>
       <c r="BS36" s="11"/>
       <c r="BT36" s="11" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="BU36" s="11" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
     </row>
-    <row r="37" spans="64:73" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:73" ht="15.75" x14ac:dyDescent="0.25">
       <c r="BL37" s="13" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="BM37" s="11" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="BN37" s="11"/>
       <c r="BO37" s="11"/>
       <c r="BP37" s="11" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="BQ37" s="11" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="BR37" s="11"/>
       <c r="BS37" s="11"/>
       <c r="BT37" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="BU37" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="38" spans="1:73" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="BL38" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="BM38" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="BN38" s="11"/>
+      <c r="BO38" s="11"/>
+      <c r="BP38" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="BQ38" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="BR38" s="11"/>
+      <c r="BS38" s="11"/>
+      <c r="BT38" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="BU37" s="11" t="s">
+      <c r="BU38" s="11" t="s">
         <v>209</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="116">
+  <mergeCells count="120">
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="I25:N25"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="L5:M5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="AQ3:BJ3"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="AS4:AX4"/>
-    <mergeCell ref="AY4:BD4"/>
-    <mergeCell ref="BE4:BJ4"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="C2:V2"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="AK4:AP4"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="AH5:AH6"/>
+    <mergeCell ref="W3:AP3"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="AB5:AB6"/>
     <mergeCell ref="AS5:AS6"/>
     <mergeCell ref="AT5:AU5"/>
     <mergeCell ref="AV5:AV6"/>
@@ -15545,18 +16533,6 @@
     <mergeCell ref="BB5:BB6"/>
     <mergeCell ref="BH5:BH6"/>
     <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="AK4:AP4"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="AH5:AH6"/>
-    <mergeCell ref="W3:AP3"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="AB5:AB6"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AE5:AE6"/>
     <mergeCell ref="K4:P4"/>
     <mergeCell ref="Q4:V4"/>
     <mergeCell ref="BK3:BK6"/>
@@ -15579,6 +16555,8 @@
     <mergeCell ref="W4:X4"/>
     <mergeCell ref="AL5:AM5"/>
     <mergeCell ref="C3:V3"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="AQ3:BJ3"/>
     <mergeCell ref="R5:S5"/>
     <mergeCell ref="U5:V5"/>
     <mergeCell ref="BL3:BL6"/>
@@ -15597,7 +16575,21 @@
     <mergeCell ref="BO4:BT4"/>
     <mergeCell ref="BU4:BZ4"/>
     <mergeCell ref="CA4:CF4"/>
-    <mergeCell ref="DO4:DT4"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="AS4:AX4"/>
+    <mergeCell ref="AY4:BD4"/>
+    <mergeCell ref="BE4:BJ4"/>
+    <mergeCell ref="CS5:CT5"/>
+    <mergeCell ref="CU5:CU6"/>
+    <mergeCell ref="CV5:CW5"/>
+    <mergeCell ref="CI5:CI6"/>
+    <mergeCell ref="CI4:CN4"/>
+    <mergeCell ref="CO4:CT4"/>
+    <mergeCell ref="CU4:CZ4"/>
+    <mergeCell ref="DC4:DH4"/>
+    <mergeCell ref="DI4:DN4"/>
     <mergeCell ref="CM5:CN5"/>
     <mergeCell ref="CO5:CO6"/>
     <mergeCell ref="CB5:CC5"/>
@@ -15607,16 +16599,6 @@
     <mergeCell ref="CH5:CH6"/>
     <mergeCell ref="CJ5:CK5"/>
     <mergeCell ref="CL5:CL6"/>
-    <mergeCell ref="CS5:CT5"/>
-    <mergeCell ref="CU5:CU6"/>
-    <mergeCell ref="CV5:CW5"/>
-    <mergeCell ref="CI5:CI6"/>
-    <mergeCell ref="CI4:CN4"/>
-    <mergeCell ref="CO4:CT4"/>
-    <mergeCell ref="CU4:CZ4"/>
-    <mergeCell ref="DC4:DH4"/>
-    <mergeCell ref="DI4:DN4"/>
-    <mergeCell ref="C2:V2"/>
     <mergeCell ref="W2:AP2"/>
     <mergeCell ref="AQ2:BJ2"/>
     <mergeCell ref="BM2:CF2"/>
@@ -15640,8 +16622,9 @@
     <mergeCell ref="DF5:DF6"/>
     <mergeCell ref="CP5:CQ5"/>
     <mergeCell ref="CR5:CR6"/>
+    <mergeCell ref="DO4:DT4"/>
   </mergeCells>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <conditionalFormatting sqref="Y7">
     <cfRule type="expression" dxfId="9" priority="10">
       <formula>$W$7&lt;$Y$7</formula>
@@ -15698,4 +16681,988 @@
     <ignoredError sqref="AQ7:AR16 BM7:BN16 CG7:CH16 DA7:DB16 C7:D16 W7:X16" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6762666-97EE-414C-BB30-3B168FDFD54D}">
+  <dimension ref="A1:Z13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="4" width="9.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="138" t="s">
+        <v>402</v>
+      </c>
+      <c r="B1" s="138" t="s">
+        <v>403</v>
+      </c>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="135" t="s">
+        <v>218</v>
+      </c>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
+      <c r="M1" s="136"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="135" t="s">
+        <v>234</v>
+      </c>
+      <c r="R1" s="136"/>
+      <c r="S1" s="136"/>
+      <c r="T1" s="136"/>
+      <c r="U1" s="136"/>
+      <c r="V1" s="136"/>
+      <c r="W1" s="136"/>
+      <c r="X1" s="136"/>
+      <c r="Y1" s="136"/>
+      <c r="Z1" s="137"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="139"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="141" t="s">
+        <v>404</v>
+      </c>
+      <c r="D2" s="142"/>
+      <c r="E2" s="135" t="s">
+        <v>405</v>
+      </c>
+      <c r="F2" s="136"/>
+      <c r="G2" s="141" t="s">
+        <v>404</v>
+      </c>
+      <c r="H2" s="142"/>
+      <c r="I2" s="135" t="s">
+        <v>405</v>
+      </c>
+      <c r="J2" s="136"/>
+      <c r="K2" s="141" t="s">
+        <v>404</v>
+      </c>
+      <c r="L2" s="142"/>
+      <c r="M2" s="135" t="s">
+        <v>405</v>
+      </c>
+      <c r="N2" s="136"/>
+      <c r="O2" s="141" t="s">
+        <v>404</v>
+      </c>
+      <c r="P2" s="142"/>
+      <c r="Q2" s="135" t="s">
+        <v>405</v>
+      </c>
+      <c r="R2" s="136"/>
+      <c r="S2" s="141" t="s">
+        <v>404</v>
+      </c>
+      <c r="T2" s="142"/>
+      <c r="U2" s="135" t="s">
+        <v>405</v>
+      </c>
+      <c r="V2" s="136"/>
+      <c r="W2" s="141" t="s">
+        <v>404</v>
+      </c>
+      <c r="X2" s="142"/>
+      <c r="Y2" s="135" t="s">
+        <v>405</v>
+      </c>
+      <c r="Z2" s="136"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="140"/>
+      <c r="B3" s="140"/>
+      <c r="C3" s="74" t="s">
+        <v>236</v>
+      </c>
+      <c r="D3" s="74" t="s">
+        <v>237</v>
+      </c>
+      <c r="E3" s="71" t="s">
+        <v>236</v>
+      </c>
+      <c r="F3" s="71" t="s">
+        <v>237</v>
+      </c>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71" t="s">
+        <v>258</v>
+      </c>
+      <c r="J3" s="71" t="s">
+        <v>259</v>
+      </c>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71" t="s">
+        <v>301</v>
+      </c>
+      <c r="N3" s="71" t="s">
+        <v>302</v>
+      </c>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71" t="s">
+        <v>236</v>
+      </c>
+      <c r="R3" s="71" t="s">
+        <v>237</v>
+      </c>
+      <c r="S3" s="71"/>
+      <c r="T3" s="71"/>
+      <c r="U3" s="71" t="s">
+        <v>258</v>
+      </c>
+      <c r="V3" s="71" t="s">
+        <v>259</v>
+      </c>
+      <c r="W3" s="71"/>
+      <c r="X3" s="71"/>
+      <c r="Y3" s="71" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z3" s="71" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="71" t="s">
+        <v>279</v>
+      </c>
+      <c r="B4" s="71" t="s">
+        <v>280</v>
+      </c>
+      <c r="C4" s="71" t="s">
+        <v>238</v>
+      </c>
+      <c r="D4" s="71" t="s">
+        <v>239</v>
+      </c>
+      <c r="E4" s="72">
+        <v>0.14383333333333334</v>
+      </c>
+      <c r="F4" s="72">
+        <v>0.74203333333333343</v>
+      </c>
+      <c r="G4" s="72" t="s">
+        <v>260</v>
+      </c>
+      <c r="H4" s="72" t="s">
+        <v>261</v>
+      </c>
+      <c r="I4" s="72">
+        <v>0.90359999999999996</v>
+      </c>
+      <c r="J4" s="72">
+        <v>0.92830000000000001</v>
+      </c>
+      <c r="K4" s="72" t="s">
+        <v>406</v>
+      </c>
+      <c r="L4" s="72" t="s">
+        <v>407</v>
+      </c>
+      <c r="M4" s="72">
+        <v>0.99856666666666671</v>
+      </c>
+      <c r="N4" s="72">
+        <v>0.99876666666666669</v>
+      </c>
+      <c r="O4" s="72" t="s">
+        <v>426</v>
+      </c>
+      <c r="P4" s="72" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q4" s="72">
+        <v>1.4733333333333334E-2</v>
+      </c>
+      <c r="R4" s="72">
+        <v>0.24016666666666664</v>
+      </c>
+      <c r="S4" s="72" t="s">
+        <v>445</v>
+      </c>
+      <c r="T4" s="72" t="s">
+        <v>446</v>
+      </c>
+      <c r="U4" s="72">
+        <v>0.69036666666666668</v>
+      </c>
+      <c r="V4" s="72">
+        <v>0.88426666666666665</v>
+      </c>
+      <c r="W4" s="72" t="s">
+        <v>465</v>
+      </c>
+      <c r="X4" s="72" t="s">
+        <v>466</v>
+      </c>
+      <c r="Y4" s="72">
+        <v>0.99226666666666663</v>
+      </c>
+      <c r="Z4" s="72">
+        <v>0.99299999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="71" t="s">
+        <v>281</v>
+      </c>
+      <c r="B5" s="71" t="s">
+        <v>282</v>
+      </c>
+      <c r="C5" s="71" t="s">
+        <v>240</v>
+      </c>
+      <c r="D5" s="71" t="s">
+        <v>241</v>
+      </c>
+      <c r="E5" s="72">
+        <v>0.46556666666666668</v>
+      </c>
+      <c r="F5" s="72">
+        <v>0.58686666666666676</v>
+      </c>
+      <c r="G5" s="72" t="s">
+        <v>262</v>
+      </c>
+      <c r="H5" s="72" t="s">
+        <v>263</v>
+      </c>
+      <c r="I5" s="72">
+        <v>0.92346666666666666</v>
+      </c>
+      <c r="J5" s="72">
+        <v>0.94200000000000006</v>
+      </c>
+      <c r="K5" s="72" t="s">
+        <v>408</v>
+      </c>
+      <c r="L5" s="72" t="s">
+        <v>409</v>
+      </c>
+      <c r="M5" s="72">
+        <v>0.96356666666666657</v>
+      </c>
+      <c r="N5" s="72">
+        <v>0.96423333333333316</v>
+      </c>
+      <c r="O5" s="72" t="s">
+        <v>428</v>
+      </c>
+      <c r="P5" s="72" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q5" s="72">
+        <v>9.1466666666666654E-2</v>
+      </c>
+      <c r="R5" s="72">
+        <v>0.15410000000000001</v>
+      </c>
+      <c r="S5" s="72" t="s">
+        <v>447</v>
+      </c>
+      <c r="T5" s="72" t="s">
+        <v>448</v>
+      </c>
+      <c r="U5" s="72">
+        <v>0.68493333333333339</v>
+      </c>
+      <c r="V5" s="72">
+        <v>0.74316666666666664</v>
+      </c>
+      <c r="W5" s="72" t="s">
+        <v>467</v>
+      </c>
+      <c r="X5" s="72" t="s">
+        <v>468</v>
+      </c>
+      <c r="Y5" s="72">
+        <v>0.97420000000000007</v>
+      </c>
+      <c r="Z5" s="72">
+        <v>0.94306666666666672</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="71" t="s">
+        <v>283</v>
+      </c>
+      <c r="B6" s="71" t="s">
+        <v>282</v>
+      </c>
+      <c r="C6" s="71" t="s">
+        <v>242</v>
+      </c>
+      <c r="D6" s="71" t="s">
+        <v>243</v>
+      </c>
+      <c r="E6" s="72">
+        <v>0.16423333333333334</v>
+      </c>
+      <c r="F6" s="72">
+        <v>0.72330000000000005</v>
+      </c>
+      <c r="G6" s="72" t="s">
+        <v>264</v>
+      </c>
+      <c r="H6" s="72" t="s">
+        <v>265</v>
+      </c>
+      <c r="I6" s="72">
+        <v>0.9032</v>
+      </c>
+      <c r="J6" s="72">
+        <v>0.94259999999999999</v>
+      </c>
+      <c r="K6" s="72" t="s">
+        <v>410</v>
+      </c>
+      <c r="L6" s="72" t="s">
+        <v>411</v>
+      </c>
+      <c r="M6" s="72">
+        <v>0.99916666666666665</v>
+      </c>
+      <c r="N6" s="72">
+        <v>0.99963333333333326</v>
+      </c>
+      <c r="O6" s="72" t="s">
+        <v>430</v>
+      </c>
+      <c r="P6" s="72" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q6" s="72">
+        <v>8.3900000000000016E-2</v>
+      </c>
+      <c r="R6" s="72">
+        <v>0.22603333333333334</v>
+      </c>
+      <c r="S6" s="72" t="s">
+        <v>449</v>
+      </c>
+      <c r="T6" s="72" t="s">
+        <v>450</v>
+      </c>
+      <c r="U6" s="72">
+        <v>0.87726666666666675</v>
+      </c>
+      <c r="V6" s="72">
+        <v>0.94706666666666672</v>
+      </c>
+      <c r="W6" s="72" t="s">
+        <v>469</v>
+      </c>
+      <c r="X6" s="72" t="s">
+        <v>470</v>
+      </c>
+      <c r="Y6" s="72">
+        <v>0.99903333333333333</v>
+      </c>
+      <c r="Z6" s="72">
+        <v>0.99753333333333327</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="71" t="s">
+        <v>284</v>
+      </c>
+      <c r="B7" s="71" t="s">
+        <v>285</v>
+      </c>
+      <c r="C7" s="71" t="s">
+        <v>244</v>
+      </c>
+      <c r="D7" s="71" t="s">
+        <v>245</v>
+      </c>
+      <c r="E7" s="72">
+        <v>0.55779999999999996</v>
+      </c>
+      <c r="F7" s="72">
+        <v>0.76313333333333333</v>
+      </c>
+      <c r="G7" s="72" t="s">
+        <v>261</v>
+      </c>
+      <c r="H7" s="72" t="s">
+        <v>266</v>
+      </c>
+      <c r="I7" s="72">
+        <v>0.93110000000000015</v>
+      </c>
+      <c r="J7" s="72">
+        <v>0.94866666666666666</v>
+      </c>
+      <c r="K7" s="72" t="s">
+        <v>412</v>
+      </c>
+      <c r="L7" s="72" t="s">
+        <v>413</v>
+      </c>
+      <c r="M7" s="72">
+        <v>0.99953333333333327</v>
+      </c>
+      <c r="N7" s="72">
+        <v>0.9996600000000001</v>
+      </c>
+      <c r="O7" s="72" t="s">
+        <v>432</v>
+      </c>
+      <c r="P7" s="72" t="s">
+        <v>433</v>
+      </c>
+      <c r="Q7" s="72">
+        <v>0.11120000000000001</v>
+      </c>
+      <c r="R7" s="72">
+        <v>0.28063333333333335</v>
+      </c>
+      <c r="S7" s="72" t="s">
+        <v>451</v>
+      </c>
+      <c r="T7" s="72" t="s">
+        <v>452</v>
+      </c>
+      <c r="U7" s="72">
+        <v>0.92949999999999999</v>
+      </c>
+      <c r="V7" s="72">
+        <v>0.98116666666666663</v>
+      </c>
+      <c r="W7" s="72" t="s">
+        <v>471</v>
+      </c>
+      <c r="X7" s="72" t="s">
+        <v>472</v>
+      </c>
+      <c r="Y7" s="72">
+        <v>0.99893333333333334</v>
+      </c>
+      <c r="Z7" s="72">
+        <v>0.99926666666666664</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="71" t="s">
+        <v>286</v>
+      </c>
+      <c r="B8" s="71" t="s">
+        <v>287</v>
+      </c>
+      <c r="C8" s="71" t="s">
+        <v>246</v>
+      </c>
+      <c r="D8" s="71" t="s">
+        <v>247</v>
+      </c>
+      <c r="E8" s="72">
+        <v>0.25696666666666662</v>
+      </c>
+      <c r="F8" s="72">
+        <v>0.69349999999999989</v>
+      </c>
+      <c r="G8" s="72" t="s">
+        <v>267</v>
+      </c>
+      <c r="H8" s="72" t="s">
+        <v>268</v>
+      </c>
+      <c r="I8" s="72">
+        <v>0.9234</v>
+      </c>
+      <c r="J8" s="72">
+        <v>0.93570000000000009</v>
+      </c>
+      <c r="K8" s="72" t="s">
+        <v>414</v>
+      </c>
+      <c r="L8" s="72" t="s">
+        <v>415</v>
+      </c>
+      <c r="M8" s="72">
+        <v>0.99986666666666668</v>
+      </c>
+      <c r="N8" s="72">
+        <v>0.99973333333333336</v>
+      </c>
+      <c r="O8" s="72" t="s">
+        <v>434</v>
+      </c>
+      <c r="P8" s="72" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q8" s="72">
+        <v>3.8933333333333334E-2</v>
+      </c>
+      <c r="R8" s="72">
+        <v>0.22676666666666667</v>
+      </c>
+      <c r="S8" s="72" t="s">
+        <v>453</v>
+      </c>
+      <c r="T8" s="72" t="s">
+        <v>454</v>
+      </c>
+      <c r="U8" s="72">
+        <v>0.84436666666666671</v>
+      </c>
+      <c r="V8" s="72">
+        <v>0.98323333333333329</v>
+      </c>
+      <c r="W8" s="72" t="s">
+        <v>473</v>
+      </c>
+      <c r="X8" s="72" t="s">
+        <v>474</v>
+      </c>
+      <c r="Y8" s="72">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="Z8" s="72">
+        <v>0.99960000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="71" t="s">
+        <v>288</v>
+      </c>
+      <c r="B9" s="71" t="s">
+        <v>289</v>
+      </c>
+      <c r="C9" s="71" t="s">
+        <v>248</v>
+      </c>
+      <c r="D9" s="71" t="s">
+        <v>249</v>
+      </c>
+      <c r="E9" s="72">
+        <v>0.53259999999999996</v>
+      </c>
+      <c r="F9" s="72">
+        <v>0.59853333333333325</v>
+      </c>
+      <c r="G9" s="72" t="s">
+        <v>269</v>
+      </c>
+      <c r="H9" s="72" t="s">
+        <v>270</v>
+      </c>
+      <c r="I9" s="72">
+        <v>0.90703333333333325</v>
+      </c>
+      <c r="J9" s="72">
+        <v>0.92106666666666659</v>
+      </c>
+      <c r="K9" s="72" t="s">
+        <v>416</v>
+      </c>
+      <c r="L9" s="72" t="s">
+        <v>417</v>
+      </c>
+      <c r="M9" s="72">
+        <v>0.96336666666666682</v>
+      </c>
+      <c r="N9" s="72">
+        <v>0.99550000000000016</v>
+      </c>
+      <c r="O9" s="72" t="s">
+        <v>436</v>
+      </c>
+      <c r="P9" s="72" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q9" s="72">
+        <v>0.10110000000000001</v>
+      </c>
+      <c r="R9" s="72">
+        <v>0.14323333333333335</v>
+      </c>
+      <c r="S9" s="72" t="s">
+        <v>455</v>
+      </c>
+      <c r="T9" s="72" t="s">
+        <v>456</v>
+      </c>
+      <c r="U9" s="72">
+        <v>0.75053333333333327</v>
+      </c>
+      <c r="V9" s="72">
+        <v>0.82923333333333338</v>
+      </c>
+      <c r="W9" s="72" t="s">
+        <v>475</v>
+      </c>
+      <c r="X9" s="72" t="s">
+        <v>476</v>
+      </c>
+      <c r="Y9" s="72">
+        <v>0.78526666666666667</v>
+      </c>
+      <c r="Z9" s="72">
+        <v>0.98523333333333329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="71" t="s">
+        <v>290</v>
+      </c>
+      <c r="B10" s="71" t="s">
+        <v>291</v>
+      </c>
+      <c r="C10" s="71" t="s">
+        <v>250</v>
+      </c>
+      <c r="D10" s="71" t="s">
+        <v>251</v>
+      </c>
+      <c r="E10" s="72">
+        <v>0.23273333333333335</v>
+      </c>
+      <c r="F10" s="72">
+        <v>0.50613333333333332</v>
+      </c>
+      <c r="G10" s="72" t="s">
+        <v>271</v>
+      </c>
+      <c r="H10" s="72" t="s">
+        <v>272</v>
+      </c>
+      <c r="I10" s="72">
+        <v>0.91790000000000005</v>
+      </c>
+      <c r="J10" s="72">
+        <v>0.93546666666666667</v>
+      </c>
+      <c r="K10" s="72" t="s">
+        <v>418</v>
+      </c>
+      <c r="L10" s="72" t="s">
+        <v>419</v>
+      </c>
+      <c r="M10" s="72">
+        <v>0.99963333333333326</v>
+      </c>
+      <c r="N10" s="72">
+        <v>0.99963333333333326</v>
+      </c>
+      <c r="O10" s="72" t="s">
+        <v>438</v>
+      </c>
+      <c r="P10" s="72" t="s">
+        <v>439</v>
+      </c>
+      <c r="Q10" s="72">
+        <v>1.5799999999999998E-2</v>
+      </c>
+      <c r="R10" s="72">
+        <v>0.12819999999999998</v>
+      </c>
+      <c r="S10" s="72" t="s">
+        <v>457</v>
+      </c>
+      <c r="T10" s="72" t="s">
+        <v>458</v>
+      </c>
+      <c r="U10" s="72">
+        <v>0.7658666666666667</v>
+      </c>
+      <c r="V10" s="72">
+        <v>0.96770000000000012</v>
+      </c>
+      <c r="W10" s="72" t="s">
+        <v>477</v>
+      </c>
+      <c r="X10" s="72" t="s">
+        <v>478</v>
+      </c>
+      <c r="Y10" s="72">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="Z10" s="72">
+        <v>0.99970000000000014</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="71" t="s">
+        <v>292</v>
+      </c>
+      <c r="B11" s="71" t="s">
+        <v>293</v>
+      </c>
+      <c r="C11" s="71" t="s">
+        <v>252</v>
+      </c>
+      <c r="D11" s="71" t="s">
+        <v>253</v>
+      </c>
+      <c r="E11" s="72">
+        <v>0.1055</v>
+      </c>
+      <c r="F11" s="72">
+        <v>0.65189999999999992</v>
+      </c>
+      <c r="G11" s="72" t="s">
+        <v>273</v>
+      </c>
+      <c r="H11" s="72" t="s">
+        <v>274</v>
+      </c>
+      <c r="I11" s="72">
+        <v>0.58843333333333325</v>
+      </c>
+      <c r="J11" s="72">
+        <v>0.81610000000000005</v>
+      </c>
+      <c r="K11" s="72" t="s">
+        <v>420</v>
+      </c>
+      <c r="L11" s="72" t="s">
+        <v>421</v>
+      </c>
+      <c r="M11" s="72">
+        <v>0.84123333333333328</v>
+      </c>
+      <c r="N11" s="72">
+        <v>0.88976666666666659</v>
+      </c>
+      <c r="O11" s="72" t="s">
+        <v>440</v>
+      </c>
+      <c r="P11" s="72" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q11" s="72">
+        <v>1.4533333333333334E-2</v>
+      </c>
+      <c r="R11" s="72">
+        <v>0.20473333333333332</v>
+      </c>
+      <c r="S11" s="72" t="s">
+        <v>459</v>
+      </c>
+      <c r="T11" s="72" t="s">
+        <v>460</v>
+      </c>
+      <c r="U11" s="72">
+        <v>0.35666666666666669</v>
+      </c>
+      <c r="V11" s="72">
+        <v>0.5827</v>
+      </c>
+      <c r="W11" s="72" t="s">
+        <v>479</v>
+      </c>
+      <c r="X11" s="72" t="s">
+        <v>480</v>
+      </c>
+      <c r="Y11" s="72">
+        <v>0.42500000000000004</v>
+      </c>
+      <c r="Z11" s="72">
+        <v>0.65656666666666663</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="71" t="s">
+        <v>294</v>
+      </c>
+      <c r="B12" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="C12" s="71" t="s">
+        <v>254</v>
+      </c>
+      <c r="D12" s="71" t="s">
+        <v>255</v>
+      </c>
+      <c r="E12" s="72">
+        <v>0.58619999999999994</v>
+      </c>
+      <c r="F12" s="72">
+        <v>0.67796666666666672</v>
+      </c>
+      <c r="G12" s="72" t="s">
+        <v>275</v>
+      </c>
+      <c r="H12" s="72" t="s">
+        <v>276</v>
+      </c>
+      <c r="I12" s="72">
+        <v>0.92743333333333344</v>
+      </c>
+      <c r="J12" s="72">
+        <v>0.94253333333333333</v>
+      </c>
+      <c r="K12" s="72" t="s">
+        <v>422</v>
+      </c>
+      <c r="L12" s="72" t="s">
+        <v>423</v>
+      </c>
+      <c r="M12" s="72">
+        <v>0.99946666666666673</v>
+      </c>
+      <c r="N12" s="72">
+        <v>0.99953333333333338</v>
+      </c>
+      <c r="O12" s="72" t="s">
+        <v>441</v>
+      </c>
+      <c r="P12" s="72" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q12" s="72">
+        <v>0.12583333333333332</v>
+      </c>
+      <c r="R12" s="72">
+        <v>0.20503333333333332</v>
+      </c>
+      <c r="S12" s="72" t="s">
+        <v>461</v>
+      </c>
+      <c r="T12" s="72" t="s">
+        <v>462</v>
+      </c>
+      <c r="U12" s="72">
+        <v>0.87869999999999993</v>
+      </c>
+      <c r="V12" s="72">
+        <v>0.94123333333333337</v>
+      </c>
+      <c r="W12" s="72" t="s">
+        <v>481</v>
+      </c>
+      <c r="X12" s="72" t="s">
+        <v>468</v>
+      </c>
+      <c r="Y12" s="72">
+        <v>0.99923333333333331</v>
+      </c>
+      <c r="Z12" s="72">
+        <v>0.99663333333333337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="71" t="s">
+        <v>296</v>
+      </c>
+      <c r="B13" s="71" t="s">
+        <v>297</v>
+      </c>
+      <c r="C13" s="71" t="s">
+        <v>256</v>
+      </c>
+      <c r="D13" s="71" t="s">
+        <v>257</v>
+      </c>
+      <c r="E13" s="72">
+        <v>0.40103333333333335</v>
+      </c>
+      <c r="F13" s="72">
+        <v>0.59909999999999997</v>
+      </c>
+      <c r="G13" s="72" t="s">
+        <v>277</v>
+      </c>
+      <c r="H13" s="72" t="s">
+        <v>278</v>
+      </c>
+      <c r="I13" s="72">
+        <v>0.8468</v>
+      </c>
+      <c r="J13" s="72">
+        <v>0.87766666666666671</v>
+      </c>
+      <c r="K13" s="72" t="s">
+        <v>424</v>
+      </c>
+      <c r="L13" s="72" t="s">
+        <v>425</v>
+      </c>
+      <c r="M13" s="72">
+        <v>0.89160000000000006</v>
+      </c>
+      <c r="N13" s="72">
+        <v>0.90099999999999991</v>
+      </c>
+      <c r="O13" s="72" t="s">
+        <v>443</v>
+      </c>
+      <c r="P13" s="72" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q13" s="72">
+        <v>5.2700000000000004E-2</v>
+      </c>
+      <c r="R13" s="72">
+        <v>0.16113333333333332</v>
+      </c>
+      <c r="S13" s="72" t="s">
+        <v>463</v>
+      </c>
+      <c r="T13" s="72" t="s">
+        <v>464</v>
+      </c>
+      <c r="U13" s="72">
+        <v>0.62140000000000006</v>
+      </c>
+      <c r="V13" s="72">
+        <v>0.66830000000000001</v>
+      </c>
+      <c r="W13" s="72" t="s">
+        <v>482</v>
+      </c>
+      <c r="X13" s="72" t="s">
+        <v>483</v>
+      </c>
+      <c r="Y13" s="72">
+        <v>0.66780000000000006</v>
+      </c>
+      <c r="Z13" s="72">
+        <v>0.68786666666666674</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="W2:X2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="C4:D13 G4:H13 K4:L13 O4:P13 S4:T13 W4:X13" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>